--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_2979241014CSDSDay6openfield2024-12-06200757trace/processed_2979241014CSDSDay6openfield2024-12-06200757trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_2979241014CSDSDay6openfield2024-12-06200757trace/processed_2979241014CSDSDay6openfield2024-12-06200757trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X52"/>
+  <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,37 +560,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C2" t="n">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D2" t="n">
-        <v>2.202579319047938</v>
+        <v>2.229388711354307</v>
       </c>
       <c r="E2" t="n">
-        <v>1.428315188288589</v>
+        <v>1.435098872941789</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.7742641307593494</v>
+        <v>-0.7942898384125177</v>
       </c>
       <c r="G2" t="n">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H2" t="n">
-        <v>60.56539243695887</v>
+        <v>59.83930408993889</v>
       </c>
       <c r="I2" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J2" t="n">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="K2" t="n">
-        <v>200.3967398948939</v>
+        <v>207.0023261178562</v>
       </c>
       <c r="L2" t="n">
-        <v>6.381938060089056</v>
+        <v>6.404710798315992</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.6102312021656675</v>
+        <v>0.6196500252961047</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.6377952755905512</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3519126189846741</v>
+        <v>0.5023655251843134</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9679113809854215</v>
+        <v>0.9039261466596806</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>601</v>
+        <v>301</v>
       </c>
       <c r="B3" t="n">
-        <v>641</v>
+        <v>328</v>
       </c>
       <c r="C3" t="n">
-        <v>711</v>
+        <v>381</v>
       </c>
       <c r="D3" t="n">
-        <v>2.613565642702486</v>
+        <v>2.548594021888039</v>
       </c>
       <c r="E3" t="n">
-        <v>1.839301511943137</v>
+        <v>1.754304183475521</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.7742641307593494</v>
+        <v>-0.7942898384125177</v>
       </c>
       <c r="G3" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="H3" t="n">
-        <v>45.14233147598145</v>
+        <v>53.95572449296895</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J3" t="n">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="K3" t="n">
-        <v>186.3208182764536</v>
+        <v>162.9324443654114</v>
       </c>
       <c r="L3" t="n">
-        <v>7.572764305674971</v>
+        <v>7.321741412512139</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.8476208578490317</v>
+        <v>0.6846884796981002</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2929415377526167</v>
+        <v>0.07348050853787536</v>
       </c>
       <c r="S3" t="n">
-        <v>0.915850382870927</v>
+        <v>0.8935045016802704</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2815</v>
+        <v>603</v>
       </c>
       <c r="B4" t="n">
-        <v>2895</v>
+        <v>638</v>
       </c>
       <c r="C4" t="n">
-        <v>2998</v>
+        <v>713</v>
       </c>
       <c r="D4" t="n">
-        <v>3.75830358158009</v>
+        <v>2.746939246210992</v>
       </c>
       <c r="E4" t="n">
-        <v>3.156348039618831</v>
+        <v>1.952649407798474</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6019555419612593</v>
+        <v>-0.7942898384125177</v>
       </c>
       <c r="G4" t="n">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c r="H4" t="n">
-        <v>60.98787210271848</v>
+        <v>36.66062336890298</v>
       </c>
       <c r="I4" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="J4" t="n">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="K4" t="n">
-        <v>456.4584796506848</v>
+        <v>189.54826473357</v>
       </c>
       <c r="L4" t="n">
-        <v>22.0578851531269</v>
+        <v>7.891558507909523</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.796765611032093</v>
+        <v>0.8445831416838191</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7766990291262136</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2376569974217516</v>
+        <v>0.3469521077615964</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9848810091177597</v>
+        <v>0.797329353914739</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>266</v>
+        <v>880</v>
       </c>
       <c r="B5" t="n">
-        <v>312</v>
+        <v>942</v>
       </c>
       <c r="C5" t="n">
-        <v>442</v>
+        <v>1042</v>
       </c>
       <c r="D5" t="n">
-        <v>3.094574813950959</v>
+        <v>2.818962219054232</v>
       </c>
       <c r="E5" t="n">
-        <v>2.523888744808193</v>
+        <v>2.024672380641714</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.5706860691427657</v>
+        <v>-0.7942898384125177</v>
       </c>
       <c r="G5" t="n">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="H5" t="n">
-        <v>58.99548221724962</v>
+        <v>92.01974758094821</v>
       </c>
       <c r="I5" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="J5" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>270.6549556073966</v>
+        <v>286.2489350571945</v>
       </c>
       <c r="L5" t="n">
-        <v>19.10314091883026</v>
+        <v>8.098470074989136</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.8853169441106952</v>
+        <v>0.7137588840149441</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3538461538461539</v>
+        <v>0.62</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3705700377621607</v>
+        <v>0.1506474218768624</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7565152551905956</v>
+        <v>0.965545738228601</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>442</v>
+        <v>1042</v>
       </c>
       <c r="B6" t="n">
-        <v>481</v>
+        <v>1071</v>
       </c>
       <c r="C6" t="n">
-        <v>548</v>
+        <v>1115</v>
       </c>
       <c r="D6" t="n">
-        <v>1.669651026417259</v>
+        <v>2.003541646127514</v>
       </c>
       <c r="E6" t="n">
-        <v>1.098964957274494</v>
+        <v>1.209251807714996</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5706860691427657</v>
+        <v>-0.7942898384125177</v>
       </c>
       <c r="G6" t="n">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="H6" t="n">
-        <v>40.52283332982495</v>
+        <v>32.00856347809622</v>
       </c>
       <c r="I6" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J6" t="n">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="K6" t="n">
-        <v>121.8163014221522</v>
+        <v>104.610751578868</v>
       </c>
       <c r="L6" t="n">
-        <v>10.30693415429056</v>
+        <v>5.755884898167197</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.8018368744745328</v>
+        <v>0.6843689983008786</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.582089552238806</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1529150947593654</v>
+        <v>0.05936125588976406</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9582740558748489</v>
+        <v>0.9927508618781753</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>634</v>
+        <v>2830</v>
       </c>
       <c r="B7" t="n">
-        <v>667</v>
+        <v>2894</v>
       </c>
       <c r="C7" t="n">
-        <v>786</v>
+        <v>2998</v>
       </c>
       <c r="D7" t="n">
-        <v>4.517358464522615</v>
+        <v>4.081924593331892</v>
       </c>
       <c r="E7" t="n">
-        <v>3.946672395379849</v>
+        <v>3.478452706758287</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5706860691427657</v>
+        <v>-0.6034718865736043</v>
       </c>
       <c r="G7" t="n">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="H7" t="n">
-        <v>149.5188011551918</v>
+        <v>40.86324320325275</v>
       </c>
       <c r="I7" t="n">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="J7" t="n">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="K7" t="n">
-        <v>415.2436867308531</v>
+        <v>424.8050118194193</v>
       </c>
       <c r="L7" t="n">
-        <v>27.8861363892732</v>
+        <v>23.3006466498749</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.9258068831111836</v>
+        <v>0.659004592203017</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2773109243697479</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3921617006821309</v>
+        <v>0.274682731956557</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9927694298656542</v>
+        <v>0.9648813610714762</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2339</v>
+        <v>273</v>
       </c>
       <c r="B8" t="n">
-        <v>2377</v>
+        <v>307</v>
       </c>
       <c r="C8" t="n">
-        <v>2430</v>
+        <v>378</v>
       </c>
       <c r="D8" t="n">
-        <v>2.552988162577353</v>
+        <v>3.195323980489086</v>
       </c>
       <c r="E8" t="n">
-        <v>1.929547745550035</v>
+        <v>2.622090986240715</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6234404170273179</v>
+        <v>-0.5732329942483702</v>
       </c>
       <c r="G8" t="n">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="H8" t="n">
-        <v>40.38296746168771</v>
+        <v>57.00979009172346</v>
       </c>
       <c r="I8" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J8" t="n">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K8" t="n">
-        <v>166.2091463065252</v>
+        <v>199.1507962146663</v>
       </c>
       <c r="L8" t="n">
-        <v>6.829528442458501</v>
+        <v>19.44795785856515</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.6891073203828337</v>
+        <v>0.8619372307867986</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7169811320754716</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="R8" t="n">
-        <v>0.08668800627409518</v>
+        <v>0.2742334446196454</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9733682503024483</v>
+        <v>0.9765574554415142</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>961</v>
+        <v>447</v>
       </c>
       <c r="B9" t="n">
-        <v>1007</v>
+        <v>479</v>
       </c>
       <c r="C9" t="n">
-        <v>1095</v>
+        <v>555</v>
       </c>
       <c r="D9" t="n">
-        <v>3.031422280433542</v>
+        <v>1.738182856043722</v>
       </c>
       <c r="E9" t="n">
-        <v>2.423843239391866</v>
+        <v>1.164949861795352</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6075790410416757</v>
+        <v>-0.5732329942483702</v>
       </c>
       <c r="G9" t="n">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="H9" t="n">
-        <v>86.01884353781031</v>
+        <v>41.3884287835765</v>
       </c>
       <c r="I9" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="J9" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K9" t="n">
-        <v>239.8631485744854</v>
+        <v>122.0856801139282</v>
       </c>
       <c r="L9" t="n">
-        <v>9.763220762011178</v>
+        <v>10.5792423995906</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.7411303484764007</v>
+        <v>0.891046180393077</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5227272727272727</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1229618521044736</v>
+        <v>0.1817625902079173</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9537606495468052</v>
+        <v>0.9783829225341015</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>477</v>
+        <v>638</v>
       </c>
       <c r="B10" t="n">
-        <v>523</v>
+        <v>667</v>
       </c>
       <c r="C10" t="n">
-        <v>584</v>
+        <v>794</v>
       </c>
       <c r="D10" t="n">
-        <v>3.477400723623195</v>
+        <v>4.715375027610798</v>
       </c>
       <c r="E10" t="n">
-        <v>2.941793057792346</v>
+        <v>4.142142033362428</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5356076658308488</v>
+        <v>-0.5732329942483702</v>
       </c>
       <c r="G10" t="n">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="H10" t="n">
-        <v>91.16671845173653</v>
+        <v>149.9927433503458</v>
       </c>
       <c r="I10" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="J10" t="n">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="K10" t="n">
-        <v>233.8520517375132</v>
+        <v>411.2478508735887</v>
       </c>
       <c r="L10" t="n">
-        <v>7.702277789430386</v>
+        <v>28.69956704993299</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.6612956110234081</v>
+        <v>0.8988534015825566</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7540983606557377</v>
+        <v>0.2283464566929134</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1257886954963703</v>
+        <v>0.421125290183767</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9306700583674224</v>
+        <v>0.9851869323261</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2804</v>
+        <v>1197</v>
       </c>
       <c r="B11" t="n">
-        <v>2864</v>
+        <v>1222</v>
       </c>
       <c r="C11" t="n">
-        <v>2998</v>
+        <v>1272</v>
       </c>
       <c r="D11" t="n">
-        <v>2.415729402313253</v>
+        <v>2.689016565999188</v>
       </c>
       <c r="E11" t="n">
-        <v>1.741943868980051</v>
+        <v>2.075715125424193</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6737855333332022</v>
+        <v>-0.6133014405749949</v>
       </c>
       <c r="G11" t="n">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="H11" t="n">
-        <v>59.20910017113056</v>
+        <v>55.67314858749023</v>
       </c>
       <c r="I11" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="J11" t="n">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="K11" t="n">
-        <v>268.0358689360002</v>
+        <v>107.6800589012791</v>
       </c>
       <c r="L11" t="n">
-        <v>5.331216848166855</v>
+        <v>8.598730316569192</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.6974517948106684</v>
+        <v>0.8356538815518987</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4477611940298508</v>
+        <v>0.5</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3752019252555986</v>
+        <v>0.2391159153085145</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3631997248749889</v>
+        <v>0.981085617050098</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1401</v>
+        <v>1970</v>
       </c>
       <c r="B12" t="n">
-        <v>1448</v>
+        <v>2045</v>
       </c>
       <c r="C12" t="n">
-        <v>1520</v>
+        <v>2150</v>
       </c>
       <c r="D12" t="n">
-        <v>2.75583188988728</v>
+        <v>3.210861502612354</v>
       </c>
       <c r="E12" t="n">
-        <v>2.112247961318755</v>
+        <v>2.597560062037359</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6435839285685249</v>
+        <v>-0.6133014405749949</v>
       </c>
       <c r="G12" t="n">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="H12" t="n">
-        <v>58.54239958397716</v>
+        <v>46.30090115239659</v>
       </c>
       <c r="I12" t="n">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="J12" t="n">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="K12" t="n">
-        <v>187.7502958069489</v>
+        <v>265.8910120897075</v>
       </c>
       <c r="L12" t="n">
-        <v>17.6192375416815</v>
+        <v>10.26744591086543</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.7036276740704982</v>
+        <v>0.685925566304047</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6527777777777778</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1069975854968953</v>
+        <v>1.018787154734146</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9345941885602846</v>
+        <v>0.9625629997289121</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2010</v>
+        <v>2150</v>
       </c>
       <c r="B13" t="n">
-        <v>2054</v>
+        <v>2185</v>
       </c>
       <c r="C13" t="n">
-        <v>2409</v>
+        <v>2400</v>
       </c>
       <c r="D13" t="n">
-        <v>3.716063635393276</v>
+        <v>4.546610242626724</v>
       </c>
       <c r="E13" t="n">
-        <v>3.072479706824752</v>
+        <v>3.93330880205173</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6435839285685249</v>
+        <v>-0.6133014405749949</v>
       </c>
       <c r="G13" t="n">
-        <v>399</v>
+        <v>250</v>
       </c>
       <c r="H13" t="n">
-        <v>111.5062891662687</v>
+        <v>82.67687188480204</v>
       </c>
       <c r="I13" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J13" t="n">
-        <v>355</v>
+        <v>215</v>
       </c>
       <c r="K13" t="n">
-        <v>481.7746393246113</v>
+        <v>506.6067619420785</v>
       </c>
       <c r="L13" t="n">
-        <v>23.758418701903</v>
+        <v>14.53880047643791</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.7960067006200443</v>
+        <v>0.8902182639848915</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.123943661971831</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4974563887554927</v>
+        <v>0.3422112124953884</v>
       </c>
       <c r="S13" t="n">
-        <v>0.6425670621130558</v>
+        <v>0.8797946755168546</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1788</v>
+        <v>1582</v>
       </c>
       <c r="B14" t="n">
-        <v>1840</v>
+        <v>1607</v>
       </c>
       <c r="C14" t="n">
-        <v>1935</v>
+        <v>1680</v>
       </c>
       <c r="D14" t="n">
-        <v>3.21930358361289</v>
+        <v>1.815992812352833</v>
       </c>
       <c r="E14" t="n">
-        <v>2.481915429307178</v>
+        <v>1.18541375012281</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.737388154305712</v>
+        <v>-0.6305790622300234</v>
       </c>
       <c r="G14" t="n">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="H14" t="n">
-        <v>89.10116766303122</v>
+        <v>70.07475560919488</v>
       </c>
       <c r="I14" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="J14" t="n">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="K14" t="n">
-        <v>265.2873521264761</v>
+        <v>130.3688462160388</v>
       </c>
       <c r="L14" t="n">
-        <v>9.835261219258967</v>
+        <v>4.723887676706736</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.7884086224015551</v>
+        <v>0.8478338376488979</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.5473684210526316</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1713788510313193</v>
+        <v>0.3483880378524588</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9897351219354448</v>
+        <v>0.7246614774661164</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1935</v>
+        <v>2236</v>
       </c>
       <c r="B15" t="n">
-        <v>2001</v>
+        <v>2259</v>
       </c>
       <c r="C15" t="n">
-        <v>2201</v>
+        <v>2339</v>
       </c>
       <c r="D15" t="n">
-        <v>2.415689342213673</v>
+        <v>2.8651077444354</v>
       </c>
       <c r="E15" t="n">
-        <v>1.678301187907961</v>
+        <v>2.234528682205376</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.737388154305712</v>
+        <v>-0.6305790622300234</v>
       </c>
       <c r="G15" t="n">
-        <v>266</v>
+        <v>103</v>
       </c>
       <c r="H15" t="n">
-        <v>161.4230958916312</v>
+        <v>22.05037249979387</v>
       </c>
       <c r="I15" t="n">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K15" t="n">
-        <v>425.8114713919285</v>
+        <v>219.283987771472</v>
       </c>
       <c r="L15" t="n">
-        <v>7.380147627639292</v>
+        <v>7.45291890711833</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.7380330316962095</v>
+        <v>0.8553990552352064</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.33</v>
+        <v>0.2875</v>
       </c>
       <c r="R15" t="n">
-        <v>0.07386821949655921</v>
+        <v>0.1852208542718236</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8516988869505533</v>
+        <v>0.8865073093760175</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2201</v>
+        <v>2339</v>
       </c>
       <c r="B16" t="n">
-        <v>2245</v>
+        <v>2374</v>
       </c>
       <c r="C16" t="n">
-        <v>2412</v>
+        <v>2426</v>
       </c>
       <c r="D16" t="n">
-        <v>2.186029973016273</v>
+        <v>2.595273283750439</v>
       </c>
       <c r="E16" t="n">
-        <v>1.448641818710561</v>
+        <v>1.964694221520415</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.737388154305712</v>
+        <v>-0.6305790622300234</v>
       </c>
       <c r="G16" t="n">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="H16" t="n">
-        <v>119.8769018845855</v>
+        <v>45.81237770046118</v>
       </c>
       <c r="I16" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J16" t="n">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="K16" t="n">
-        <v>284.382220697468</v>
+        <v>161.7896074359783</v>
       </c>
       <c r="L16" t="n">
-        <v>6.67851765431079</v>
+        <v>6.751006611590567</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.8468324369783113</v>
+        <v>0.6161879807159625</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.2634730538922156</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1386758325005157</v>
+        <v>0.01725582435881427</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8838421894650633</v>
+        <v>0.9607667104380959</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1739</v>
+        <v>590</v>
       </c>
       <c r="B17" t="n">
-        <v>1775</v>
+        <v>621</v>
       </c>
       <c r="C17" t="n">
-        <v>1853</v>
+        <v>807</v>
       </c>
       <c r="D17" t="n">
-        <v>2.881647710680307</v>
+        <v>3.247292424823362</v>
       </c>
       <c r="E17" t="n">
-        <v>2.323229223428213</v>
+        <v>2.684935753216313</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5584184872520932</v>
+        <v>-0.5623566716070489</v>
       </c>
       <c r="G17" t="n">
-        <v>114</v>
+        <v>217</v>
       </c>
       <c r="H17" t="n">
-        <v>84.66814861614216</v>
+        <v>52.30270758804602</v>
       </c>
       <c r="I17" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J17" t="n">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="K17" t="n">
-        <v>185.9256109955278</v>
+        <v>307.6170464790713</v>
       </c>
       <c r="L17" t="n">
-        <v>8.041977463677743</v>
+        <v>7.058716243009972</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.8286235029910095</v>
+        <v>0.8626217239780268</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1940067793758671</v>
+        <v>0.3341230402343282</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9911112991896232</v>
+        <v>0.9522082502688547</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>384</v>
+        <v>1894</v>
       </c>
       <c r="B18" t="n">
-        <v>444</v>
+        <v>1942</v>
       </c>
       <c r="C18" t="n">
-        <v>569</v>
+        <v>2160</v>
       </c>
       <c r="D18" t="n">
-        <v>2.797788774155584</v>
+        <v>2.227415607112343</v>
       </c>
       <c r="E18" t="n">
-        <v>2.088634198569187</v>
+        <v>1.548011490265897</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7091545755863976</v>
+        <v>-0.6794041168464454</v>
       </c>
       <c r="G18" t="n">
-        <v>185</v>
+        <v>266</v>
       </c>
       <c r="H18" t="n">
-        <v>137.8303054840758</v>
+        <v>49.93977579896818</v>
       </c>
       <c r="I18" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J18" t="n">
-        <v>125</v>
+        <v>218</v>
       </c>
       <c r="K18" t="n">
-        <v>356.4235395135446</v>
+        <v>336.7027640792594</v>
       </c>
       <c r="L18" t="n">
-        <v>8.047745707923461</v>
+        <v>4.920391532623025</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.743332578059696</v>
+        <v>0.8434885672073578</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.48</v>
+        <v>0.2201834862385321</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2665360834399924</v>
+        <v>0.3691608363826238</v>
       </c>
       <c r="S18" t="n">
-        <v>0.6833126431505135</v>
+        <v>0.871821152052037</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>569</v>
+        <v>2807</v>
       </c>
       <c r="B19" t="n">
-        <v>610</v>
+        <v>2862</v>
       </c>
       <c r="C19" t="n">
-        <v>700</v>
+        <v>2998</v>
       </c>
       <c r="D19" t="n">
-        <v>2.511668643108295</v>
+        <v>2.562326394397701</v>
       </c>
       <c r="E19" t="n">
-        <v>1.802514067521897</v>
+        <v>1.882922277551255</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7091545755863976</v>
+        <v>-0.6794041168464454</v>
       </c>
       <c r="G19" t="n">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="H19" t="n">
-        <v>50.08812948113825</v>
+        <v>64.981141354192</v>
       </c>
       <c r="I19" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J19" t="n">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="K19" t="n">
-        <v>197.4135806592077</v>
+        <v>269.8298110381785</v>
       </c>
       <c r="L19" t="n">
-        <v>7.224730733434799</v>
+        <v>5.660214041130695</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.870936133989169</v>
+        <v>0.6826125965694558</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4555555555555555</v>
+        <v>0.4044117647058824</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1743785368122325</v>
+        <v>0.3563780152870211</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9832416405496733</v>
+        <v>0.3232868238936533</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>700</v>
+        <v>1320</v>
       </c>
       <c r="B20" t="n">
-        <v>769</v>
+        <v>1349</v>
       </c>
       <c r="C20" t="n">
-        <v>882</v>
+        <v>1394</v>
       </c>
       <c r="D20" t="n">
-        <v>3.742696908065937</v>
+        <v>1.809929045877654</v>
       </c>
       <c r="E20" t="n">
-        <v>3.033542332479539</v>
+        <v>1.160802384493047</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.7091545755863976</v>
+        <v>-0.6491266613846075</v>
       </c>
       <c r="G20" t="n">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="H20" t="n">
-        <v>122.4422628475398</v>
+        <v>24.94808235470487</v>
       </c>
       <c r="I20" t="n">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="J20" t="n">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="K20" t="n">
-        <v>410.6078526887607</v>
+        <v>77.02703092525694</v>
       </c>
       <c r="L20" t="n">
-        <v>10.76574230913369</v>
+        <v>11.58780870602781</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.711040497593371</v>
+        <v>0.8288264798763251</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.6106194690265486</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="R20" t="n">
-        <v>0.3420507604368807</v>
+        <v>0.2417469692565411</v>
       </c>
       <c r="S20" t="n">
-        <v>0.8681412798935256</v>
+        <v>0.9795033804417377</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>984</v>
+        <v>1394</v>
       </c>
       <c r="B21" t="n">
-        <v>1016</v>
+        <v>1444</v>
       </c>
       <c r="C21" t="n">
-        <v>1153</v>
+        <v>1526</v>
       </c>
       <c r="D21" t="n">
-        <v>2.234744181327017</v>
+        <v>2.909198382808438</v>
       </c>
       <c r="E21" t="n">
-        <v>1.525589605740619</v>
+        <v>2.260071721423831</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.7091545755863976</v>
+        <v>-0.6491266613846075</v>
       </c>
       <c r="G21" t="n">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="H21" t="n">
-        <v>25.2666615471411</v>
+        <v>55.19661607512808</v>
       </c>
       <c r="I21" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="J21" t="n">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="K21" t="n">
-        <v>177.410859909267</v>
+        <v>196.1518663801758</v>
       </c>
       <c r="L21" t="n">
-        <v>6.428166793617033</v>
+        <v>18.62572150253697</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.7875055592285228</v>
+        <v>0.6762851431091532</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.2335766423357664</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="R21" t="n">
-        <v>0.5294230778767549</v>
+        <v>0.1371309436490554</v>
       </c>
       <c r="S21" t="n">
-        <v>0.6613706108622703</v>
+        <v>0.9150206077121512</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>568</v>
+        <v>2015</v>
       </c>
       <c r="B22" t="n">
-        <v>608</v>
+        <v>2048</v>
       </c>
       <c r="C22" t="n">
-        <v>1056</v>
+        <v>2182</v>
       </c>
       <c r="D22" t="n">
-        <v>2.759656317141744</v>
+        <v>3.733604545486791</v>
       </c>
       <c r="E22" t="n">
-        <v>2.240051056269463</v>
+        <v>3.084477884102183</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.5196052608722813</v>
+        <v>-0.6491266613846075</v>
       </c>
       <c r="G22" t="n">
-        <v>488</v>
+        <v>167</v>
       </c>
       <c r="H22" t="n">
-        <v>60.8432543026488</v>
+        <v>112.03563737234</v>
       </c>
       <c r="I22" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J22" t="n">
-        <v>448</v>
+        <v>134</v>
       </c>
       <c r="K22" t="n">
-        <v>369.3484866968187</v>
+        <v>349.1294501673132</v>
       </c>
       <c r="L22" t="n">
-        <v>11.49055430814633</v>
+        <v>23.90386261582841</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.6964860853171928</v>
+        <v>0.8643998312431042</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.08928571428571429</v>
+        <v>0.2462686567164179</v>
       </c>
       <c r="R22" t="n">
-        <v>0.5986442228551258</v>
+        <v>0.1867242717078934</v>
       </c>
       <c r="S22" t="n">
-        <v>0.5755958723972791</v>
+        <v>0.8557513017941959</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1056</v>
+        <v>1787</v>
       </c>
       <c r="B23" t="n">
-        <v>1158</v>
+        <v>1810</v>
       </c>
       <c r="C23" t="n">
-        <v>1447</v>
+        <v>1869</v>
       </c>
       <c r="D23" t="n">
-        <v>5.509101444742262</v>
+        <v>2.241537183223815</v>
       </c>
       <c r="E23" t="n">
-        <v>4.989496183869981</v>
+        <v>1.695207553211505</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.5196052608722813</v>
+        <v>-0.5463296300123097</v>
       </c>
       <c r="G23" t="n">
-        <v>391</v>
+        <v>82</v>
       </c>
       <c r="H23" t="n">
-        <v>82.24250337705621</v>
+        <v>20.21083994129276</v>
       </c>
       <c r="I23" t="n">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="J23" t="n">
-        <v>289</v>
+        <v>59</v>
       </c>
       <c r="K23" t="n">
-        <v>667.793845722269</v>
+        <v>131.8957073018864</v>
       </c>
       <c r="L23" t="n">
-        <v>22.93859164515917</v>
+        <v>5.074170289003018</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.791788022660857</v>
+        <v>0.7429478988361962</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="R23" t="n">
-        <v>0.5628250430883134</v>
+        <v>0.1611494928649987</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9493355617764457</v>
+        <v>0.6315085234056768</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1447</v>
+        <v>1869</v>
       </c>
       <c r="B24" t="n">
-        <v>1501</v>
+        <v>1904</v>
       </c>
       <c r="C24" t="n">
-        <v>1576</v>
+        <v>1960</v>
       </c>
       <c r="D24" t="n">
-        <v>2.18347964754443</v>
+        <v>1.858980462313099</v>
       </c>
       <c r="E24" t="n">
-        <v>1.663874386672149</v>
+        <v>1.312650832300789</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.5196052608722813</v>
+        <v>-0.5463296300123097</v>
       </c>
       <c r="G24" t="n">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="H24" t="n">
-        <v>73.01583457543234</v>
+        <v>40.32311084691264</v>
       </c>
       <c r="I24" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="J24" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="K24" t="n">
-        <v>187.9434942943051</v>
+        <v>114.9673607746518</v>
       </c>
       <c r="L24" t="n">
-        <v>9.09149132629214</v>
+        <v>4.208176201717001</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.7575549906951787</v>
+        <v>0.7355357932055836</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.72</v>
+        <v>0.625</v>
       </c>
       <c r="R24" t="n">
-        <v>0.3775024572685033</v>
+        <v>0.2486129946065714</v>
       </c>
       <c r="S24" t="n">
-        <v>0.8441424930226707</v>
+        <v>0.7020553509476142</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1463</v>
+        <v>1960</v>
       </c>
       <c r="B25" t="n">
-        <v>1523</v>
+        <v>2044</v>
       </c>
       <c r="C25" t="n">
-        <v>1604</v>
+        <v>2202</v>
       </c>
       <c r="D25" t="n">
-        <v>1.231185766213483</v>
+        <v>2.523466632262191</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6955665168425276</v>
+        <v>1.977137002249881</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.5356192493709556</v>
+        <v>-0.5463296300123097</v>
       </c>
       <c r="G25" t="n">
-        <v>141</v>
+        <v>242</v>
       </c>
       <c r="H25" t="n">
-        <v>54.66143261097977</v>
+        <v>39.54466700506441</v>
       </c>
       <c r="I25" t="n">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="J25" t="n">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="K25" t="n">
-        <v>76.66314622755323</v>
+        <v>277.7743097977595</v>
       </c>
       <c r="L25" t="n">
-        <v>8.724388842738907</v>
+        <v>5.712374305698412</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.8080206185937528</v>
+        <v>0.4609399371047785</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.5316455696202531</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2100109197897158</v>
+        <v>0.4113869031201884</v>
       </c>
       <c r="S25" t="n">
-        <v>0.9409371372967303</v>
+        <v>0.3149988720549757</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2667</v>
+        <v>1137</v>
       </c>
       <c r="B26" t="n">
-        <v>2705</v>
+        <v>1182</v>
       </c>
       <c r="C26" t="n">
-        <v>2772</v>
+        <v>1320</v>
       </c>
       <c r="D26" t="n">
-        <v>3.055642221660166</v>
+        <v>2.001194210208953</v>
       </c>
       <c r="E26" t="n">
-        <v>2.527097521718554</v>
+        <v>1.255037092990103</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.5285446999416116</v>
+        <v>-0.7461571172188506</v>
       </c>
       <c r="G26" t="n">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="H26" t="n">
-        <v>93.28677178594489</v>
+        <v>66.10905426372233</v>
       </c>
       <c r="I26" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J26" t="n">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="K26" t="n">
-        <v>279.3928365121507</v>
+        <v>153.2996720502193</v>
       </c>
       <c r="L26" t="n">
-        <v>27.03036077712824</v>
+        <v>6.051404709845292</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.6293200410299468</v>
+        <v>0.9383320374380217</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.5671641791044776</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="R26" t="n">
-        <v>0.06859663385642704</v>
+        <v>0.2480322703317155</v>
       </c>
       <c r="S26" t="n">
-        <v>0.8049941769834112</v>
+        <v>0.8794095829667835</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2772</v>
+        <v>1789</v>
       </c>
       <c r="B27" t="n">
-        <v>2810</v>
+        <v>1845</v>
       </c>
       <c r="C27" t="n">
-        <v>2998</v>
+        <v>1939</v>
       </c>
       <c r="D27" t="n">
-        <v>2.957389015732578</v>
+        <v>3.318363060353713</v>
       </c>
       <c r="E27" t="n">
-        <v>2.428844315790966</v>
+        <v>2.572205943134863</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.5285446999416116</v>
+        <v>-0.7461571172188506</v>
       </c>
       <c r="G27" t="n">
-        <v>226</v>
+        <v>150</v>
       </c>
       <c r="H27" t="n">
-        <v>36.57281127313354</v>
+        <v>86.46519065885354</v>
       </c>
       <c r="I27" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="J27" t="n">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="K27" t="n">
-        <v>572.5256645489646</v>
+        <v>269.8701495735166</v>
       </c>
       <c r="L27" t="n">
-        <v>26.16120810444091</v>
+        <v>10.03438734229816</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.7075179601794468</v>
+        <v>0.8225574206901933</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.2021276595744681</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="R27" t="n">
-        <v>0.3617182015754779</v>
+        <v>0.2761035282700452</v>
       </c>
       <c r="S27" t="n">
-        <v>0.3463157543004587</v>
+        <v>0.9968498456962223</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1924</v>
+        <v>1939</v>
       </c>
       <c r="B28" t="n">
-        <v>1959</v>
+        <v>2004</v>
       </c>
       <c r="C28" t="n">
-        <v>2301</v>
+        <v>2196</v>
       </c>
       <c r="D28" t="n">
-        <v>2.907473055917301</v>
+        <v>2.599076840563874</v>
       </c>
       <c r="E28" t="n">
-        <v>2.32593156197449</v>
+        <v>1.852919723345023</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.5815414939428106</v>
+        <v>-0.7461571172188506</v>
       </c>
       <c r="G28" t="n">
-        <v>377</v>
+        <v>257</v>
       </c>
       <c r="H28" t="n">
-        <v>125.6070361766879</v>
+        <v>160.5765450399738</v>
       </c>
       <c r="I28" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="J28" t="n">
-        <v>342</v>
+        <v>192</v>
       </c>
       <c r="K28" t="n">
-        <v>354.9713529355645</v>
+        <v>423.3169811326705</v>
       </c>
       <c r="L28" t="n">
-        <v>13.19374475253055</v>
+        <v>7.859340065048364</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.8300281991830905</v>
+        <v>0.7408532168230728</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.1023391812865497</v>
+        <v>0.3385416666666667</v>
       </c>
       <c r="R28" t="n">
-        <v>0.6289937122757857</v>
+        <v>0.1201943296806292</v>
       </c>
       <c r="S28" t="n">
-        <v>0.7154706356541536</v>
+        <v>0.8452828006255286</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>2196</v>
       </c>
       <c r="B29" t="n">
-        <v>19</v>
+        <v>2243</v>
       </c>
       <c r="C29" t="n">
-        <v>105</v>
+        <v>2400</v>
       </c>
       <c r="D29" t="n">
-        <v>3.971701365783685</v>
+        <v>2.361300261307825</v>
       </c>
       <c r="E29" t="n">
-        <v>3.493361411380074</v>
+        <v>1.615143144088975</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.4783399544036116</v>
+        <v>-0.7461571172188506</v>
       </c>
       <c r="G29" t="n">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="H29" t="n">
-        <v>32.12855399697846</v>
+        <v>114.3956574769386</v>
       </c>
       <c r="I29" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J29" t="n">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="K29" t="n">
-        <v>294.3195488067304</v>
+        <v>281.5624864044536</v>
       </c>
       <c r="L29" t="n">
-        <v>10.10788510590381</v>
+        <v>7.140328234881858</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.9282983429119023</v>
+        <v>0.8244747853139185</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.2209302325581395</v>
+        <v>0.2993630573248408</v>
       </c>
       <c r="R29" t="n">
-        <v>0.297103724603672</v>
+        <v>0.3528236970688765</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9837127449395948</v>
+        <v>0.8431954565985972</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1448</v>
+        <v>2938</v>
       </c>
       <c r="B30" t="n">
-        <v>1484</v>
+        <v>2963</v>
       </c>
       <c r="C30" t="n">
-        <v>1658</v>
+        <v>2998</v>
       </c>
       <c r="D30" t="n">
-        <v>2.199078184336078</v>
+        <v>2.432916496716166</v>
       </c>
       <c r="E30" t="n">
-        <v>1.786051408098216</v>
+        <v>1.686759379497315</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.4130267762378623</v>
+        <v>-0.7461571172188506</v>
       </c>
       <c r="G30" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="H30" t="n">
-        <v>71.36005171216834</v>
+        <v>20.78592360638868</v>
       </c>
       <c r="I30" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J30" t="n">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="K30" t="n">
-        <v>170.6594737979009</v>
+        <v>101.1921572735538</v>
       </c>
       <c r="L30" t="n">
-        <v>21.48513817033332</v>
+        <v>7.356888337864653</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.923931392864764</v>
+        <v>0.7856428616940349</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.2068965517241379</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="R30" t="n">
-        <v>0.4578232200919671</v>
+        <v>0.4056000001320414</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9204343824435373</v>
+        <v>0.843285197928501</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>578</v>
+        <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>613</v>
+        <v>20</v>
       </c>
       <c r="C31" t="n">
-        <v>678</v>
+        <v>55</v>
       </c>
       <c r="D31" t="n">
-        <v>1.414446178840725</v>
+        <v>2.891728283950855</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8003397310957757</v>
+        <v>2.322501349024892</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.6141064477449489</v>
+        <v>-0.5692269349259637</v>
       </c>
       <c r="G31" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="H31" t="n">
-        <v>69.2795569762626</v>
+        <v>29.40818049466722</v>
       </c>
       <c r="I31" t="n">
+        <v>20</v>
+      </c>
+      <c r="J31" t="n">
         <v>35</v>
       </c>
-      <c r="J31" t="n">
-        <v>65</v>
-      </c>
       <c r="K31" t="n">
-        <v>101.5739691290092</v>
+        <v>122.8814595675262</v>
       </c>
       <c r="L31" t="n">
-        <v>6.331060309402085</v>
+        <v>7.919548477689192</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.7464983396169221</v>
+        <v>0.7252836199069066</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="R31" t="n">
-        <v>0.3585592057688793</v>
+        <v>0.1049635512760689</v>
       </c>
       <c r="S31" t="n">
-        <v>0.6209453246630836</v>
+        <v>0.9694640782535929</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>678</v>
+        <v>1326</v>
       </c>
       <c r="B32" t="n">
-        <v>724</v>
+        <v>1351</v>
       </c>
       <c r="C32" t="n">
-        <v>788</v>
+        <v>1392</v>
       </c>
       <c r="D32" t="n">
-        <v>4.389103844184618</v>
+        <v>2.827823367020292</v>
       </c>
       <c r="E32" t="n">
-        <v>3.774997396439669</v>
+        <v>2.258596432094328</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.6141064477449489</v>
+        <v>-0.5692269349259637</v>
       </c>
       <c r="G32" t="n">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="H32" t="n">
-        <v>141.4140799718995</v>
+        <v>53.34696337383821</v>
       </c>
       <c r="I32" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="J32" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="K32" t="n">
-        <v>296.4860874196725</v>
+        <v>114.8750094204438</v>
       </c>
       <c r="L32" t="n">
-        <v>19.64562636419014</v>
+        <v>7.744532695465408</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.736694543729555</v>
+        <v>0.7813976621857102</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.71875</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="R32" t="n">
-        <v>0.3147493151249159</v>
+        <v>0.2007220961727627</v>
       </c>
       <c r="S32" t="n">
-        <v>0.89996588670387</v>
+        <v>0.9925750313005163</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>788</v>
+        <v>1741</v>
       </c>
       <c r="B33" t="n">
-        <v>821</v>
+        <v>1768</v>
       </c>
       <c r="C33" t="n">
-        <v>910</v>
+        <v>1846</v>
       </c>
       <c r="D33" t="n">
-        <v>2.878158972556237</v>
+        <v>2.828859786012727</v>
       </c>
       <c r="E33" t="n">
-        <v>2.264052524811289</v>
+        <v>2.259632851086763</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.6141064477449489</v>
+        <v>-0.5692269349259637</v>
       </c>
       <c r="G33" t="n">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="H33" t="n">
-        <v>26.91050842180869</v>
+        <v>86.02724589994114</v>
       </c>
       <c r="I33" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J33" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K33" t="n">
-        <v>206.6693709643314</v>
+        <v>182.8838434537313</v>
       </c>
       <c r="L33" t="n">
-        <v>12.8826379595686</v>
+        <v>7.747371126205717</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.8669914869240958</v>
+        <v>0.8453825627811563</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.3707865168539326</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="R33" t="n">
-        <v>0.4618355026521204</v>
+        <v>0.1766140294803746</v>
       </c>
       <c r="S33" t="n">
-        <v>0.972924210557899</v>
+        <v>0.9286443257664144</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>506</v>
+        <v>1906</v>
       </c>
       <c r="B34" t="n">
-        <v>564</v>
+        <v>1934</v>
       </c>
       <c r="C34" t="n">
-        <v>645</v>
+        <v>1993</v>
       </c>
       <c r="D34" t="n">
-        <v>3.094626246663372</v>
+        <v>2.576434889574141</v>
       </c>
       <c r="E34" t="n">
-        <v>2.399149721431291</v>
+        <v>2.007207954648177</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.6954765252320809</v>
+        <v>-0.5692269349259637</v>
       </c>
       <c r="G34" t="n">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="H34" t="n">
-        <v>72.22934374153726</v>
+        <v>43.60675546917059</v>
       </c>
       <c r="I34" t="n">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J34" t="n">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="K34" t="n">
-        <v>234.3335249319987</v>
+        <v>146.6639737647567</v>
       </c>
       <c r="L34" t="n">
-        <v>11.84033617894623</v>
+        <v>7.056057486741025</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.7595722820666626</v>
+        <v>0.8712086197434273</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.7160493827160493</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="R34" t="n">
-        <v>0.2686172873827553</v>
+        <v>0.223542494154397</v>
       </c>
       <c r="S34" t="n">
-        <v>0.8171666738748753</v>
+        <v>0.9790958350206798</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1817</v>
+        <v>193</v>
       </c>
       <c r="B35" t="n">
-        <v>1905</v>
+        <v>220</v>
       </c>
       <c r="C35" t="n">
-        <v>2113</v>
+        <v>289</v>
       </c>
       <c r="D35" t="n">
-        <v>3.980912650628519</v>
+        <v>1.974631887458156</v>
       </c>
       <c r="E35" t="n">
-        <v>3.285436125396438</v>
+        <v>1.36809781057153</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.6954765252320809</v>
+        <v>-0.6065340768866264</v>
       </c>
       <c r="G35" t="n">
-        <v>296</v>
+        <v>96</v>
       </c>
       <c r="H35" t="n">
-        <v>175.9962219445874</v>
+        <v>33.12856372715169</v>
       </c>
       <c r="I35" t="n">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="J35" t="n">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="K35" t="n">
-        <v>585.8390836827964</v>
+        <v>114.1110621321943</v>
       </c>
       <c r="L35" t="n">
-        <v>15.23135277912249</v>
+        <v>3.919451776135366</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.8092479849043726</v>
+        <v>0.9175202748932121</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2634467698846664</v>
+        <v>0.2305741156099145</v>
       </c>
       <c r="S35" t="n">
-        <v>0.8428189944896343</v>
+        <v>0.9608424113022735</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>716</v>
+        <v>2024</v>
       </c>
       <c r="B36" t="n">
-        <v>751</v>
+        <v>2103</v>
       </c>
       <c r="C36" t="n">
-        <v>914</v>
+        <v>2212</v>
       </c>
       <c r="D36" t="n">
-        <v>2.966944593018548</v>
+        <v>2.786380815143823</v>
       </c>
       <c r="E36" t="n">
-        <v>2.470666363435773</v>
+        <v>2.179846738257197</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4962782295827752</v>
+        <v>-0.6065340768866264</v>
       </c>
       <c r="G36" t="n">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="H36" t="n">
-        <v>53.56018536102204</v>
+        <v>157.1082512491066</v>
       </c>
       <c r="I36" t="n">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="J36" t="n">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="K36" t="n">
-        <v>278.0571150709715</v>
+        <v>342.7381951358182</v>
       </c>
       <c r="L36" t="n">
-        <v>7.995432323349901</v>
+        <v>5.530694254595031</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.790599056344952</v>
+        <v>0.4951213227554656</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.2147239263803681</v>
+        <v>0.7247706422018348</v>
       </c>
       <c r="R36" t="n">
-        <v>0.4412605582970694</v>
+        <v>0.1160796776431084</v>
       </c>
       <c r="S36" t="n">
-        <v>0.4533798587449946</v>
+        <v>0.886578962903055</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2434</v>
+        <v>5</v>
       </c>
       <c r="B37" t="n">
-        <v>2500</v>
+        <v>27</v>
       </c>
       <c r="C37" t="n">
-        <v>2631</v>
+        <v>139</v>
       </c>
       <c r="D37" t="n">
-        <v>3.189625880969727</v>
+        <v>2.092089842215031</v>
       </c>
       <c r="E37" t="n">
-        <v>2.620643696872989</v>
+        <v>1.446159115203799</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5689821840967377</v>
+        <v>-0.6459307270112319</v>
       </c>
       <c r="G37" t="n">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="H37" t="n">
-        <v>114.3020072907825</v>
+        <v>68.83303437072402</v>
       </c>
       <c r="I37" t="n">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="J37" t="n">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="K37" t="n">
-        <v>345.2022844257349</v>
+        <v>162.2816226556648</v>
       </c>
       <c r="L37" t="n">
-        <v>10.67949947600357</v>
+        <v>4.699154962860945</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.6508125648388968</v>
+        <v>0.8875918864445802</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.5038167938931297</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="R37" t="n">
-        <v>0.6044054792118663</v>
+        <v>0.2164257444244801</v>
       </c>
       <c r="S37" t="n">
-        <v>0.596888475911332</v>
+        <v>0.8643800067219541</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>655</v>
+        <v>139</v>
       </c>
       <c r="B38" t="n">
-        <v>691</v>
+        <v>171</v>
       </c>
       <c r="C38" t="n">
-        <v>784</v>
+        <v>349</v>
       </c>
       <c r="D38" t="n">
-        <v>2.857233505832732</v>
+        <v>3.293885531788635</v>
       </c>
       <c r="E38" t="n">
-        <v>2.356184518439212</v>
+        <v>2.647954804777403</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5010489873935199</v>
+        <v>-0.6459307270112319</v>
       </c>
       <c r="G38" t="n">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="H38" t="n">
-        <v>35.99262550133471</v>
+        <v>307.8406637063927</v>
       </c>
       <c r="I38" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J38" t="n">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="K38" t="n">
-        <v>190.4502471367707</v>
+        <v>373.6070823265669</v>
       </c>
       <c r="L38" t="n">
-        <v>12.20231549008194</v>
+        <v>7.398572581095446</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.8467127076257089</v>
+        <v>0.7929329565169788</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.3870967741935484</v>
+        <v>0.1797752808988764</v>
       </c>
       <c r="R38" t="n">
-        <v>0.377274147110319</v>
+        <v>0.3863756684241806</v>
       </c>
       <c r="S38" t="n">
-        <v>0.7782694743527594</v>
+        <v>0.654369159980517</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>132</v>
+        <v>349</v>
       </c>
       <c r="B39" t="n">
-        <v>176</v>
+        <v>410</v>
       </c>
       <c r="C39" t="n">
-        <v>371</v>
+        <v>526</v>
       </c>
       <c r="D39" t="n">
-        <v>3.212061693492104</v>
+        <v>2.296123409566214</v>
       </c>
       <c r="E39" t="n">
-        <v>2.57616247302496</v>
+        <v>1.650192682554982</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.6358992204671446</v>
+        <v>-0.6459307270112319</v>
       </c>
       <c r="G39" t="n">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="H39" t="n">
-        <v>45.70792738243435</v>
+        <v>32.86469757933071</v>
       </c>
       <c r="I39" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="J39" t="n">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="K39" t="n">
-        <v>420.8316801212019</v>
+        <v>194.0601547846635</v>
       </c>
       <c r="L39" t="n">
-        <v>10.09538468055559</v>
+        <v>5.157445678327259</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,24 +3788,24 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.837540769509088</v>
+        <v>0.689156196889951</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.2256410256410256</v>
+        <v>0.5258620689655172</v>
       </c>
       <c r="R39" t="n">
-        <v>0.4211266382996686</v>
+        <v>0.3987664463786798</v>
       </c>
       <c r="S39" t="n">
-        <v>0.8248351243506844</v>
+        <v>0.9309512979083616</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1085</v>
+        <v>1136</v>
       </c>
       <c r="B40" t="n">
-        <v>1131</v>
+        <v>1181</v>
       </c>
       <c r="C40" t="n">
-        <v>1203</v>
+        <v>1376</v>
       </c>
       <c r="D40" t="n">
-        <v>2.927827956072589</v>
+        <v>1.886754768196675</v>
       </c>
       <c r="E40" t="n">
-        <v>2.224101263462318</v>
+        <v>1.240824041185443</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.7037266926102708</v>
+        <v>-0.6459307270112319</v>
       </c>
       <c r="G40" t="n">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="H40" t="n">
-        <v>56.16307917006748</v>
+        <v>69.34374255752891</v>
       </c>
       <c r="I40" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J40" t="n">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="K40" t="n">
-        <v>212.9592100736992</v>
+        <v>180.0641948619172</v>
       </c>
       <c r="L40" t="n">
-        <v>9.87053379270821</v>
+        <v>4.237940863613096</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,24 +3874,24 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.8035729479171727</v>
+        <v>0.8888294977486075</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1960771732746428</v>
+        <v>0.4394177115449524</v>
       </c>
       <c r="S40" t="n">
-        <v>0.988323468802509</v>
+        <v>0.8207355971216914</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1310</v>
+        <v>1376</v>
       </c>
       <c r="B41" t="n">
-        <v>1360</v>
+        <v>1415</v>
       </c>
       <c r="C41" t="n">
         <v>1545</v>
       </c>
       <c r="D41" t="n">
-        <v>2.934787536545906</v>
+        <v>2.997623114732833</v>
       </c>
       <c r="E41" t="n">
-        <v>2.231060843935635</v>
+        <v>2.351692387721601</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.7037266926102708</v>
+        <v>-0.6459307270112319</v>
       </c>
       <c r="G41" t="n">
-        <v>235</v>
+        <v>169</v>
       </c>
       <c r="H41" t="n">
-        <v>114.0907955498474</v>
+        <v>143.487641405974</v>
       </c>
       <c r="I41" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J41" t="n">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="K41" t="n">
-        <v>375.0588846787566</v>
+        <v>310.7952128614068</v>
       </c>
       <c r="L41" t="n">
-        <v>9.893996501335769</v>
+        <v>6.733121710236595</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,24 +3960,24 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.8955269630582655</v>
+        <v>0.86399227532485</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.2702702702702703</v>
+        <v>0.3</v>
       </c>
       <c r="R41" t="n">
-        <v>0.1996032876670598</v>
+        <v>0.4436081184461283</v>
       </c>
       <c r="S41" t="n">
-        <v>0.7738083199777613</v>
+        <v>0.7323986191687002</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -4000,70 +4000,70 @@
         <v>1545</v>
       </c>
       <c r="B42" t="n">
-        <v>1589</v>
+        <v>1572</v>
       </c>
       <c r="C42" t="n">
-        <v>1727</v>
+        <v>1629</v>
       </c>
       <c r="D42" t="n">
-        <v>2.054206719456896</v>
+        <v>2.049263477966437</v>
       </c>
       <c r="E42" t="n">
-        <v>1.350480026846626</v>
+        <v>1.403332750955206</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.7037266926102708</v>
+        <v>-0.6459307270112319</v>
       </c>
       <c r="G42" t="n">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="H42" t="n">
-        <v>43.4459242161513</v>
+        <v>25.17726879928432</v>
       </c>
       <c r="I42" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="J42" t="n">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="K42" t="n">
-        <v>209.8255577870549</v>
+        <v>104.0419469039771</v>
       </c>
       <c r="L42" t="n">
-        <v>6.925310211466835</v>
+        <v>4.602960374063078</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1663), 'value': np.float64(0.8245942985395739), 'amplitude': np.float64(1.5283209911498448), 'start_idx': np.int64(1625), 'end_idx': np.int64(1726), 'duration': np.float64(101.0), 'fwhm': np.float64(35.13432963563105), 'rise_time': np.float64(38.0), 'decay_time': np.float64(63.0), 'auc': np.float64(103.5893741509237)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.7993782093603998</v>
+        <v>0.8658654418719685</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.3188405797101449</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="R42" t="n">
-        <v>0.308640823919522</v>
+        <v>0.292428708411697</v>
       </c>
       <c r="S42" t="n">
-        <v>0.5071547959039393</v>
+        <v>0.9810461988011364</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2378</v>
+        <v>387</v>
       </c>
       <c r="B43" t="n">
-        <v>2465</v>
+        <v>458</v>
       </c>
       <c r="C43" t="n">
-        <v>2678</v>
+        <v>571</v>
       </c>
       <c r="D43" t="n">
-        <v>2.754367348898445</v>
+        <v>2.892616124975802</v>
       </c>
       <c r="E43" t="n">
-        <v>1.993101172498427</v>
+        <v>2.179101176996527</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.761266176400019</v>
+        <v>-0.7135149479792748</v>
       </c>
       <c r="G43" t="n">
-        <v>300</v>
+        <v>184</v>
       </c>
       <c r="H43" t="n">
-        <v>134.1431661031497</v>
+        <v>137.5680071506272</v>
       </c>
       <c r="I43" t="n">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="J43" t="n">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="K43" t="n">
-        <v>454.2890397375782</v>
+        <v>360.0307552744609</v>
       </c>
       <c r="L43" t="n">
-        <v>8.160886277020575</v>
+        <v>8.38621072834327</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,24 +4132,24 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.8788183363982986</v>
+        <v>0.6243605988572978</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4084507042253521</v>
+        <v>0.6283185840707964</v>
       </c>
       <c r="R43" t="n">
-        <v>0.298772374568205</v>
+        <v>0.1841356627640064</v>
       </c>
       <c r="S43" t="n">
-        <v>0.9067969171711378</v>
+        <v>0.6171178810088349</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n40</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2678</v>
+        <v>571</v>
       </c>
       <c r="B44" t="n">
-        <v>2726</v>
+        <v>606</v>
       </c>
       <c r="C44" t="n">
-        <v>2892</v>
+        <v>707</v>
       </c>
       <c r="D44" t="n">
-        <v>1.882302487970104</v>
+        <v>2.66821363543196</v>
       </c>
       <c r="E44" t="n">
-        <v>1.121036311570085</v>
+        <v>1.954698687452685</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.761266176400019</v>
+        <v>-0.7135149479792748</v>
       </c>
       <c r="G44" t="n">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="H44" t="n">
-        <v>93.60781156678649</v>
+        <v>45.26747462827677</v>
       </c>
       <c r="I44" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="J44" t="n">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="K44" t="n">
-        <v>263.4024721419422</v>
+        <v>200.2011411498048</v>
       </c>
       <c r="L44" t="n">
-        <v>5.577054400321853</v>
+        <v>7.735627835912202</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,24 +4218,24 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.9076222002832681</v>
+        <v>0.8898191638672549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.2891566265060241</v>
+        <v>0.3465346534653465</v>
       </c>
       <c r="R44" t="n">
-        <v>0.1646053407934581</v>
+        <v>0.1665846686029746</v>
       </c>
       <c r="S44" t="n">
-        <v>0.9179229683703106</v>
+        <v>0.9866470127946851</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n40</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1948</v>
+        <v>888</v>
       </c>
       <c r="B45" t="n">
-        <v>2049</v>
+        <v>922</v>
       </c>
       <c r="C45" t="n">
-        <v>2345</v>
+        <v>983</v>
       </c>
       <c r="D45" t="n">
-        <v>4.360125613404644</v>
+        <v>2.349032596046804</v>
       </c>
       <c r="E45" t="n">
-        <v>3.796929047072791</v>
+        <v>1.635517648067529</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.5631965663318523</v>
+        <v>-0.7135149479792748</v>
       </c>
       <c r="G45" t="n">
-        <v>397</v>
+        <v>95</v>
       </c>
       <c r="H45" t="n">
-        <v>193.4595634078046</v>
+        <v>71.12851339021915</v>
       </c>
       <c r="I45" t="n">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="J45" t="n">
-        <v>296</v>
+        <v>61</v>
       </c>
       <c r="K45" t="n">
-        <v>778.3459439268406</v>
+        <v>169.1193893290219</v>
       </c>
       <c r="L45" t="n">
-        <v>13.81028860077627</v>
+        <v>6.810265001326627</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,24 +4304,24 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.8243238876855559</v>
+        <v>0.7114211135852397</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.3412162162162162</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="R45" t="n">
-        <v>0.2908158362323884</v>
+        <v>0.4631712074964131</v>
       </c>
       <c r="S45" t="n">
-        <v>0.8263653342000727</v>
+        <v>0.5070736414576302</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>n42</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1875</v>
+        <v>983</v>
       </c>
       <c r="B46" t="n">
-        <v>1910</v>
+        <v>1009</v>
       </c>
       <c r="C46" t="n">
-        <v>2006</v>
+        <v>1157</v>
       </c>
       <c r="D46" t="n">
-        <v>2.83555310017088</v>
+        <v>2.319834811321792</v>
       </c>
       <c r="E46" t="n">
-        <v>2.246114570713255</v>
+        <v>1.606319863342517</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.5894385294576254</v>
+        <v>-0.7135149479792748</v>
       </c>
       <c r="G46" t="n">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="H46" t="n">
-        <v>60.27538942333399</v>
+        <v>35.54525467743872</v>
       </c>
       <c r="I46" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J46" t="n">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="K46" t="n">
-        <v>203.0999610444755</v>
+        <v>180.115563711992</v>
       </c>
       <c r="L46" t="n">
-        <v>8.628519964158473</v>
+        <v>6.72561540908016</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,24 +4390,24 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.8271549791117406</v>
+        <v>0.7834026399782485</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.3645833333333333</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="R46" t="n">
-        <v>0.1291466037446069</v>
+        <v>0.4805415522570294</v>
       </c>
       <c r="S46" t="n">
-        <v>0.9013605037612639</v>
+        <v>0.6584990482591813</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>n43</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2006</v>
+        <v>2579</v>
       </c>
       <c r="B47" t="n">
-        <v>2055</v>
+        <v>2615</v>
       </c>
       <c r="C47" t="n">
-        <v>2142</v>
+        <v>2660</v>
       </c>
       <c r="D47" t="n">
-        <v>2.387963144824941</v>
+        <v>2.493989849310055</v>
       </c>
       <c r="E47" t="n">
-        <v>1.798524615367315</v>
+        <v>1.780474901330781</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.5894385294576254</v>
+        <v>-0.7135149479792748</v>
       </c>
       <c r="G47" t="n">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="H47" t="n">
-        <v>37.90333984278368</v>
+        <v>119.8257484672981</v>
       </c>
       <c r="I47" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="J47" t="n">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="K47" t="n">
-        <v>241.947943680351</v>
+        <v>126.9732893297956</v>
       </c>
       <c r="L47" t="n">
-        <v>7.266514482678862</v>
+        <v>7.230521965937726</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,24 +4476,24 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.6966613010574003</v>
+        <v>0.7280252708969257</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.5632183908045977</v>
+        <v>0.8</v>
       </c>
       <c r="R47" t="n">
-        <v>0.4226452275677842</v>
+        <v>0.3020988120379768</v>
       </c>
       <c r="S47" t="n">
-        <v>0.4019472357928248</v>
+        <v>0.9517354304618831</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>n43</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U47" t="n">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2142</v>
+        <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>2184</v>
+        <v>15</v>
       </c>
       <c r="C48" t="n">
-        <v>2263</v>
+        <v>49</v>
       </c>
       <c r="D48" t="n">
-        <v>3.523937493949611</v>
+        <v>2.041798136093132</v>
       </c>
       <c r="E48" t="n">
-        <v>2.934498964491986</v>
+        <v>1.53467823755583</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.5894385294576254</v>
+        <v>-0.5071198985373019</v>
       </c>
       <c r="G48" t="n">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="H48" t="n">
-        <v>338.4704997654528</v>
+        <v>22.02347249573952</v>
       </c>
       <c r="I48" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="J48" t="n">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="K48" t="n">
-        <v>301.3466019655763</v>
+        <v>58.15044333056589</v>
       </c>
       <c r="L48" t="n">
-        <v>10.72325713708497</v>
+        <v>4.010549098509739</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,24 +4562,24 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.6747481577215803</v>
+        <v>0.900889490924778</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.5316455696202531</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="R48" t="n">
-        <v>0.08775850190666837</v>
+        <v>0.2523609984068655</v>
       </c>
       <c r="S48" t="n">
-        <v>0.9696997364632207</v>
+        <v>0.9563929615641152</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>n43</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4599,40 +4599,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1965</v>
+        <v>1065</v>
       </c>
       <c r="B49" t="n">
-        <v>2002</v>
+        <v>1154</v>
       </c>
       <c r="C49" t="n">
-        <v>2109</v>
+        <v>1440</v>
       </c>
       <c r="D49" t="n">
-        <v>3.719306930808388</v>
+        <v>6.036912916561262</v>
       </c>
       <c r="E49" t="n">
-        <v>3.165782146749819</v>
+        <v>5.503812019566688</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.5535247840585695</v>
+        <v>-0.5331008969945745</v>
       </c>
       <c r="G49" t="n">
-        <v>144</v>
+        <v>375</v>
       </c>
       <c r="H49" t="n">
-        <v>34.83307141130194</v>
+        <v>73.31093120732226</v>
       </c>
       <c r="I49" t="n">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="J49" t="n">
-        <v>107</v>
+        <v>286</v>
       </c>
       <c r="K49" t="n">
-        <v>268.9617683523765</v>
+        <v>671.1372973900382</v>
       </c>
       <c r="L49" t="n">
-        <v>11.89064785310314</v>
+        <v>24.73056370149543</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4648,24 +4648,24 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.8638836466111877</v>
+        <v>0.7532563396646881</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.3457943925233645</v>
+        <v>0.3111888111888112</v>
       </c>
       <c r="R49" t="n">
-        <v>0.5406706400349175</v>
+        <v>0.5826280032681724</v>
       </c>
       <c r="S49" t="n">
-        <v>0.8547035082044488</v>
+        <v>0.9339637848523348</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>n46</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U49" t="n">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4685,40 +4685,40 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1873</v>
+        <v>1470</v>
       </c>
       <c r="B50" t="n">
-        <v>1922</v>
+        <v>1521</v>
       </c>
       <c r="C50" t="n">
-        <v>2087</v>
+        <v>1611</v>
       </c>
       <c r="D50" t="n">
-        <v>4.920030490994906</v>
+        <v>1.342643232579405</v>
       </c>
       <c r="E50" t="n">
-        <v>4.436087270442997</v>
+        <v>0.8069163229699523</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.4839432205519087</v>
+        <v>-0.5357269096094525</v>
       </c>
       <c r="G50" t="n">
-        <v>214</v>
+        <v>141</v>
       </c>
       <c r="H50" t="n">
-        <v>97.02856952023762</v>
+        <v>53.22577625569829</v>
       </c>
       <c r="I50" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J50" t="n">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="K50" t="n">
-        <v>457.7817173540859</v>
+        <v>78.22308071122318</v>
       </c>
       <c r="L50" t="n">
-        <v>15.86786733818456</v>
+        <v>9.44134016360986</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -4734,24 +4734,24 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.9456778387332856</v>
+        <v>0.814627524639612</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.296969696969697</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="R50" t="n">
-        <v>0.2312921002601472</v>
+        <v>0.274277521276296</v>
       </c>
       <c r="S50" t="n">
-        <v>0.9013245369374095</v>
+        <v>0.7270886751001859</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>n48</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U50" t="n">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -4771,40 +4771,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2375</v>
+        <v>2720</v>
       </c>
       <c r="B51" t="n">
-        <v>2394</v>
+        <v>2739</v>
       </c>
       <c r="C51" t="n">
-        <v>2477</v>
+        <v>2778</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6583347414451803</v>
+        <v>2.956154658306604</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1790134007440713</v>
+        <v>2.414938772092951</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.479321340701109</v>
+        <v>-0.5412158862136522</v>
       </c>
       <c r="G51" t="n">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="H51" t="n">
-        <v>17.76947853885122</v>
+        <v>17.26342268945382</v>
       </c>
       <c r="I51" t="n">
         <v>19</v>
       </c>
       <c r="J51" t="n">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="K51" t="n">
-        <v>44.02490589926338</v>
+        <v>151.0089392500991</v>
       </c>
       <c r="L51" t="n">
-        <v>4.912677546262717</v>
+        <v>26.00836531097489</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -4820,24 +4820,24 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.7676301020239864</v>
+        <v>0.7865134593833241</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.2289156626506024</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="R51" t="n">
-        <v>0.2181808238662858</v>
+        <v>0.1382884699908689</v>
       </c>
       <c r="S51" t="n">
-        <v>0.542885571894534</v>
+        <v>0.9857623303805113</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>n49</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U51" t="n">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4857,85 +4857,5503 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2838</v>
+        <v>2778</v>
       </c>
       <c r="B52" t="n">
-        <v>2886</v>
+        <v>2807</v>
       </c>
       <c r="C52" t="n">
+        <v>2885</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3.15197580368057</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.610759917466918</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.5412158862136522</v>
+      </c>
+      <c r="G52" t="n">
+        <v>107</v>
+      </c>
+      <c r="H52" t="n">
+        <v>28.73267585776148</v>
+      </c>
+      <c r="I52" t="n">
+        <v>29</v>
+      </c>
+      <c r="J52" t="n">
+        <v>78</v>
+      </c>
+      <c r="K52" t="n">
+        <v>229.7911013012554</v>
+      </c>
+      <c r="L52" t="n">
+        <v>27.73120747357578</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0.8944085812300672</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.3717948717948718</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.2332799418797141</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.9875524222706974</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>188</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2885</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2924</v>
+      </c>
+      <c r="C53" t="n">
         <v>2998</v>
       </c>
-      <c r="D52" t="n">
-        <v>3.38692653716274</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2.907605196461631</v>
-      </c>
-      <c r="F52" t="n">
-        <v>-0.479321340701109</v>
-      </c>
-      <c r="G52" t="n">
-        <v>160</v>
-      </c>
-      <c r="H52" t="n">
-        <v>42.66806982076923</v>
-      </c>
-      <c r="I52" t="n">
+      <c r="D53" t="n">
+        <v>3.378501698282177</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.837285812068524</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.5412158862136522</v>
+      </c>
+      <c r="G53" t="n">
+        <v>113</v>
+      </c>
+      <c r="H53" t="n">
+        <v>14.83168622644143</v>
+      </c>
+      <c r="I53" t="n">
+        <v>39</v>
+      </c>
+      <c r="J53" t="n">
+        <v>74</v>
+      </c>
+      <c r="K53" t="n">
+        <v>332.6467369964646</v>
+      </c>
+      <c r="L53" t="n">
+        <v>29.72419123125539</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0.6225299417361229</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.527027027027027</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.4017340819408314</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.3232612264961796</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>189</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1926</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1955</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2306</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3.118182506488137</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2.53175163339226</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.5864308730958773</v>
+      </c>
+      <c r="G54" t="n">
+        <v>380</v>
+      </c>
+      <c r="H54" t="n">
+        <v>81.2930687192395</v>
+      </c>
+      <c r="I54" t="n">
+        <v>29</v>
+      </c>
+      <c r="J54" t="n">
+        <v>351</v>
+      </c>
+      <c r="K54" t="n">
+        <v>353.9718833961176</v>
+      </c>
+      <c r="L54" t="n">
+        <v>14.05771372403557</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0.7605559912173528</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.08262108262108261</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.6120994014519707</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.7081954151076739</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>190</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>18</v>
+      </c>
+      <c r="C55" t="n">
+        <v>112</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4.012550890220088</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.520240843919727</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.4923100463003609</v>
+      </c>
+      <c r="G55" t="n">
+        <v>112</v>
+      </c>
+      <c r="H55" t="n">
+        <v>30.86944269079492</v>
+      </c>
+      <c r="I55" t="n">
+        <v>18</v>
+      </c>
+      <c r="J55" t="n">
+        <v>94</v>
+      </c>
+      <c r="K55" t="n">
+        <v>306.5153063909904</v>
+      </c>
+      <c r="L55" t="n">
+        <v>10.20416996910634</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0.8956577932340859</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.1914893617021277</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.3133243605994983</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.9697217431851984</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>191</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>112</v>
+      </c>
+      <c r="B56" t="n">
+        <v>175</v>
+      </c>
+      <c r="C56" t="n">
+        <v>344</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3.86153917032763</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.369229124027269</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.4923100463003609</v>
+      </c>
+      <c r="G56" t="n">
+        <v>232</v>
+      </c>
+      <c r="H56" t="n">
+        <v>85.8575301003203</v>
+      </c>
+      <c r="I56" t="n">
+        <v>63</v>
+      </c>
+      <c r="J56" t="n">
+        <v>169</v>
+      </c>
+      <c r="K56" t="n">
+        <v>564.111854961958</v>
+      </c>
+      <c r="L56" t="n">
+        <v>9.820137641724394</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>0.7394375442015263</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.3727810650887574</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.1063764109418809</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.922616321492444</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>192</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>24</v>
+      </c>
+      <c r="B57" t="n">
+        <v>52</v>
+      </c>
+      <c r="C57" t="n">
+        <v>92</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.640443127232139</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.224591348077108</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.4158517791550314</v>
+      </c>
+      <c r="G57" t="n">
+        <v>68</v>
+      </c>
+      <c r="H57" t="n">
+        <v>24.11563894349492</v>
+      </c>
+      <c r="I57" t="n">
+        <v>28</v>
+      </c>
+      <c r="J57" t="n">
+        <v>40</v>
+      </c>
+      <c r="K57" t="n">
+        <v>61.70850348763218</v>
+      </c>
+      <c r="L57" t="n">
+        <v>15.84156670200638</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>0.8230655762076245</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.2233673206611853</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.980515717148801</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>193</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>164</v>
+      </c>
+      <c r="B58" t="n">
+        <v>195</v>
+      </c>
+      <c r="C58" t="n">
+        <v>428</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5.428684670050413</v>
+      </c>
+      <c r="E58" t="n">
+        <v>5.012832890895382</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.4158517791550314</v>
+      </c>
+      <c r="G58" t="n">
+        <v>264</v>
+      </c>
+      <c r="H58" t="n">
+        <v>166.3464612864389</v>
+      </c>
+      <c r="I58" t="n">
+        <v>31</v>
+      </c>
+      <c r="J58" t="n">
+        <v>233</v>
+      </c>
+      <c r="K58" t="n">
+        <v>644.4016968607357</v>
+      </c>
+      <c r="L58" t="n">
+        <v>52.42417056534348</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>0.8567577661456096</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.1330472103004292</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.4745718801976456</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.9078208722565241</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>194</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1452</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1480</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1569</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.323332824339198</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.907481045184167</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.4158517791550314</v>
+      </c>
+      <c r="G59" t="n">
+        <v>117</v>
+      </c>
+      <c r="H59" t="n">
+        <v>67.17125313217161</v>
+      </c>
+      <c r="I59" t="n">
+        <v>28</v>
+      </c>
+      <c r="J59" t="n">
+        <v>89</v>
+      </c>
+      <c r="K59" t="n">
+        <v>137.6323815697883</v>
+      </c>
+      <c r="L59" t="n">
+        <v>22.43615234002683</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>0.931161832267738</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.3146067415730337</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.2419490193249008</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.9783778156610367</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>195</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1569</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1585</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1612</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.561438892278613</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.1455871131235816</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.4158517791550314</v>
+      </c>
+      <c r="G60" t="n">
+        <v>43</v>
+      </c>
+      <c r="H60" t="n">
+        <v>15.78755983607266</v>
+      </c>
+      <c r="I60" t="n">
+        <v>16</v>
+      </c>
+      <c r="J60" t="n">
+        <v>27</v>
+      </c>
+      <c r="K60" t="n">
+        <v>18.83054097631378</v>
+      </c>
+      <c r="L60" t="n">
+        <v>5.421749473350454</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>0.7724310833101409</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.125271458086902</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.9840779767235064</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>196</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1612</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1633</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1664</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.4038677781546697</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-0.01198400100036162</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.4158517791550314</v>
+      </c>
+      <c r="G61" t="n">
+        <v>52</v>
+      </c>
+      <c r="H61" t="n">
+        <v>23.65113959927135</v>
+      </c>
+      <c r="I61" t="n">
+        <v>21</v>
+      </c>
+      <c r="J61" t="n">
+        <v>31</v>
+      </c>
+      <c r="K61" t="n">
+        <v>16.26676953591388</v>
+      </c>
+      <c r="L61" t="n">
+        <v>3.900103722110294</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>0.7615891273909777</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.6774193548387096</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.1558921140637415</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.9865636528078436</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>197</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>288</v>
+      </c>
+      <c r="B62" t="n">
+        <v>321</v>
+      </c>
+      <c r="C62" t="n">
+        <v>421</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2.549577113846178</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2.055482185970256</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.4940949278759225</v>
+      </c>
+      <c r="G62" t="n">
+        <v>133</v>
+      </c>
+      <c r="H62" t="n">
+        <v>147.2234850179279</v>
+      </c>
+      <c r="I62" t="n">
+        <v>33</v>
+      </c>
+      <c r="J62" t="n">
+        <v>100</v>
+      </c>
+      <c r="K62" t="n">
+        <v>183.8962590188103</v>
+      </c>
+      <c r="L62" t="n">
+        <v>4.829833473246451</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>0.8592657491130052</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.3791655006905631</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.8193323296928812</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>198</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>43</v>
+      </c>
+      <c r="B63" t="n">
+        <v>65</v>
+      </c>
+      <c r="C63" t="n">
+        <v>132</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.64611571421172</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2.031264216446159</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.6148514977655601</v>
+      </c>
+      <c r="G63" t="n">
+        <v>89</v>
+      </c>
+      <c r="H63" t="n">
+        <v>21.17343868287662</v>
+      </c>
+      <c r="I63" t="n">
+        <v>22</v>
+      </c>
+      <c r="J63" t="n">
+        <v>67</v>
+      </c>
+      <c r="K63" t="n">
+        <v>174.8431438983475</v>
+      </c>
+      <c r="L63" t="n">
+        <v>11.42038167451883</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>0.841230539928867</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.3283582089552239</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.2289255021972023</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.7214938283534196</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>199</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>132</v>
+      </c>
+      <c r="B64" t="n">
+        <v>159</v>
+      </c>
+      <c r="C64" t="n">
+        <v>223</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2.587604431529556</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.972752933763996</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.6148514977655601</v>
+      </c>
+      <c r="G64" t="n">
+        <v>91</v>
+      </c>
+      <c r="H64" t="n">
+        <v>31.32940410050082</v>
+      </c>
+      <c r="I64" t="n">
+        <v>27</v>
+      </c>
+      <c r="J64" t="n">
+        <v>64</v>
+      </c>
+      <c r="K64" t="n">
+        <v>153.2368211903392</v>
+      </c>
+      <c r="L64" t="n">
+        <v>11.16785258937449</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>0.823151146803885</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.421875</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.1528997902002487</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.8713185802296703</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>200</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>580</v>
+      </c>
+      <c r="B65" t="n">
+        <v>608</v>
+      </c>
+      <c r="C65" t="n">
+        <v>683</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.532369856164715</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.9175183583991551</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.6148514977655601</v>
+      </c>
+      <c r="G65" t="n">
+        <v>103</v>
+      </c>
+      <c r="H65" t="n">
+        <v>70.88327147706786</v>
+      </c>
+      <c r="I65" t="n">
+        <v>28</v>
+      </c>
+      <c r="J65" t="n">
+        <v>75</v>
+      </c>
+      <c r="K65" t="n">
+        <v>105.928855697027</v>
+      </c>
+      <c r="L65" t="n">
+        <v>6.613561353321964</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>0.8037083398116557</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.3733333333333334</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.4006893584550277</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.5823718593730312</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>201</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>683</v>
+      </c>
+      <c r="B66" t="n">
+        <v>723</v>
+      </c>
+      <c r="C66" t="n">
+        <v>790</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4.459845383704757</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.844993885939197</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.6148514977655601</v>
+      </c>
+      <c r="G66" t="n">
+        <v>107</v>
+      </c>
+      <c r="H66" t="n">
+        <v>139.1540006105337</v>
+      </c>
+      <c r="I66" t="n">
+        <v>40</v>
+      </c>
+      <c r="J66" t="n">
+        <v>67</v>
+      </c>
+      <c r="K66" t="n">
+        <v>297.8744613339211</v>
+      </c>
+      <c r="L66" t="n">
+        <v>19.24826500129918</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>0.7505607140290571</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.5970149253731343</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.3278757444535467</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.8181608324669936</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>202</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>790</v>
+      </c>
+      <c r="B67" t="n">
+        <v>818</v>
+      </c>
+      <c r="C67" t="n">
+        <v>916</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3.051527814327967</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2.436676316562407</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.6148514977655601</v>
+      </c>
+      <c r="G67" t="n">
+        <v>126</v>
+      </c>
+      <c r="H67" t="n">
+        <v>24.13760510029738</v>
+      </c>
+      <c r="I67" t="n">
+        <v>28</v>
+      </c>
+      <c r="J67" t="n">
+        <v>98</v>
+      </c>
+      <c r="K67" t="n">
+        <v>203.8393880928012</v>
+      </c>
+      <c r="L67" t="n">
+        <v>13.17010142181834</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>0.8962319958675009</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.4571483035940817</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.9742654930781159</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>203</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>504</v>
+      </c>
+      <c r="B68" t="n">
+        <v>569</v>
+      </c>
+      <c r="C68" t="n">
+        <v>653</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3.127396886741584</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2.445063301362401</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.6823335853791832</v>
+      </c>
+      <c r="G68" t="n">
+        <v>149</v>
+      </c>
+      <c r="H68" t="n">
+        <v>70.43257815793572</v>
+      </c>
+      <c r="I68" t="n">
+        <v>65</v>
+      </c>
+      <c r="J68" t="n">
+        <v>84</v>
+      </c>
+      <c r="K68" t="n">
+        <v>241.6761673443803</v>
+      </c>
+      <c r="L68" t="n">
+        <v>11.59536321883391</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>0.7266521666644644</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.7738095238095238</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.3962959517755716</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.6833226116578923</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>204</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>699</v>
+      </c>
+      <c r="B69" t="n">
+        <v>725</v>
+      </c>
+      <c r="C69" t="n">
+        <v>786</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3.067960383174096</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.385626797794913</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.6823335853791832</v>
+      </c>
+      <c r="G69" t="n">
+        <v>87</v>
+      </c>
+      <c r="H69" t="n">
+        <v>40.61887667366329</v>
+      </c>
+      <c r="I69" t="n">
+        <v>26</v>
+      </c>
+      <c r="J69" t="n">
+        <v>61</v>
+      </c>
+      <c r="K69" t="n">
+        <v>166.328923535535</v>
+      </c>
+      <c r="L69" t="n">
+        <v>11.37499213314142</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>0.8980625049495052</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.4262295081967213</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.3104104259499275</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.9803533256755838</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>205</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1238</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1348</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.769949505119921</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.087615919740738</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.6823335853791832</v>
+      </c>
+      <c r="G70" t="n">
+        <v>137</v>
+      </c>
+      <c r="H70" t="n">
+        <v>55.03240296455897</v>
+      </c>
+      <c r="I70" t="n">
+        <v>27</v>
+      </c>
+      <c r="J70" t="n">
+        <v>110</v>
+      </c>
+      <c r="K70" t="n">
+        <v>137.5182688956687</v>
+      </c>
+      <c r="L70" t="n">
+        <v>6.562392984999042</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>0.9040737084939716</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.2454545454545455</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.3042079575536535</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.6807146444943062</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>206</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1822</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1901</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2044</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4.105584195877572</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3.423250610498389</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.6823335853791832</v>
+      </c>
+      <c r="G71" t="n">
+        <v>222</v>
+      </c>
+      <c r="H71" t="n">
+        <v>180.83562064906</v>
+      </c>
+      <c r="I71" t="n">
+        <v>79</v>
+      </c>
+      <c r="J71" t="n">
+        <v>143</v>
+      </c>
+      <c r="K71" t="n">
+        <v>558.0494521439982</v>
+      </c>
+      <c r="L71" t="n">
+        <v>15.22216133760519</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>0.5073432425729182</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.5524475524475524</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.08180121422979789</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.511908484986705</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>207</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>722</v>
+      </c>
+      <c r="B72" t="n">
+        <v>749</v>
+      </c>
+      <c r="C72" t="n">
+        <v>797</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.445689920071005</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2.907355299223042</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.5383346208479636</v>
+      </c>
+      <c r="G72" t="n">
+        <v>75</v>
+      </c>
+      <c r="H72" t="n">
+        <v>44.18028756621584</v>
+      </c>
+      <c r="I72" t="n">
+        <v>27</v>
+      </c>
+      <c r="J72" t="n">
         <v>48</v>
       </c>
-      <c r="J52" t="n">
-        <v>112</v>
-      </c>
-      <c r="K52" t="n">
-        <v>398.3870824834465</v>
-      </c>
-      <c r="L52" t="n">
-        <v>25.27419092821225</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P52" t="n">
-        <v>0.8233603204360027</v>
-      </c>
-      <c r="Q52" t="n">
+      <c r="K72" t="n">
+        <v>146.4033138356894</v>
+      </c>
+      <c r="L72" t="n">
+        <v>9.066339070829001</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>0.8203864598884338</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.2859282049966181</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.9475172583779506</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>208</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>797</v>
+      </c>
+      <c r="B73" t="n">
+        <v>814</v>
+      </c>
+      <c r="C73" t="n">
+        <v>838</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.712340174885681</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.174005554037718</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.5383346208479636</v>
+      </c>
+      <c r="G73" t="n">
+        <v>41</v>
+      </c>
+      <c r="H73" t="n">
+        <v>17.23853041161101</v>
+      </c>
+      <c r="I73" t="n">
+        <v>17</v>
+      </c>
+      <c r="J73" t="n">
+        <v>24</v>
+      </c>
+      <c r="K73" t="n">
+        <v>53.02122520703875</v>
+      </c>
+      <c r="L73" t="n">
+        <v>4.505529223533933</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>0.7705431113684744</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.1607131100696043</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.9963381368724348</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
+        <v>209</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>919</v>
+      </c>
+      <c r="B74" t="n">
+        <v>946</v>
+      </c>
+      <c r="C74" t="n">
+        <v>984</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.406642663600459</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.868308042752495</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.5383346208479636</v>
+      </c>
+      <c r="G74" t="n">
+        <v>65</v>
+      </c>
+      <c r="H74" t="n">
+        <v>45.68628260211301</v>
+      </c>
+      <c r="I74" t="n">
+        <v>27</v>
+      </c>
+      <c r="J74" t="n">
+        <v>38</v>
+      </c>
+      <c r="K74" t="n">
+        <v>94.08690365003689</v>
+      </c>
+      <c r="L74" t="n">
+        <v>6.332385942051101</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>0.6957890320956172</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.1444707418132928</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.9269531406031684</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
+        <v>210</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>198</v>
+      </c>
+      <c r="B75" t="n">
+        <v>221</v>
+      </c>
+      <c r="C75" t="n">
+        <v>319</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.908956930074706</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.382840672533331</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.5261162575413747</v>
+      </c>
+      <c r="G75" t="n">
+        <v>121</v>
+      </c>
+      <c r="H75" t="n">
+        <v>98.06606041118476</v>
+      </c>
+      <c r="I75" t="n">
+        <v>23</v>
+      </c>
+      <c r="J75" t="n">
+        <v>98</v>
+      </c>
+      <c r="K75" t="n">
+        <v>172.8048461704198</v>
+      </c>
+      <c r="L75" t="n">
+        <v>4.720598076009932</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>0.7688886683390628</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.2346938775510204</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.4001011334079167</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.3522098349180702</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U75" t="n">
+        <v>211</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>966</v>
+      </c>
+      <c r="B76" t="n">
+        <v>987</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1089</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.755359622650316</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.132150314919926</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.6232093077303902</v>
+      </c>
+      <c r="G76" t="n">
+        <v>123</v>
+      </c>
+      <c r="H76" t="n">
+        <v>34.98778768685986</v>
+      </c>
+      <c r="I76" t="n">
+        <v>21</v>
+      </c>
+      <c r="J76" t="n">
+        <v>102</v>
+      </c>
+      <c r="K76" t="n">
+        <v>100.2149875381257</v>
+      </c>
+      <c r="L76" t="n">
+        <v>5.51803458494972</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>0.7888914239257891</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.2058823529411765</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.3813978899960931</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.4328013637281486</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U76" t="n">
+        <v>212</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1549</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1574</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1633</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.744418776190819</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.121209468460429</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.6232093077303902</v>
+      </c>
+      <c r="G77" t="n">
+        <v>84</v>
+      </c>
+      <c r="H77" t="n">
+        <v>24.13610373416191</v>
+      </c>
+      <c r="I77" t="n">
+        <v>25</v>
+      </c>
+      <c r="J77" t="n">
+        <v>59</v>
+      </c>
+      <c r="K77" t="n">
+        <v>85.79244835438278</v>
+      </c>
+      <c r="L77" t="n">
+        <v>5.483641650092887</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>0.8466919230432117</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.423728813559322</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.3392191973756354</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.8315049000521029</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U77" t="n">
+        <v>213</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1633</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1664</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1732</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2.326897239556711</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.703687931826321</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.6232093077303902</v>
+      </c>
+      <c r="G78" t="n">
+        <v>99</v>
+      </c>
+      <c r="H78" t="n">
+        <v>33.51401426404232</v>
+      </c>
+      <c r="I78" t="n">
+        <v>31</v>
+      </c>
+      <c r="J78" t="n">
+        <v>68</v>
+      </c>
+      <c r="K78" t="n">
+        <v>109.85877083743</v>
+      </c>
+      <c r="L78" t="n">
+        <v>7.314683144022502</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>0.7873554599564376</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.4558823529411765</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.3822403739623308</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.5067212168000332</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U78" t="n">
+        <v>214</v>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1732</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1766</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1927</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3.931787600623911</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3.30857829289352</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.6232093077303902</v>
+      </c>
+      <c r="G79" t="n">
+        <v>195</v>
+      </c>
+      <c r="H79" t="n">
+        <v>235.6088232403522</v>
+      </c>
+      <c r="I79" t="n">
+        <v>34</v>
+      </c>
+      <c r="J79" t="n">
+        <v>161</v>
+      </c>
+      <c r="K79" t="n">
+        <v>521.7386961574238</v>
+      </c>
+      <c r="L79" t="n">
+        <v>12.35971232388385</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>0.8248087683137755</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.2111801242236025</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.5942383572061614</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.7146527308729013</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U79" t="n">
+        <v>215</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>659</v>
+      </c>
+      <c r="B80" t="n">
+        <v>687</v>
+      </c>
+      <c r="C80" t="n">
+        <v>786</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3.304341771468177</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2.786973946645008</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.5173678248231689</v>
+      </c>
+      <c r="G80" t="n">
+        <v>127</v>
+      </c>
+      <c r="H80" t="n">
+        <v>30.56302284648393</v>
+      </c>
+      <c r="I80" t="n">
+        <v>28</v>
+      </c>
+      <c r="J80" t="n">
+        <v>99</v>
+      </c>
+      <c r="K80" t="n">
+        <v>194.0662294781541</v>
+      </c>
+      <c r="L80" t="n">
+        <v>13.89498433393662</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>0.8802707157005975</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.2828282828282828</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.4039200169719416</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.7823569609599137</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U80" t="n">
+        <v>216</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>125</v>
+      </c>
+      <c r="B81" t="n">
+        <v>175</v>
+      </c>
+      <c r="C81" t="n">
+        <v>373</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3.339908080110322</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.714044642984405</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.6258634371259172</v>
+      </c>
+      <c r="G81" t="n">
+        <v>248</v>
+      </c>
+      <c r="H81" t="n">
+        <v>44.44142072766903</v>
+      </c>
+      <c r="I81" t="n">
+        <v>50</v>
+      </c>
+      <c r="J81" t="n">
+        <v>198</v>
+      </c>
+      <c r="K81" t="n">
+        <v>433.7199210370753</v>
+      </c>
+      <c r="L81" t="n">
+        <v>10.37188549041629</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>0.843705561170991</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.2525252525252525</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.4027251447774557</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.8153793211263336</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U81" t="n">
+        <v>217</v>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>486</v>
+      </c>
+      <c r="B82" t="n">
+        <v>530</v>
+      </c>
+      <c r="C82" t="n">
+        <v>592</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.56127329473615</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.9354098576102327</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.6258634371259172</v>
+      </c>
+      <c r="G82" t="n">
+        <v>106</v>
+      </c>
+      <c r="H82" t="n">
+        <v>29.79937199346796</v>
+      </c>
+      <c r="I82" t="n">
+        <v>44</v>
+      </c>
+      <c r="J82" t="n">
+        <v>62</v>
+      </c>
+      <c r="K82" t="n">
+        <v>95.61484609434228</v>
+      </c>
+      <c r="L82" t="n">
+        <v>4.848441167792085</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>0.6880319652906784</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.7096774193548387</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.1470490920852799</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.8419610918936806</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U82" t="n">
+        <v>218</v>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2128</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2169</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2336</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.763327285823708</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.137463848697791</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.6258634371259172</v>
+      </c>
+      <c r="G83" t="n">
+        <v>208</v>
+      </c>
+      <c r="H83" t="n">
+        <v>33.03488110430817</v>
+      </c>
+      <c r="I83" t="n">
+        <v>41</v>
+      </c>
+      <c r="J83" t="n">
+        <v>167</v>
+      </c>
+      <c r="K83" t="n">
+        <v>130.4675940355458</v>
+      </c>
+      <c r="L83" t="n">
+        <v>5.475907795069002</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>0.6856489467704163</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.2455089820359281</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.4896275948471175</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.5307349860190482</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U83" t="n">
+        <v>219</v>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>962</v>
+      </c>
+      <c r="B84" t="n">
+        <v>986</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2.63100268202462</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.908868193741892</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.7221344882827272</v>
+      </c>
+      <c r="G84" t="n">
+        <v>61</v>
+      </c>
+      <c r="H84" t="n">
+        <v>28.79868297269923</v>
+      </c>
+      <c r="I84" t="n">
+        <v>24</v>
+      </c>
+      <c r="J84" t="n">
+        <v>37</v>
+      </c>
+      <c r="K84" t="n">
+        <v>108.4735534553852</v>
+      </c>
+      <c r="L84" t="n">
+        <v>8.786133127857731</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>0.8247112710169483</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.6486486486486487</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.2770036471035498</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.9935937722451235</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U84" t="n">
+        <v>220</v>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1053</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1091</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2.548700145190469</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.826565656907742</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.7221344882827272</v>
+      </c>
+      <c r="G85" t="n">
+        <v>68</v>
+      </c>
+      <c r="H85" t="n">
+        <v>30.16478063393197</v>
+      </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>38</v>
+      </c>
+      <c r="K85" t="n">
+        <v>128.0901647826065</v>
+      </c>
+      <c r="L85" t="n">
+        <v>8.511286944565816</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>0.6162449855312543</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.02080216683604258</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.985897975080956</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U85" t="n">
+        <v>221</v>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1091</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1126</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1205</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2.885687030822969</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2.163552542540241</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.7221344882827272</v>
+      </c>
+      <c r="G86" t="n">
+        <v>114</v>
+      </c>
+      <c r="H86" t="n">
+        <v>55.38082161865145</v>
+      </c>
+      <c r="I86" t="n">
+        <v>35</v>
+      </c>
+      <c r="J86" t="n">
+        <v>79</v>
+      </c>
+      <c r="K86" t="n">
+        <v>208.4657110498546</v>
+      </c>
+      <c r="L86" t="n">
+        <v>9.636641798720085</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>0.8488687592525532</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.4430379746835443</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.1799303116038699</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.9729181147171541</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U86" t="n">
+        <v>222</v>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1318</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1352</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1472</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.921034330237814</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2.198899841955087</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.7221344882827272</v>
+      </c>
+      <c r="G87" t="n">
+        <v>154</v>
+      </c>
+      <c r="H87" t="n">
+        <v>110.9416233712082</v>
+      </c>
+      <c r="I87" t="n">
+        <v>34</v>
+      </c>
+      <c r="J87" t="n">
+        <v>120</v>
+      </c>
+      <c r="K87" t="n">
+        <v>295.9832451801452</v>
+      </c>
+      <c r="L87" t="n">
+        <v>9.754682757207476</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>0.7970877347987748</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.2833333333333333</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.09318734627942137</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.8786797212402909</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U87" t="n">
+        <v>223</v>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1472</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1499</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.538185317455395</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.8160508291726679</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.7221344882827272</v>
+      </c>
+      <c r="G88" t="n">
+        <v>78</v>
+      </c>
+      <c r="H88" t="n">
+        <v>28.11423890869673</v>
+      </c>
+      <c r="I88" t="n">
+        <v>27</v>
+      </c>
+      <c r="J88" t="n">
+        <v>51</v>
+      </c>
+      <c r="K88" t="n">
+        <v>79.54235769950353</v>
+      </c>
+      <c r="L88" t="n">
+        <v>5.136711211589994</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>0.8000572926067027</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.1425937384839027</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.9602437426538943</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U88" t="n">
+        <v>224</v>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1550</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1586</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1631</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2.230002899547912</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.507868411265185</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.7221344882827272</v>
+      </c>
+      <c r="G89" t="n">
+        <v>81</v>
+      </c>
+      <c r="H89" t="n">
+        <v>40.4915108920236</v>
+      </c>
+      <c r="I89" t="n">
+        <v>36</v>
+      </c>
+      <c r="J89" t="n">
+        <v>45</v>
+      </c>
+      <c r="K89" t="n">
+        <v>109.7368557913976</v>
+      </c>
+      <c r="L89" t="n">
+        <v>7.447009645713986</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>0.7382594774840255</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.1702911776647899</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.9916156519885021</v>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U89" t="n">
+        <v>225</v>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1631</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1657</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1731</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.628287406802067</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.9061529185193394</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.7221344882827272</v>
+      </c>
+      <c r="G90" t="n">
+        <v>100</v>
+      </c>
+      <c r="H90" t="n">
+        <v>32.23241213867686</v>
+      </c>
+      <c r="I90" t="n">
+        <v>26</v>
+      </c>
+      <c r="J90" t="n">
+        <v>74</v>
+      </c>
+      <c r="K90" t="n">
+        <v>102.1599338535929</v>
+      </c>
+      <c r="L90" t="n">
+        <v>5.43760370307495</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>0.88406126458782</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.1959564623992851</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.8728929012420081</v>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U90" t="n">
+        <v>226</v>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>956</v>
+      </c>
+      <c r="B91" t="n">
+        <v>986</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1029</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.71838345498666</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.161125953864592</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.5572575011220683</v>
+      </c>
+      <c r="G91" t="n">
+        <v>73</v>
+      </c>
+      <c r="H91" t="n">
+        <v>45.68126836607178</v>
+      </c>
+      <c r="I91" t="n">
+        <v>30</v>
+      </c>
+      <c r="J91" t="n">
+        <v>43</v>
+      </c>
+      <c r="K91" t="n">
+        <v>92.4801259966639</v>
+      </c>
+      <c r="L91" t="n">
+        <v>6.043346773584473</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>0.7777156065427628</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.24890631077311</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.9431899872139687</v>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U91" t="n">
+        <v>227</v>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1503</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1577</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2.498932211218833</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.941674710096765</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.5572575011220683</v>
+      </c>
+      <c r="G92" t="n">
+        <v>74</v>
+      </c>
+      <c r="H92" t="n">
+        <v>33.35792893962685</v>
+      </c>
+      <c r="I92" t="n">
+        <v>22</v>
+      </c>
+      <c r="J92" t="n">
+        <v>52</v>
+      </c>
+      <c r="K92" t="n">
+        <v>108.8688244295248</v>
+      </c>
+      <c r="L92" t="n">
+        <v>5.555475953317909</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>0.8880989646056373</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.4230769230769231</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.2142462698295752</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.9345078052557713</v>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U92" t="n">
+        <v>228</v>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1678</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1709</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1756</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2.833331891604226</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2.276074390482158</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.5572575011220683</v>
+      </c>
+      <c r="G93" t="n">
+        <v>78</v>
+      </c>
+      <c r="H93" t="n">
+        <v>146.8878586182157</v>
+      </c>
+      <c r="I93" t="n">
+        <v>31</v>
+      </c>
+      <c r="J93" t="n">
+        <v>47</v>
+      </c>
+      <c r="K93" t="n">
+        <v>145.6834949285686</v>
+      </c>
+      <c r="L93" t="n">
+        <v>6.298893231641014</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>0.7556654364244588</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.6595744680851063</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.2423080802285725</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.9472928178123822</v>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U93" t="n">
+        <v>229</v>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1241</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1293</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.865850866917753</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.113940078768357</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.7519107881493956</v>
+      </c>
+      <c r="G94" t="n">
+        <v>80</v>
+      </c>
+      <c r="H94" t="n">
+        <v>31.35209330953739</v>
+      </c>
+      <c r="I94" t="n">
+        <v>28</v>
+      </c>
+      <c r="J94" t="n">
+        <v>52</v>
+      </c>
+      <c r="K94" t="n">
+        <v>109.077347384639</v>
+      </c>
+      <c r="L94" t="n">
+        <v>5.520476792319712</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>0.8793283993410441</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.4075707377310298</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.9793356755904468</v>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U94" t="n">
+        <v>230</v>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1579</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1657</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1821</v>
+      </c>
+      <c r="D95" t="n">
+        <v>3.074575486546181</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2.322664698396785</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-0.7519107881493956</v>
+      </c>
+      <c r="G95" t="n">
+        <v>242</v>
+      </c>
+      <c r="H95" t="n">
+        <v>112.4509106794665</v>
+      </c>
+      <c r="I95" t="n">
+        <v>78</v>
+      </c>
+      <c r="J95" t="n">
+        <v>164</v>
+      </c>
+      <c r="K95" t="n">
+        <v>451.4037218809548</v>
+      </c>
+      <c r="L95" t="n">
+        <v>9.096719850794729</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>0.7674313625211601</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.475609756097561</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.212508789140189</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0.8611120164270002</v>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U95" t="n">
+        <v>231</v>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>2382</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2458</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2583</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2.939980427370542</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.188069639221147</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.7519107881493956</v>
+      </c>
+      <c r="G96" t="n">
+        <v>201</v>
+      </c>
+      <c r="H96" t="n">
+        <v>131.9448844885974</v>
+      </c>
+      <c r="I96" t="n">
+        <v>76</v>
+      </c>
+      <c r="J96" t="n">
+        <v>125</v>
+      </c>
+      <c r="K96" t="n">
+        <v>386.3138448370016</v>
+      </c>
+      <c r="L96" t="n">
+        <v>8.69849461548027</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>0.5564186592268647</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.1726320753693837</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.8104419259254223</v>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U96" t="n">
+        <v>232</v>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2583</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2609</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2686</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.196398122110039</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.444487333960643</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.7519107881493956</v>
+      </c>
+      <c r="G97" t="n">
+        <v>103</v>
+      </c>
+      <c r="H97" t="n">
+        <v>25.16325618755582</v>
+      </c>
+      <c r="I97" t="n">
+        <v>26</v>
+      </c>
+      <c r="J97" t="n">
+        <v>77</v>
+      </c>
+      <c r="K97" t="n">
+        <v>67.21109511866004</v>
+      </c>
+      <c r="L97" t="n">
+        <v>3.539772757076672</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>0.7474478111175838</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.3376623376623377</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.401482079352333</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.3015076012212972</v>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U97" t="n">
+        <v>233</v>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2686</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2717</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2881</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2.05398794667023</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.302077158520834</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.7519107881493956</v>
+      </c>
+      <c r="G98" t="n">
+        <v>195</v>
+      </c>
+      <c r="H98" t="n">
+        <v>92.8546037322858</v>
+      </c>
+      <c r="I98" t="n">
+        <v>31</v>
+      </c>
+      <c r="J98" t="n">
+        <v>164</v>
+      </c>
+      <c r="K98" t="n">
+        <v>249.680311838864</v>
+      </c>
+      <c r="L98" t="n">
+        <v>6.077116339972335</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>0.8916064473963451</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.1890243902439024</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.2219595019376665</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.8497258055584281</v>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U98" t="n">
+        <v>234</v>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1152</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1181</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1219</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2.084670607943583</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.496376194639571</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0.5882944133040123</v>
+      </c>
+      <c r="G99" t="n">
+        <v>67</v>
+      </c>
+      <c r="H99" t="n">
+        <v>21.44773174597208</v>
+      </c>
+      <c r="I99" t="n">
+        <v>29</v>
+      </c>
+      <c r="J99" t="n">
+        <v>38</v>
+      </c>
+      <c r="K99" t="n">
+        <v>88.29516675426147</v>
+      </c>
+      <c r="L99" t="n">
+        <v>5.330131359369864</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>0.7558861387377172</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.3466438670284521</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0.8150379554638283</v>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>n41</t>
+        </is>
+      </c>
+      <c r="U99" t="n">
+        <v>235</v>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2128</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2150</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2183</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2.607609611028268</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2.022637176383511</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.5849724346447572</v>
+      </c>
+      <c r="G100" t="n">
+        <v>55</v>
+      </c>
+      <c r="H100" t="n">
+        <v>21.85036103341281</v>
+      </c>
+      <c r="I100" t="n">
+        <v>22</v>
+      </c>
+      <c r="J100" t="n">
+        <v>33</v>
+      </c>
+      <c r="K100" t="n">
+        <v>112.2968028528094</v>
+      </c>
+      <c r="L100" t="n">
+        <v>7.834832101563469</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>0.7068539529467496</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.08041510982069648</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0.9537005589683567</v>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>n42</t>
+        </is>
+      </c>
+      <c r="U100" t="n">
+        <v>236</v>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2183</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2202</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2274</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2.298638508191889</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.713666073547132</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0.5849724346447572</v>
+      </c>
+      <c r="G101" t="n">
+        <v>91</v>
+      </c>
+      <c r="H101" t="n">
+        <v>24.86523895742084</v>
+      </c>
+      <c r="I101" t="n">
+        <v>19</v>
+      </c>
+      <c r="J101" t="n">
+        <v>72</v>
+      </c>
+      <c r="K101" t="n">
+        <v>128.9040217466235</v>
+      </c>
+      <c r="L101" t="n">
+        <v>6.906496546762629</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>0.9203551920432671</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.3051693689349385</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0.9213842472731918</v>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>n42</t>
+        </is>
+      </c>
+      <c r="U101" t="n">
+        <v>237</v>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>352</v>
+      </c>
+      <c r="B102" t="n">
+        <v>382</v>
+      </c>
+      <c r="C102" t="n">
+        <v>483</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1.716223842751474</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.125960777216914</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-0.59026306553456</v>
+      </c>
+      <c r="G102" t="n">
+        <v>131</v>
+      </c>
+      <c r="H102" t="n">
+        <v>27.91527864651181</v>
+      </c>
+      <c r="I102" t="n">
+        <v>30</v>
+      </c>
+      <c r="J102" t="n">
+        <v>101</v>
+      </c>
+      <c r="K102" t="n">
+        <v>118.8462550464073</v>
+      </c>
+      <c r="L102" t="n">
+        <v>4.926406707798431</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>0.8125771917920515</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.297029702970297</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.4203976802311045</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0.5740754726420196</v>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>n43</t>
+        </is>
+      </c>
+      <c r="U102" t="n">
+        <v>238</v>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1878</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1918</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2.785045272505384</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.194782206970824</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0.59026306553456</v>
+      </c>
+      <c r="G103" t="n">
+        <v>137</v>
+      </c>
+      <c r="H103" t="n">
+        <v>63.0040856172227</v>
+      </c>
+      <c r="I103" t="n">
+        <v>40</v>
+      </c>
+      <c r="J103" t="n">
+        <v>97</v>
+      </c>
+      <c r="K103" t="n">
+        <v>210.7098416153102</v>
+      </c>
+      <c r="L103" t="n">
+        <v>7.994450007171743</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>0.7724986412189999</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0.4123711340206185</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.3026829536275411</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0.8388228400865945</v>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>n43</t>
+        </is>
+      </c>
+      <c r="U103" t="n">
+        <v>239</v>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>2148</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2177</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2266</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3.578837219299378</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.988574153764818</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-0.59026306553456</v>
+      </c>
+      <c r="G104" t="n">
+        <v>118</v>
+      </c>
+      <c r="H104" t="n">
+        <v>342.8376755821635</v>
+      </c>
+      <c r="I104" t="n">
+        <v>29</v>
+      </c>
+      <c r="J104" t="n">
+        <v>89</v>
+      </c>
+      <c r="K104" t="n">
+        <v>295.931931900913</v>
+      </c>
+      <c r="L104" t="n">
+        <v>10.27302339245514</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>0.7549138328460046</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0.3258426966292135</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.08019124016662001</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0.9748208625620712</v>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>n43</t>
+        </is>
+      </c>
+      <c r="U104" t="n">
+        <v>240</v>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>19</v>
+      </c>
+      <c r="C105" t="n">
+        <v>73</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.952664626754592</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.383325849511234</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-0.5693387772433577</v>
+      </c>
+      <c r="G105" t="n">
+        <v>73</v>
+      </c>
+      <c r="H105" t="n">
+        <v>115.2630125643168</v>
+      </c>
+      <c r="I105" t="n">
+        <v>19</v>
+      </c>
+      <c r="J105" t="n">
+        <v>54</v>
+      </c>
+      <c r="K105" t="n">
+        <v>117.9976401938868</v>
+      </c>
+      <c r="L105" t="n">
+        <v>5.171730779454485</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>0.7562159386367804</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0.3518518518518519</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.3561842541408183</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0.4321246532245941</v>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>n45</t>
+        </is>
+      </c>
+      <c r="U105" t="n">
+        <v>241</v>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>251</v>
+      </c>
+      <c r="B106" t="n">
+        <v>284</v>
+      </c>
+      <c r="C106" t="n">
+        <v>334</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.673137654892634</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.103798877649276</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-0.5693387772433577</v>
+      </c>
+      <c r="G106" t="n">
+        <v>83</v>
+      </c>
+      <c r="H106" t="n">
+        <v>44.05854026402682</v>
+      </c>
+      <c r="I106" t="n">
+        <v>33</v>
+      </c>
+      <c r="J106" t="n">
+        <v>50</v>
+      </c>
+      <c r="K106" t="n">
+        <v>94.1777219939882</v>
+      </c>
+      <c r="L106" t="n">
+        <v>4.43138949183209</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>0.7685329987982357</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.4387220784808905</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0.803242664972236</v>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>n45</t>
+        </is>
+      </c>
+      <c r="U106" t="n">
+        <v>242</v>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1506</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1616</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2.49120051231416</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.921861735070802</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-0.5693387772433577</v>
+      </c>
+      <c r="G107" t="n">
+        <v>110</v>
+      </c>
+      <c r="H107" t="n">
+        <v>44.25132319240197</v>
+      </c>
+      <c r="I107" t="n">
+        <v>44</v>
+      </c>
+      <c r="J107" t="n">
+        <v>66</v>
+      </c>
+      <c r="K107" t="n">
+        <v>126.8119463453721</v>
+      </c>
+      <c r="L107" t="n">
+        <v>6.598070242477506</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>0.7900389553657662</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.1952587369370919</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0.8660624790194962</v>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>n45</t>
+        </is>
+      </c>
+      <c r="U107" t="n">
+        <v>243</v>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2174</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2201</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2238</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2.189959539304865</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1.620620762061507</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-0.5693387772433577</v>
+      </c>
+      <c r="G108" t="n">
+        <v>64</v>
+      </c>
+      <c r="H108" t="n">
+        <v>55.51368490069672</v>
+      </c>
+      <c r="I108" t="n">
+        <v>27</v>
+      </c>
+      <c r="J108" t="n">
+        <v>37</v>
+      </c>
+      <c r="K108" t="n">
+        <v>94.5065744575484</v>
+      </c>
+      <c r="L108" t="n">
+        <v>5.800218327305396</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>0.6964104909283658</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.7297297297297297</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.1543211018624595</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0.9507497704766752</v>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>n45</t>
+        </is>
+      </c>
+      <c r="U108" t="n">
+        <v>244</v>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2238</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2260</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2406</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2.110470758151048</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.541131980907691</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0.5693387772433577</v>
+      </c>
+      <c r="G109" t="n">
+        <v>168</v>
+      </c>
+      <c r="H109" t="n">
+        <v>135.6554556680339</v>
+      </c>
+      <c r="I109" t="n">
+        <v>22</v>
+      </c>
+      <c r="J109" t="n">
+        <v>146</v>
+      </c>
+      <c r="K109" t="n">
+        <v>283.0916022664086</v>
+      </c>
+      <c r="L109" t="n">
+        <v>5.589688280065399</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>0.7257748585359419</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.1506849315068493</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.2634228834739984</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0.3353449322373718</v>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>n45</t>
+        </is>
+      </c>
+      <c r="U109" t="n">
+        <v>245</v>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1231</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1285</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1362</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2.72295548238974</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.164091666805991</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0.558863815583749</v>
+      </c>
+      <c r="G110" t="n">
+        <v>131</v>
+      </c>
+      <c r="H110" t="n">
+        <v>64.50787599711657</v>
+      </c>
+      <c r="I110" t="n">
+        <v>54</v>
+      </c>
+      <c r="J110" t="n">
+        <v>77</v>
+      </c>
+      <c r="K110" t="n">
+        <v>154.3468435570326</v>
+      </c>
+      <c r="L110" t="n">
+        <v>8.555531796511813</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>0.6129150103656343</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.7012987012987013</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.4136472205747754</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0.7984624544947165</v>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>n46</t>
+        </is>
+      </c>
+      <c r="U110" t="n">
+        <v>246</v>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1662</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1683</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1732</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.723266094489439</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.16440227890569</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0.558863815583749</v>
+      </c>
+      <c r="G111" t="n">
+        <v>70</v>
+      </c>
+      <c r="H111" t="n">
+        <v>38.9911177018032</v>
+      </c>
+      <c r="I111" t="n">
+        <v>21</v>
+      </c>
+      <c r="J111" t="n">
+        <v>49</v>
+      </c>
+      <c r="K111" t="n">
+        <v>69.90593840145154</v>
+      </c>
+      <c r="L111" t="n">
+        <v>5.414505657770015</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>0.805418681137671</v>
+      </c>
+      <c r="Q111" t="n">
         <v>0.4285714285714285</v>
       </c>
-      <c r="R52" t="n">
-        <v>0.1730164430439802</v>
-      </c>
-      <c r="S52" t="n">
-        <v>0.9767904431945109</v>
-      </c>
-      <c r="T52" t="inlineStr">
+      <c r="R111" t="n">
+        <v>0.166141667011364</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0.8610089759773383</v>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>n46</t>
+        </is>
+      </c>
+      <c r="U111" t="n">
+        <v>247</v>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2275</v>
+      </c>
+      <c r="B112" t="n">
+        <v>2297</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2418</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2.030979449051502</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.539170754578679</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-0.4918086944728234</v>
+      </c>
+      <c r="G112" t="n">
+        <v>143</v>
+      </c>
+      <c r="H112" t="n">
+        <v>117.5792561247672</v>
+      </c>
+      <c r="I112" t="n">
+        <v>22</v>
+      </c>
+      <c r="J112" t="n">
+        <v>121</v>
+      </c>
+      <c r="K112" t="n">
+        <v>234.4671524672701</v>
+      </c>
+      <c r="L112" t="n">
+        <v>6.181143242833145</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>0.7175295624335519</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0.1531037078104557</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0.5144703681242004</v>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>n48</t>
+        </is>
+      </c>
+      <c r="U112" t="n">
+        <v>248</v>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2367</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2387</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2416</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.6399688318131427</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.1528749963915115</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-0.4870938354216311</v>
+      </c>
+      <c r="G113" t="n">
+        <v>49</v>
+      </c>
+      <c r="H113" t="n">
+        <v>32.37742969110923</v>
+      </c>
+      <c r="I113" t="n">
+        <v>20</v>
+      </c>
+      <c r="J113" t="n">
+        <v>29</v>
+      </c>
+      <c r="K113" t="n">
+        <v>25.21227773615409</v>
+      </c>
+      <c r="L113" t="n">
+        <v>4.369693828941776</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>0.6760839333152011</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.1504356507299069</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0.7745937543437995</v>
+      </c>
+      <c r="T113" t="inlineStr">
         <is>
           <t>n49</t>
         </is>
       </c>
-      <c r="U52" t="n">
-        <v>127</v>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X52" t="inlineStr">
+      <c r="U113" t="n">
+        <v>249</v>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2416</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2442</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2485</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.6484822892068156</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.1613884537851846</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.4870938354216311</v>
+      </c>
+      <c r="G114" t="n">
+        <v>69</v>
+      </c>
+      <c r="H114" t="n">
+        <v>20.14123336085868</v>
+      </c>
+      <c r="I114" t="n">
+        <v>26</v>
+      </c>
+      <c r="J114" t="n">
+        <v>43</v>
+      </c>
+      <c r="K114" t="n">
+        <v>24.84487700692931</v>
+      </c>
+      <c r="L114" t="n">
+        <v>4.427823538369489</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>0.7033217478326674</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.6046511627906976</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.3632039307584629</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0.6969557035653536</v>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>n49</t>
+        </is>
+      </c>
+      <c r="U114" t="n">
+        <v>250</v>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2829</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2892</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D115" t="n">
+        <v>3.466836723013595</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2.979742887591963</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-0.4870938354216311</v>
+      </c>
+      <c r="G115" t="n">
+        <v>169</v>
+      </c>
+      <c r="H115" t="n">
+        <v>33.89632780369584</v>
+      </c>
+      <c r="I115" t="n">
+        <v>63</v>
+      </c>
+      <c r="J115" t="n">
+        <v>106</v>
+      </c>
+      <c r="K115" t="n">
+        <v>422.9030200133728</v>
+      </c>
+      <c r="L115" t="n">
+        <v>23.67148879982397</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>0.6463877952845211</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.5943396226415094</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0.1911828516987416</v>
+      </c>
+      <c r="S115" t="n">
+        <v>0.9589583956162656</v>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>n49</t>
+        </is>
+      </c>
+      <c r="U115" t="n">
+        <v>251</v>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X115" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_2979241014CSDSDay6openfield2024-12-06200757trace/processed_2979241014CSDSDay6openfield2024-12-06200757trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_2979241014CSDSDay6openfield2024-12-06200757trace/processed_2979241014CSDSDay6openfield2024-12-06200757trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X115"/>
+  <dimension ref="A1:X118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2830</v>
+        <v>2206</v>
       </c>
       <c r="B7" t="n">
-        <v>2894</v>
+        <v>2234</v>
       </c>
       <c r="C7" t="n">
-        <v>2998</v>
+        <v>2380</v>
       </c>
       <c r="D7" t="n">
-        <v>4.081924593331892</v>
+        <v>1.166494525403279</v>
       </c>
       <c r="E7" t="n">
-        <v>3.478452706758287</v>
+        <v>0.5630226388296744</v>
       </c>
       <c r="F7" t="n">
         <v>-0.6034718865736043</v>
       </c>
       <c r="G7" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H7" t="n">
-        <v>40.86324320325275</v>
+        <v>109.5700817181187</v>
       </c>
       <c r="I7" t="n">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J7" t="n">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="K7" t="n">
-        <v>424.8050118194193</v>
+        <v>120.5636717171877</v>
       </c>
       <c r="L7" t="n">
-        <v>23.3006466498749</v>
+        <v>6.658642543234596</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,16 +1036,16 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.659004592203017</v>
+        <v>0.7980979358305758</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="R7" t="n">
-        <v>0.274682731956557</v>
+        <v>0.3675016497919275</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9648813610714762</v>
+        <v>0.5227706001916921</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>273</v>
+        <v>2867</v>
       </c>
       <c r="B8" t="n">
-        <v>307</v>
+        <v>2894</v>
       </c>
       <c r="C8" t="n">
-        <v>378</v>
+        <v>2998</v>
       </c>
       <c r="D8" t="n">
-        <v>3.195323980489086</v>
+        <v>4.081924593331892</v>
       </c>
       <c r="E8" t="n">
-        <v>2.622090986240715</v>
+        <v>3.478452706758287</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5732329942483702</v>
+        <v>-0.6034718865736043</v>
       </c>
       <c r="G8" t="n">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="H8" t="n">
-        <v>57.00979009172346</v>
+        <v>40.86324320325275</v>
       </c>
       <c r="I8" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J8" t="n">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="K8" t="n">
-        <v>199.1507962146663</v>
+        <v>323.5779234014022</v>
       </c>
       <c r="L8" t="n">
-        <v>19.44795785856515</v>
+        <v>23.3006466498749</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.8619372307867986</v>
+        <v>0.947114844960631</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4788732394366197</v>
+        <v>0.2596153846153846</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2742334446196454</v>
+        <v>0.3631419966268462</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9765574554415142</v>
+        <v>0.9648813610714762</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>447</v>
+        <v>273</v>
       </c>
       <c r="B9" t="n">
-        <v>479</v>
+        <v>307</v>
       </c>
       <c r="C9" t="n">
-        <v>555</v>
+        <v>378</v>
       </c>
       <c r="D9" t="n">
-        <v>1.738182856043722</v>
+        <v>3.195323980489086</v>
       </c>
       <c r="E9" t="n">
-        <v>1.164949861795352</v>
+        <v>2.622090986240715</v>
       </c>
       <c r="F9" t="n">
         <v>-0.5732329942483702</v>
       </c>
       <c r="G9" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H9" t="n">
-        <v>41.3884287835765</v>
+        <v>57.00979009172346</v>
       </c>
       <c r="I9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J9" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K9" t="n">
-        <v>122.0856801139282</v>
+        <v>199.1507962146663</v>
       </c>
       <c r="L9" t="n">
-        <v>10.5792423995906</v>
+        <v>19.44795785856515</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.891046180393077</v>
+        <v>0.8619372307867986</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1817625902079173</v>
+        <v>0.2742334446196454</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9783829225341015</v>
+        <v>0.9765574554415142</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>638</v>
+        <v>447</v>
       </c>
       <c r="B10" t="n">
-        <v>667</v>
+        <v>479</v>
       </c>
       <c r="C10" t="n">
-        <v>794</v>
+        <v>555</v>
       </c>
       <c r="D10" t="n">
-        <v>4.715375027610798</v>
+        <v>1.738182856043722</v>
       </c>
       <c r="E10" t="n">
-        <v>4.142142033362428</v>
+        <v>1.164949861795352</v>
       </c>
       <c r="F10" t="n">
         <v>-0.5732329942483702</v>
       </c>
       <c r="G10" t="n">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="H10" t="n">
-        <v>149.9927433503458</v>
+        <v>41.3884287835765</v>
       </c>
       <c r="I10" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J10" t="n">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="K10" t="n">
-        <v>411.2478508735887</v>
+        <v>122.0856801139282</v>
       </c>
       <c r="L10" t="n">
-        <v>28.69956704993299</v>
+        <v>10.5792423995906</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,16 +1294,16 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.8988534015825566</v>
+        <v>0.891046180393077</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2283464566929134</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="R10" t="n">
-        <v>0.421125290183767</v>
+        <v>0.1817625902079173</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9851869323261</v>
+        <v>0.9783829225341015</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1197</v>
+        <v>638</v>
       </c>
       <c r="B11" t="n">
-        <v>1222</v>
+        <v>667</v>
       </c>
       <c r="C11" t="n">
-        <v>1272</v>
+        <v>794</v>
       </c>
       <c r="D11" t="n">
-        <v>2.689016565999188</v>
+        <v>4.715375027610798</v>
       </c>
       <c r="E11" t="n">
-        <v>2.075715125424193</v>
+        <v>4.142142033362428</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6133014405749949</v>
+        <v>-0.5732329942483702</v>
       </c>
       <c r="G11" t="n">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="H11" t="n">
-        <v>55.67314858749023</v>
+        <v>149.9927433503458</v>
       </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J11" t="n">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="K11" t="n">
-        <v>107.6800589012791</v>
+        <v>411.2478508735887</v>
       </c>
       <c r="L11" t="n">
-        <v>8.598730316569192</v>
+        <v>28.69956704993299</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.8356538815518987</v>
+        <v>0.8988534015825566</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5</v>
+        <v>0.2283464566929134</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2391159153085145</v>
+        <v>0.421125290183767</v>
       </c>
       <c r="S11" t="n">
-        <v>0.981085617050098</v>
+        <v>0.9851869323261</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1970</v>
+        <v>1197</v>
       </c>
       <c r="B12" t="n">
-        <v>2045</v>
+        <v>1222</v>
       </c>
       <c r="C12" t="n">
-        <v>2150</v>
+        <v>1272</v>
       </c>
       <c r="D12" t="n">
-        <v>3.210861502612354</v>
+        <v>2.689016565999188</v>
       </c>
       <c r="E12" t="n">
-        <v>2.597560062037359</v>
+        <v>2.075715125424193</v>
       </c>
       <c r="F12" t="n">
         <v>-0.6133014405749949</v>
       </c>
       <c r="G12" t="n">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="H12" t="n">
-        <v>46.30090115239659</v>
+        <v>55.67314858749023</v>
       </c>
       <c r="I12" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="J12" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>265.8910120897075</v>
+        <v>107.6800589012791</v>
       </c>
       <c r="L12" t="n">
-        <v>10.26744591086543</v>
+        <v>8.598730316569192</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,16 +1466,16 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.685925566304047</v>
+        <v>0.8356538815518987</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.018787154734146</v>
+        <v>0.2391159153085145</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9625629997289121</v>
+        <v>0.981085617050098</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2045</v>
+      </c>
+      <c r="C13" t="n">
         <v>2150</v>
       </c>
-      <c r="B13" t="n">
-        <v>2185</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2400</v>
-      </c>
       <c r="D13" t="n">
-        <v>4.546610242626724</v>
+        <v>3.210861502612354</v>
       </c>
       <c r="E13" t="n">
-        <v>3.93330880205173</v>
+        <v>2.597560062037359</v>
       </c>
       <c r="F13" t="n">
         <v>-0.6133014405749949</v>
       </c>
       <c r="G13" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="H13" t="n">
-        <v>82.67687188480204</v>
+        <v>46.30090115239659</v>
       </c>
       <c r="I13" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="J13" t="n">
-        <v>215</v>
+        <v>105</v>
       </c>
       <c r="K13" t="n">
-        <v>506.6067619420785</v>
+        <v>265.8910120897075</v>
       </c>
       <c r="L13" t="n">
-        <v>14.53880047643791</v>
+        <v>10.26744591086543</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,16 +1552,16 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.8902182639848915</v>
+        <v>0.685925566304047</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1627906976744186</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3422112124953884</v>
+        <v>1.018787154734146</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8797946755168546</v>
+        <v>0.9625629997289121</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1582</v>
+        <v>2150</v>
       </c>
       <c r="B14" t="n">
-        <v>1607</v>
+        <v>2185</v>
       </c>
       <c r="C14" t="n">
-        <v>1680</v>
+        <v>2400</v>
       </c>
       <c r="D14" t="n">
-        <v>1.815992812352833</v>
+        <v>4.546610242626724</v>
       </c>
       <c r="E14" t="n">
-        <v>1.18541375012281</v>
+        <v>3.93330880205173</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6305790622300234</v>
+        <v>-0.6133014405749949</v>
       </c>
       <c r="G14" t="n">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="H14" t="n">
-        <v>70.07475560919488</v>
+        <v>82.67687188480204</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J14" t="n">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="K14" t="n">
-        <v>130.3688462160388</v>
+        <v>506.6067619420785</v>
       </c>
       <c r="L14" t="n">
-        <v>4.723887676706736</v>
+        <v>14.53880047643791</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.8478338376488979</v>
+        <v>0.8902182639848915</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.3424657534246575</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3483880378524588</v>
+        <v>0.3422112124953884</v>
       </c>
       <c r="S14" t="n">
-        <v>0.7246614774661164</v>
+        <v>0.8797946755168546</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2236</v>
+        <v>1582</v>
       </c>
       <c r="B15" t="n">
-        <v>2259</v>
+        <v>1607</v>
       </c>
       <c r="C15" t="n">
-        <v>2339</v>
+        <v>1680</v>
       </c>
       <c r="D15" t="n">
-        <v>2.8651077444354</v>
+        <v>1.815992812352833</v>
       </c>
       <c r="E15" t="n">
-        <v>2.234528682205376</v>
+        <v>1.18541375012281</v>
       </c>
       <c r="F15" t="n">
         <v>-0.6305790622300234</v>
       </c>
       <c r="G15" t="n">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H15" t="n">
-        <v>22.05037249979387</v>
+        <v>70.07475560919488</v>
       </c>
       <c r="I15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J15" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K15" t="n">
-        <v>219.283987771472</v>
+        <v>130.3688462160388</v>
       </c>
       <c r="L15" t="n">
-        <v>7.45291890711833</v>
+        <v>4.723887676706736</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.8553990552352064</v>
+        <v>0.8478338376488979</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2875</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1852208542718236</v>
+        <v>0.3483880378524588</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8865073093760175</v>
+        <v>0.7246614774661164</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>2236</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2259</v>
+      </c>
+      <c r="C16" t="n">
         <v>2339</v>
       </c>
-      <c r="B16" t="n">
-        <v>2374</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2426</v>
-      </c>
       <c r="D16" t="n">
-        <v>2.595273283750439</v>
+        <v>2.8651077444354</v>
       </c>
       <c r="E16" t="n">
-        <v>1.964694221520415</v>
+        <v>2.234528682205376</v>
       </c>
       <c r="F16" t="n">
         <v>-0.6305790622300234</v>
       </c>
       <c r="G16" t="n">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="H16" t="n">
-        <v>45.81237770046118</v>
+        <v>22.05037249979387</v>
       </c>
       <c r="I16" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="J16" t="n">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="K16" t="n">
-        <v>161.7896074359783</v>
+        <v>219.283987771472</v>
       </c>
       <c r="L16" t="n">
-        <v>6.751006611590567</v>
+        <v>7.45291890711833</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.6161879807159625</v>
+        <v>0.8553990552352064</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6730769230769231</v>
+        <v>0.2875</v>
       </c>
       <c r="R16" t="n">
-        <v>0.01725582435881427</v>
+        <v>0.1852208542718236</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9607667104380959</v>
+        <v>0.8865073093760175</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>590</v>
+        <v>2339</v>
       </c>
       <c r="B17" t="n">
-        <v>621</v>
+        <v>2374</v>
       </c>
       <c r="C17" t="n">
-        <v>807</v>
+        <v>2426</v>
       </c>
       <c r="D17" t="n">
-        <v>3.247292424823362</v>
+        <v>2.595273283750439</v>
       </c>
       <c r="E17" t="n">
-        <v>2.684935753216313</v>
+        <v>1.964694221520415</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5623566716070489</v>
+        <v>-0.6305790622300234</v>
       </c>
       <c r="G17" t="n">
-        <v>217</v>
+        <v>87</v>
       </c>
       <c r="H17" t="n">
-        <v>52.30270758804602</v>
+        <v>45.81237770046118</v>
       </c>
       <c r="I17" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J17" t="n">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="K17" t="n">
-        <v>307.6170464790713</v>
+        <v>161.7896074359783</v>
       </c>
       <c r="L17" t="n">
-        <v>7.058716243009972</v>
+        <v>6.751006611590567</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.8626217239780268</v>
+        <v>0.6161879807159625</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3341230402343282</v>
+        <v>0.01725582435881427</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9522082502688547</v>
+        <v>0.9607667104380959</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1894</v>
+        <v>590</v>
       </c>
       <c r="B18" t="n">
-        <v>1942</v>
+        <v>621</v>
       </c>
       <c r="C18" t="n">
-        <v>2160</v>
+        <v>807</v>
       </c>
       <c r="D18" t="n">
-        <v>2.227415607112343</v>
+        <v>3.247292424823362</v>
       </c>
       <c r="E18" t="n">
-        <v>1.548011490265897</v>
+        <v>2.684935753216313</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6794041168464454</v>
+        <v>-0.5623566716070489</v>
       </c>
       <c r="G18" t="n">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="H18" t="n">
-        <v>49.93977579896818</v>
+        <v>52.30270758804602</v>
       </c>
       <c r="I18" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J18" t="n">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="K18" t="n">
-        <v>336.7027640792594</v>
+        <v>307.6170464790713</v>
       </c>
       <c r="L18" t="n">
-        <v>4.920391532623025</v>
+        <v>7.058716243009972</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.8434885672073578</v>
+        <v>0.8626217239780268</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.2201834862385321</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3691608363826238</v>
+        <v>0.3341230402343282</v>
       </c>
       <c r="S18" t="n">
-        <v>0.871821152052037</v>
+        <v>0.9522082502688547</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2807</v>
+        <v>1894</v>
       </c>
       <c r="B19" t="n">
-        <v>2862</v>
+        <v>1942</v>
       </c>
       <c r="C19" t="n">
-        <v>2998</v>
+        <v>2160</v>
       </c>
       <c r="D19" t="n">
-        <v>2.562326394397701</v>
+        <v>2.227415607112343</v>
       </c>
       <c r="E19" t="n">
-        <v>1.882922277551255</v>
+        <v>1.548011490265897</v>
       </c>
       <c r="F19" t="n">
         <v>-0.6794041168464454</v>
       </c>
       <c r="G19" t="n">
-        <v>191</v>
+        <v>266</v>
       </c>
       <c r="H19" t="n">
-        <v>64.981141354192</v>
+        <v>49.93977579896818</v>
       </c>
       <c r="I19" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J19" t="n">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="K19" t="n">
-        <v>269.8298110381785</v>
+        <v>336.7027640792594</v>
       </c>
       <c r="L19" t="n">
-        <v>5.660214041130695</v>
+        <v>4.920391532623025</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,16 +2068,16 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.6826125965694558</v>
+        <v>0.8434885672073578</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4044117647058824</v>
+        <v>0.2201834862385321</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3563780152870211</v>
+        <v>0.3691608363826238</v>
       </c>
       <c r="S19" t="n">
-        <v>0.3232868238936533</v>
+        <v>0.871821152052037</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1320</v>
+        <v>2807</v>
       </c>
       <c r="B20" t="n">
-        <v>1349</v>
+        <v>2862</v>
       </c>
       <c r="C20" t="n">
-        <v>1394</v>
+        <v>2998</v>
       </c>
       <c r="D20" t="n">
-        <v>1.809929045877654</v>
+        <v>2.562326394397701</v>
       </c>
       <c r="E20" t="n">
-        <v>1.160802384493047</v>
+        <v>1.882922277551255</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6491266613846075</v>
+        <v>-0.6794041168464454</v>
       </c>
       <c r="G20" t="n">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="H20" t="n">
-        <v>24.94808235470487</v>
+        <v>64.981141354192</v>
       </c>
       <c r="I20" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="J20" t="n">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="K20" t="n">
-        <v>77.02703092525694</v>
+        <v>269.8298110381785</v>
       </c>
       <c r="L20" t="n">
-        <v>11.58780870602781</v>
+        <v>5.660214041130695</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.8288264798763251</v>
+        <v>0.6826125965694558</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.6444444444444445</v>
+        <v>0.4044117647058824</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2417469692565411</v>
+        <v>0.3563780152870211</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9795033804417377</v>
+        <v>0.3232868238936533</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>1320</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1349</v>
+      </c>
+      <c r="C21" t="n">
         <v>1394</v>
       </c>
-      <c r="B21" t="n">
-        <v>1444</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1526</v>
-      </c>
       <c r="D21" t="n">
-        <v>2.909198382808438</v>
+        <v>1.809929045877654</v>
       </c>
       <c r="E21" t="n">
-        <v>2.260071721423831</v>
+        <v>1.160802384493047</v>
       </c>
       <c r="F21" t="n">
         <v>-0.6491266613846075</v>
       </c>
       <c r="G21" t="n">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="H21" t="n">
-        <v>55.19661607512808</v>
+        <v>24.94808235470487</v>
       </c>
       <c r="I21" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="J21" t="n">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="K21" t="n">
-        <v>196.1518663801758</v>
+        <v>77.02703092525694</v>
       </c>
       <c r="L21" t="n">
-        <v>18.62572150253697</v>
+        <v>11.58780870602781</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,16 +2240,16 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.6762851431091532</v>
+        <v>0.8288264798763251</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.6097560975609756</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1371309436490554</v>
+        <v>0.2417469692565411</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9150206077121512</v>
+        <v>0.9795033804417377</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="U21" t="n">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,73 +2277,73 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2015</v>
+        <v>1394</v>
       </c>
       <c r="B22" t="n">
-        <v>2048</v>
+        <v>1444</v>
       </c>
       <c r="C22" t="n">
-        <v>2182</v>
+        <v>1526</v>
       </c>
       <c r="D22" t="n">
-        <v>3.733604545486791</v>
+        <v>2.909198382808438</v>
       </c>
       <c r="E22" t="n">
-        <v>3.084477884102183</v>
+        <v>2.260071721423831</v>
       </c>
       <c r="F22" t="n">
         <v>-0.6491266613846075</v>
       </c>
       <c r="G22" t="n">
+        <v>132</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55.19661607512808</v>
+      </c>
+      <c r="I22" t="n">
+        <v>50</v>
+      </c>
+      <c r="J22" t="n">
+        <v>82</v>
+      </c>
+      <c r="K22" t="n">
+        <v>196.1518663801758</v>
+      </c>
+      <c r="L22" t="n">
+        <v>18.62572150253697</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>0.6762851431091532</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.6097560975609756</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.1371309436490554</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.9150206077121512</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>n10</t>
+        </is>
+      </c>
+      <c r="U22" t="n">
         <v>167</v>
-      </c>
-      <c r="H22" t="n">
-        <v>112.03563737234</v>
-      </c>
-      <c r="I22" t="n">
-        <v>33</v>
-      </c>
-      <c r="J22" t="n">
-        <v>134</v>
-      </c>
-      <c r="K22" t="n">
-        <v>349.1294501673132</v>
-      </c>
-      <c r="L22" t="n">
-        <v>23.90386261582841</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>0.8643998312431042</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.2462686567164179</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.1867242717078934</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.8557513017941959</v>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>n10</t>
-        </is>
-      </c>
-      <c r="U22" t="n">
-        <v>158</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1787</v>
+        <v>2015</v>
       </c>
       <c r="B23" t="n">
-        <v>1810</v>
+        <v>2048</v>
       </c>
       <c r="C23" t="n">
-        <v>1869</v>
+        <v>2182</v>
       </c>
       <c r="D23" t="n">
-        <v>2.241537183223815</v>
+        <v>3.733604545486791</v>
       </c>
       <c r="E23" t="n">
-        <v>1.695207553211505</v>
+        <v>3.084477884102183</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.5463296300123097</v>
+        <v>-0.6491266613846075</v>
       </c>
       <c r="G23" t="n">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="H23" t="n">
-        <v>20.21083994129276</v>
+        <v>112.03563737234</v>
       </c>
       <c r="I23" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J23" t="n">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="K23" t="n">
-        <v>131.8957073018864</v>
+        <v>349.1294501673132</v>
       </c>
       <c r="L23" t="n">
-        <v>5.074170289003018</v>
+        <v>23.90386261582841</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.7429478988361962</v>
+        <v>0.8643998312431042</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3898305084745763</v>
+        <v>0.2462686567164179</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1611494928649987</v>
+        <v>0.1867242717078934</v>
       </c>
       <c r="S23" t="n">
-        <v>0.6315085234056768</v>
+        <v>0.8557513017941959</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
+        <v>1787</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1810</v>
+      </c>
+      <c r="C24" t="n">
         <v>1869</v>
       </c>
-      <c r="B24" t="n">
-        <v>1904</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1960</v>
-      </c>
       <c r="D24" t="n">
-        <v>1.858980462313099</v>
+        <v>2.241537183223815</v>
       </c>
       <c r="E24" t="n">
-        <v>1.312650832300789</v>
+        <v>1.695207553211505</v>
       </c>
       <c r="F24" t="n">
         <v>-0.5463296300123097</v>
       </c>
       <c r="G24" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H24" t="n">
-        <v>40.32311084691264</v>
+        <v>20.21083994129276</v>
       </c>
       <c r="I24" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="J24" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K24" t="n">
-        <v>114.9673607746518</v>
+        <v>131.8957073018864</v>
       </c>
       <c r="L24" t="n">
-        <v>4.208176201717001</v>
+        <v>5.074170289003018</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,16 +2498,16 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.7355357932055836</v>
+        <v>0.7429478988361962</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.625</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2486129946065714</v>
+        <v>0.1611494928649987</v>
       </c>
       <c r="S24" t="n">
-        <v>0.7020553509476142</v>
+        <v>0.6315085234056768</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="U24" t="n">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
+        <v>1869</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1904</v>
+      </c>
+      <c r="C25" t="n">
         <v>1960</v>
       </c>
-      <c r="B25" t="n">
-        <v>2044</v>
-      </c>
-      <c r="C25" t="n">
-        <v>2202</v>
-      </c>
       <c r="D25" t="n">
-        <v>2.523466632262191</v>
+        <v>1.858980462313099</v>
       </c>
       <c r="E25" t="n">
-        <v>1.977137002249881</v>
+        <v>1.312650832300789</v>
       </c>
       <c r="F25" t="n">
         <v>-0.5463296300123097</v>
       </c>
       <c r="G25" t="n">
-        <v>242</v>
+        <v>91</v>
       </c>
       <c r="H25" t="n">
-        <v>39.54466700506441</v>
+        <v>40.32311084691264</v>
       </c>
       <c r="I25" t="n">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="J25" t="n">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="K25" t="n">
-        <v>277.7743097977595</v>
+        <v>114.9673607746518</v>
       </c>
       <c r="L25" t="n">
-        <v>5.712374305698412</v>
+        <v>4.208176201717001</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,16 +2584,16 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.4609399371047785</v>
+        <v>0.7355357932055836</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.5316455696202531</v>
+        <v>0.625</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4113869031201884</v>
+        <v>0.2486129946065714</v>
       </c>
       <c r="S25" t="n">
-        <v>0.3149988720549757</v>
+        <v>0.7020553509476142</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1137</v>
+        <v>1960</v>
       </c>
       <c r="B26" t="n">
-        <v>1182</v>
+        <v>2044</v>
       </c>
       <c r="C26" t="n">
-        <v>1320</v>
+        <v>2202</v>
       </c>
       <c r="D26" t="n">
-        <v>2.001194210208953</v>
+        <v>2.523466632262191</v>
       </c>
       <c r="E26" t="n">
-        <v>1.255037092990103</v>
+        <v>1.977137002249881</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.7461571172188506</v>
+        <v>-0.5463296300123097</v>
       </c>
       <c r="G26" t="n">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="H26" t="n">
-        <v>66.10905426372233</v>
+        <v>39.54466700506441</v>
       </c>
       <c r="I26" t="n">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="J26" t="n">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="K26" t="n">
-        <v>153.2996720502193</v>
+        <v>277.7743097977595</v>
       </c>
       <c r="L26" t="n">
-        <v>6.051404709845292</v>
+        <v>5.712374305698412</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.9383320374380217</v>
+        <v>0.4609399371047785</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3260869565217391</v>
+        <v>0.5316455696202531</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2480322703317155</v>
+        <v>0.4113869031201884</v>
       </c>
       <c r="S26" t="n">
-        <v>0.8794095829667835</v>
+        <v>0.3149988720549757</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1789</v>
+        <v>1137</v>
       </c>
       <c r="B27" t="n">
-        <v>1845</v>
+        <v>1182</v>
       </c>
       <c r="C27" t="n">
-        <v>1939</v>
+        <v>1320</v>
       </c>
       <c r="D27" t="n">
-        <v>3.318363060353713</v>
+        <v>2.001194210208953</v>
       </c>
       <c r="E27" t="n">
-        <v>2.572205943134863</v>
+        <v>1.255037092990103</v>
       </c>
       <c r="F27" t="n">
         <v>-0.7461571172188506</v>
       </c>
       <c r="G27" t="n">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="H27" t="n">
-        <v>86.46519065885354</v>
+        <v>66.10905426372233</v>
       </c>
       <c r="I27" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J27" t="n">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="K27" t="n">
-        <v>269.8701495735166</v>
+        <v>153.2996720502193</v>
       </c>
       <c r="L27" t="n">
-        <v>10.03438734229816</v>
+        <v>6.051404709845292</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,16 +2756,16 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.8225574206901933</v>
+        <v>0.9383320374380217</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.5957446808510638</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2761035282700452</v>
+        <v>0.2480322703317155</v>
       </c>
       <c r="S27" t="n">
-        <v>0.9968498456962223</v>
+        <v>0.8794095829667835</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="U27" t="n">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
+        <v>1789</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1845</v>
+      </c>
+      <c r="C28" t="n">
         <v>1939</v>
       </c>
-      <c r="B28" t="n">
-        <v>2004</v>
-      </c>
-      <c r="C28" t="n">
-        <v>2196</v>
-      </c>
       <c r="D28" t="n">
-        <v>2.599076840563874</v>
+        <v>3.318363060353713</v>
       </c>
       <c r="E28" t="n">
-        <v>1.852919723345023</v>
+        <v>2.572205943134863</v>
       </c>
       <c r="F28" t="n">
         <v>-0.7461571172188506</v>
       </c>
       <c r="G28" t="n">
-        <v>257</v>
+        <v>150</v>
       </c>
       <c r="H28" t="n">
-        <v>160.5765450399738</v>
+        <v>86.46519065885354</v>
       </c>
       <c r="I28" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="J28" t="n">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="K28" t="n">
-        <v>423.3169811326705</v>
+        <v>269.8701495735166</v>
       </c>
       <c r="L28" t="n">
-        <v>7.859340065048364</v>
+        <v>10.03438734229816</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,16 +2842,16 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.7408532168230728</v>
+        <v>0.8225574206901933</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.3385416666666667</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1201943296806292</v>
+        <v>0.2761035282700452</v>
       </c>
       <c r="S28" t="n">
-        <v>0.8452828006255286</v>
+        <v>0.9968498456962223</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="U28" t="n">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
+        <v>1939</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C29" t="n">
         <v>2196</v>
       </c>
-      <c r="B29" t="n">
-        <v>2243</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2400</v>
-      </c>
       <c r="D29" t="n">
-        <v>2.361300261307825</v>
+        <v>2.599076840563874</v>
       </c>
       <c r="E29" t="n">
-        <v>1.615143144088975</v>
+        <v>1.852919723345023</v>
       </c>
       <c r="F29" t="n">
         <v>-0.7461571172188506</v>
       </c>
       <c r="G29" t="n">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="H29" t="n">
-        <v>114.3956574769386</v>
+        <v>160.5765450399738</v>
       </c>
       <c r="I29" t="n">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="J29" t="n">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="K29" t="n">
-        <v>281.5624864044536</v>
+        <v>423.3169811326705</v>
       </c>
       <c r="L29" t="n">
-        <v>7.140328234881858</v>
+        <v>7.859340065048364</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.8244747853139185</v>
+        <v>0.7408532168230728</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.2993630573248408</v>
+        <v>0.3385416666666667</v>
       </c>
       <c r="R29" t="n">
-        <v>0.3528236970688765</v>
+        <v>0.1201943296806292</v>
       </c>
       <c r="S29" t="n">
-        <v>0.8431954565985972</v>
+        <v>0.8452828006255286</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="U29" t="n">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2938</v>
+        <v>2196</v>
       </c>
       <c r="B30" t="n">
-        <v>2963</v>
+        <v>2243</v>
       </c>
       <c r="C30" t="n">
-        <v>2998</v>
+        <v>2400</v>
       </c>
       <c r="D30" t="n">
-        <v>2.432916496716166</v>
+        <v>2.361300261307825</v>
       </c>
       <c r="E30" t="n">
-        <v>1.686759379497315</v>
+        <v>1.615143144088975</v>
       </c>
       <c r="F30" t="n">
         <v>-0.7461571172188506</v>
       </c>
       <c r="G30" t="n">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="H30" t="n">
-        <v>20.78592360638868</v>
+        <v>114.3956574769386</v>
       </c>
       <c r="I30" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="J30" t="n">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="K30" t="n">
-        <v>101.1921572735538</v>
+        <v>281.5624864044536</v>
       </c>
       <c r="L30" t="n">
-        <v>7.356888337864653</v>
+        <v>7.140328234881858</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,16 +3014,16 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.7856428616940349</v>
+        <v>0.8244747853139185</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2993630573248408</v>
       </c>
       <c r="R30" t="n">
-        <v>0.4056000001320414</v>
+        <v>0.3528236970688765</v>
       </c>
       <c r="S30" t="n">
-        <v>0.843285197928501</v>
+        <v>0.8431954565985972</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="U30" t="n">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>2938</v>
       </c>
       <c r="B31" t="n">
-        <v>20</v>
+        <v>2963</v>
       </c>
       <c r="C31" t="n">
-        <v>55</v>
+        <v>2998</v>
       </c>
       <c r="D31" t="n">
-        <v>2.891728283950855</v>
+        <v>2.432916496716166</v>
       </c>
       <c r="E31" t="n">
-        <v>2.322501349024892</v>
+        <v>1.686759379497315</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.5692269349259637</v>
+        <v>-0.7461571172188506</v>
       </c>
       <c r="G31" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H31" t="n">
-        <v>29.40818049466722</v>
+        <v>20.78592360638868</v>
       </c>
       <c r="I31" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J31" t="n">
         <v>35</v>
       </c>
       <c r="K31" t="n">
-        <v>122.8814595675262</v>
+        <v>101.1921572735538</v>
       </c>
       <c r="L31" t="n">
-        <v>7.919548477689192</v>
+        <v>7.356888337864653</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.7252836199069066</v>
+        <v>0.7856428616940349</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1049635512760689</v>
+        <v>0.4056000001320414</v>
       </c>
       <c r="S31" t="n">
-        <v>0.9694640782535929</v>
+        <v>0.843285197928501</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1326</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>1351</v>
+        <v>20</v>
       </c>
       <c r="C32" t="n">
-        <v>1392</v>
+        <v>55</v>
       </c>
       <c r="D32" t="n">
-        <v>2.827823367020292</v>
+        <v>2.891728283950855</v>
       </c>
       <c r="E32" t="n">
-        <v>2.258596432094328</v>
+        <v>2.322501349024892</v>
       </c>
       <c r="F32" t="n">
         <v>-0.5692269349259637</v>
       </c>
       <c r="G32" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H32" t="n">
-        <v>53.34696337383821</v>
+        <v>29.40818049466722</v>
       </c>
       <c r="I32" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J32" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K32" t="n">
-        <v>114.8750094204438</v>
+        <v>122.8814595675262</v>
       </c>
       <c r="L32" t="n">
-        <v>7.744532695465408</v>
+        <v>7.919548477689192</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.7813976621857102</v>
+        <v>0.7252836199069066</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.6097560975609756</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="R32" t="n">
-        <v>0.2007220961727627</v>
+        <v>0.1049635512760689</v>
       </c>
       <c r="S32" t="n">
-        <v>0.9925750313005163</v>
+        <v>0.9694640782535929</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="U32" t="n">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1741</v>
+        <v>1326</v>
       </c>
       <c r="B33" t="n">
-        <v>1768</v>
+        <v>1351</v>
       </c>
       <c r="C33" t="n">
-        <v>1846</v>
+        <v>1392</v>
       </c>
       <c r="D33" t="n">
-        <v>2.828859786012727</v>
+        <v>2.827823367020292</v>
       </c>
       <c r="E33" t="n">
-        <v>2.259632851086763</v>
+        <v>2.258596432094328</v>
       </c>
       <c r="F33" t="n">
         <v>-0.5692269349259637</v>
       </c>
       <c r="G33" t="n">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="H33" t="n">
-        <v>86.02724589994114</v>
+        <v>53.34696337383821</v>
       </c>
       <c r="I33" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J33" t="n">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="K33" t="n">
-        <v>182.8838434537313</v>
+        <v>114.8750094204438</v>
       </c>
       <c r="L33" t="n">
-        <v>7.747371126205717</v>
+        <v>7.744532695465408</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,16 +3272,16 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.8453825627811563</v>
+        <v>0.7813976621857102</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1766140294803746</v>
+        <v>0.2007220961727627</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9286443257664144</v>
+        <v>0.9925750313005163</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="U33" t="n">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1906</v>
+        <v>1741</v>
       </c>
       <c r="B34" t="n">
-        <v>1934</v>
+        <v>1768</v>
       </c>
       <c r="C34" t="n">
-        <v>1993</v>
+        <v>1846</v>
       </c>
       <c r="D34" t="n">
-        <v>2.576434889574141</v>
+        <v>2.828859786012727</v>
       </c>
       <c r="E34" t="n">
-        <v>2.007207954648177</v>
+        <v>2.259632851086763</v>
       </c>
       <c r="F34" t="n">
         <v>-0.5692269349259637</v>
       </c>
       <c r="G34" t="n">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="H34" t="n">
-        <v>43.60675546917059</v>
+        <v>86.02724589994114</v>
       </c>
       <c r="I34" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J34" t="n">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="K34" t="n">
-        <v>146.6639737647567</v>
+        <v>182.8838434537313</v>
       </c>
       <c r="L34" t="n">
-        <v>7.056057486741025</v>
+        <v>7.747371126205717</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,16 +3358,16 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.8712086197434273</v>
+        <v>0.8453825627811563</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.4745762711864407</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="R34" t="n">
-        <v>0.223542494154397</v>
+        <v>0.1766140294803746</v>
       </c>
       <c r="S34" t="n">
-        <v>0.9790958350206798</v>
+        <v>0.9286443257664144</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="U34" t="n">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>193</v>
+        <v>1906</v>
       </c>
       <c r="B35" t="n">
-        <v>220</v>
+        <v>1934</v>
       </c>
       <c r="C35" t="n">
-        <v>289</v>
+        <v>1993</v>
       </c>
       <c r="D35" t="n">
-        <v>1.974631887458156</v>
+        <v>2.576434889574141</v>
       </c>
       <c r="E35" t="n">
-        <v>1.36809781057153</v>
+        <v>2.007207954648177</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.6065340768866264</v>
+        <v>-0.5692269349259637</v>
       </c>
       <c r="G35" t="n">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H35" t="n">
-        <v>33.12856372715169</v>
+        <v>43.60675546917059</v>
       </c>
       <c r="I35" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J35" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K35" t="n">
-        <v>114.1110621321943</v>
+        <v>146.6639737647567</v>
       </c>
       <c r="L35" t="n">
-        <v>3.919451776135366</v>
+        <v>7.056057486741025</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.9175202748932121</v>
+        <v>0.8712086197434273</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.391304347826087</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2305741156099145</v>
+        <v>0.223542494154397</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9608424113022735</v>
+        <v>0.9790958350206798</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2024</v>
+        <v>193</v>
       </c>
       <c r="B36" t="n">
-        <v>2103</v>
+        <v>220</v>
       </c>
       <c r="C36" t="n">
-        <v>2212</v>
+        <v>289</v>
       </c>
       <c r="D36" t="n">
-        <v>2.786380815143823</v>
+        <v>1.974631887458156</v>
       </c>
       <c r="E36" t="n">
-        <v>2.179846738257197</v>
+        <v>1.36809781057153</v>
       </c>
       <c r="F36" t="n">
         <v>-0.6065340768866264</v>
       </c>
       <c r="G36" t="n">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="H36" t="n">
-        <v>157.1082512491066</v>
+        <v>33.12856372715169</v>
       </c>
       <c r="I36" t="n">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="J36" t="n">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="K36" t="n">
-        <v>342.7381951358182</v>
+        <v>114.1110621321943</v>
       </c>
       <c r="L36" t="n">
-        <v>5.530694254595031</v>
+        <v>3.919451776135366</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,16 +3530,16 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.4951213227554656</v>
+        <v>0.9175202748932121</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.7247706422018348</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1160796776431084</v>
+        <v>0.2305741156099145</v>
       </c>
       <c r="S36" t="n">
-        <v>0.886578962903055</v>
+        <v>0.9608424113022735</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="U36" t="n">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>2024</v>
       </c>
       <c r="B37" t="n">
-        <v>27</v>
+        <v>2103</v>
       </c>
       <c r="C37" t="n">
-        <v>139</v>
+        <v>2212</v>
       </c>
       <c r="D37" t="n">
-        <v>2.092089842215031</v>
+        <v>2.786380815143823</v>
       </c>
       <c r="E37" t="n">
-        <v>1.446159115203799</v>
+        <v>2.179846738257197</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.6459307270112319</v>
+        <v>-0.6065340768866264</v>
       </c>
       <c r="G37" t="n">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="H37" t="n">
-        <v>68.83303437072402</v>
+        <v>157.1082512491066</v>
       </c>
       <c r="I37" t="n">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="J37" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K37" t="n">
-        <v>162.2816226556648</v>
+        <v>342.7381951358182</v>
       </c>
       <c r="L37" t="n">
-        <v>4.699154962860945</v>
+        <v>5.530694254595031</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.8875918864445802</v>
+        <v>0.4951213227554656</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1964285714285714</v>
+        <v>0.7247706422018348</v>
       </c>
       <c r="R37" t="n">
-        <v>0.2164257444244801</v>
+        <v>0.1160796776431084</v>
       </c>
       <c r="S37" t="n">
-        <v>0.8643800067219541</v>
+        <v>0.886578962903055</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" t="n">
+        <v>27</v>
+      </c>
+      <c r="C38" t="n">
         <v>139</v>
       </c>
-      <c r="B38" t="n">
-        <v>171</v>
-      </c>
-      <c r="C38" t="n">
-        <v>349</v>
-      </c>
       <c r="D38" t="n">
-        <v>3.293885531788635</v>
+        <v>2.092089842215031</v>
       </c>
       <c r="E38" t="n">
-        <v>2.647954804777403</v>
+        <v>1.446159115203799</v>
       </c>
       <c r="F38" t="n">
         <v>-0.6459307270112319</v>
       </c>
       <c r="G38" t="n">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="H38" t="n">
-        <v>307.8406637063927</v>
+        <v>68.83303437072402</v>
       </c>
       <c r="I38" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J38" t="n">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="K38" t="n">
-        <v>373.6070823265669</v>
+        <v>162.2816226556648</v>
       </c>
       <c r="L38" t="n">
-        <v>7.398572581095446</v>
+        <v>4.699154962860945</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,16 +3702,16 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.7929329565169788</v>
+        <v>0.8875918864445802</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.1797752808988764</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="R38" t="n">
-        <v>0.3863756684241806</v>
+        <v>0.2164257444244801</v>
       </c>
       <c r="S38" t="n">
-        <v>0.654369159980517</v>
+        <v>0.8643800067219541</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         </is>
       </c>
       <c r="U38" t="n">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>349</v>
+        <v>139</v>
       </c>
       <c r="B39" t="n">
-        <v>410</v>
+        <v>171</v>
       </c>
       <c r="C39" t="n">
-        <v>526</v>
+        <v>297</v>
       </c>
       <c r="D39" t="n">
-        <v>2.296123409566214</v>
+        <v>3.293885531788635</v>
       </c>
       <c r="E39" t="n">
-        <v>1.650192682554982</v>
+        <v>2.647954804777403</v>
       </c>
       <c r="F39" t="n">
         <v>-0.6459307270112319</v>
       </c>
       <c r="G39" t="n">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H39" t="n">
-        <v>32.86469757933071</v>
+        <v>307.8406637063927</v>
       </c>
       <c r="I39" t="n">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="J39" t="n">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K39" t="n">
-        <v>194.0601547846635</v>
+        <v>295.9535844824479</v>
       </c>
       <c r="L39" t="n">
-        <v>5.157445678327259</v>
+        <v>7.398572581095446</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,16 +3788,16 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.689156196889951</v>
+        <v>0.8861091995835555</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.5258620689655172</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="R39" t="n">
-        <v>0.3987664463786798</v>
+        <v>0.3465244616651717</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9309512979083616</v>
+        <v>0.9296347432178418</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="U39" t="n">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1136</v>
+        <v>349</v>
       </c>
       <c r="B40" t="n">
-        <v>1181</v>
+        <v>410</v>
       </c>
       <c r="C40" t="n">
-        <v>1376</v>
+        <v>526</v>
       </c>
       <c r="D40" t="n">
-        <v>1.886754768196675</v>
+        <v>2.296123409566214</v>
       </c>
       <c r="E40" t="n">
-        <v>1.240824041185443</v>
+        <v>1.650192682554982</v>
       </c>
       <c r="F40" t="n">
         <v>-0.6459307270112319</v>
       </c>
       <c r="G40" t="n">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="H40" t="n">
-        <v>69.34374255752891</v>
+        <v>32.86469757933071</v>
       </c>
       <c r="I40" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="J40" t="n">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="K40" t="n">
-        <v>180.0641948619172</v>
+        <v>194.0601547846635</v>
       </c>
       <c r="L40" t="n">
-        <v>4.237940863613096</v>
+        <v>5.157445678327259</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,16 +3874,16 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.8888294977486075</v>
+        <v>0.689156196889951</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.5258620689655172</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4394177115449524</v>
+        <v>0.3987664463786798</v>
       </c>
       <c r="S40" t="n">
-        <v>0.8207355971216914</v>
+        <v>0.9309512979083616</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="U40" t="n">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
+        <v>1136</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1181</v>
+      </c>
+      <c r="C41" t="n">
         <v>1376</v>
       </c>
-      <c r="B41" t="n">
-        <v>1415</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1545</v>
-      </c>
       <c r="D41" t="n">
-        <v>2.997623114732833</v>
+        <v>1.886754768196675</v>
       </c>
       <c r="E41" t="n">
-        <v>2.351692387721601</v>
+        <v>1.240824041185443</v>
       </c>
       <c r="F41" t="n">
         <v>-0.6459307270112319</v>
       </c>
       <c r="G41" t="n">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c r="H41" t="n">
-        <v>143.487641405974</v>
+        <v>69.34374255752891</v>
       </c>
       <c r="I41" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J41" t="n">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="K41" t="n">
-        <v>310.7952128614068</v>
+        <v>180.0641948619172</v>
       </c>
       <c r="L41" t="n">
-        <v>6.733121710236595</v>
+        <v>4.237940863613096</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,16 +3960,16 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.86399227532485</v>
+        <v>0.8888294977486075</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.3</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="R41" t="n">
-        <v>0.4436081184461283</v>
+        <v>0.4394177115449524</v>
       </c>
       <c r="S41" t="n">
-        <v>0.7323986191687002</v>
+        <v>0.8207355971216914</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="U41" t="n">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
+        <v>1376</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1415</v>
+      </c>
+      <c r="C42" t="n">
         <v>1545</v>
       </c>
-      <c r="B42" t="n">
-        <v>1572</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1629</v>
-      </c>
       <c r="D42" t="n">
-        <v>2.049263477966437</v>
+        <v>2.997623114732833</v>
       </c>
       <c r="E42" t="n">
-        <v>1.403332750955206</v>
+        <v>2.351692387721601</v>
       </c>
       <c r="F42" t="n">
         <v>-0.6459307270112319</v>
       </c>
       <c r="G42" t="n">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="H42" t="n">
-        <v>25.17726879928432</v>
+        <v>143.487641405974</v>
       </c>
       <c r="I42" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J42" t="n">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="K42" t="n">
-        <v>104.0419469039771</v>
+        <v>310.7952128614068</v>
       </c>
       <c r="L42" t="n">
-        <v>4.602960374063078</v>
+        <v>6.733121710236595</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,16 +4046,16 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.8658654418719685</v>
+        <v>0.86399227532485</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.3</v>
       </c>
       <c r="R42" t="n">
-        <v>0.292428708411697</v>
+        <v>0.4436081184461283</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9810461988011364</v>
+        <v>0.7323986191687002</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="U42" t="n">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>387</v>
+        <v>1545</v>
       </c>
       <c r="B43" t="n">
-        <v>458</v>
+        <v>1572</v>
       </c>
       <c r="C43" t="n">
-        <v>571</v>
+        <v>1629</v>
       </c>
       <c r="D43" t="n">
-        <v>2.892616124975802</v>
+        <v>2.049263477966437</v>
       </c>
       <c r="E43" t="n">
-        <v>2.179101176996527</v>
+        <v>1.403332750955206</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.7135149479792748</v>
+        <v>-0.6459307270112319</v>
       </c>
       <c r="G43" t="n">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="H43" t="n">
-        <v>137.5680071506272</v>
+        <v>25.17726879928432</v>
       </c>
       <c r="I43" t="n">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="J43" t="n">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="K43" t="n">
-        <v>360.0307552744609</v>
+        <v>104.0419469039771</v>
       </c>
       <c r="L43" t="n">
-        <v>8.38621072834327</v>
+        <v>4.602960374063078</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,24 +4132,24 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.6243605988572978</v>
+        <v>0.8658654418719685</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.6283185840707964</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1841356627640064</v>
+        <v>0.292428708411697</v>
       </c>
       <c r="S43" t="n">
-        <v>0.6171178810088349</v>
+        <v>0.9810461988011364</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
+        <v>492</v>
+      </c>
+      <c r="B44" t="n">
+        <v>525</v>
+      </c>
+      <c r="C44" t="n">
         <v>571</v>
       </c>
-      <c r="B44" t="n">
-        <v>606</v>
-      </c>
-      <c r="C44" t="n">
-        <v>707</v>
-      </c>
       <c r="D44" t="n">
-        <v>2.66821363543196</v>
+        <v>2.256316427976777</v>
       </c>
       <c r="E44" t="n">
-        <v>1.954698687452685</v>
+        <v>1.542801479997502</v>
       </c>
       <c r="F44" t="n">
         <v>-0.7135149479792748</v>
       </c>
       <c r="G44" t="n">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="H44" t="n">
-        <v>45.26747462827677</v>
+        <v>29.18929746803218</v>
       </c>
       <c r="I44" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J44" t="n">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="K44" t="n">
-        <v>200.2011411498048</v>
+        <v>138.4160908803842</v>
       </c>
       <c r="L44" t="n">
-        <v>7.735627835912202</v>
+        <v>6.541464272240516</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,16 +4218,16 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.8898191638672549</v>
+        <v>0.8243632358985237</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.3465346534653465</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="R44" t="n">
-        <v>0.1665846686029746</v>
+        <v>0.2475260700174747</v>
       </c>
       <c r="S44" t="n">
-        <v>0.9866470127946851</v>
+        <v>0.9743461375189305</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         </is>
       </c>
       <c r="U44" t="n">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>888</v>
+        <v>571</v>
       </c>
       <c r="B45" t="n">
-        <v>922</v>
+        <v>606</v>
       </c>
       <c r="C45" t="n">
-        <v>983</v>
+        <v>707</v>
       </c>
       <c r="D45" t="n">
-        <v>2.349032596046804</v>
+        <v>2.66821363543196</v>
       </c>
       <c r="E45" t="n">
-        <v>1.635517648067529</v>
+        <v>1.954698687452685</v>
       </c>
       <c r="F45" t="n">
         <v>-0.7135149479792748</v>
       </c>
       <c r="G45" t="n">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="H45" t="n">
-        <v>71.12851339021915</v>
+        <v>45.26747462827677</v>
       </c>
       <c r="I45" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J45" t="n">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="K45" t="n">
-        <v>169.1193893290219</v>
+        <v>200.2011411498048</v>
       </c>
       <c r="L45" t="n">
-        <v>6.810265001326627</v>
+        <v>7.735627835912202</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.7114211135852397</v>
+        <v>0.8898191638672549</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.5573770491803278</v>
+        <v>0.3465346534653465</v>
       </c>
       <c r="R45" t="n">
-        <v>0.4631712074964131</v>
+        <v>0.1665846686029746</v>
       </c>
       <c r="S45" t="n">
-        <v>0.5070736414576302</v>
+        <v>0.9866470127946851</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="U45" t="n">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
+        <v>888</v>
+      </c>
+      <c r="B46" t="n">
+        <v>922</v>
+      </c>
+      <c r="C46" t="n">
         <v>983</v>
       </c>
-      <c r="B46" t="n">
-        <v>1009</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1157</v>
-      </c>
       <c r="D46" t="n">
-        <v>2.319834811321792</v>
+        <v>2.349032596046804</v>
       </c>
       <c r="E46" t="n">
-        <v>1.606319863342517</v>
+        <v>1.635517648067529</v>
       </c>
       <c r="F46" t="n">
         <v>-0.7135149479792748</v>
       </c>
       <c r="G46" t="n">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="H46" t="n">
-        <v>35.54525467743872</v>
+        <v>71.12851339021915</v>
       </c>
       <c r="I46" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J46" t="n">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="K46" t="n">
-        <v>180.115563711992</v>
+        <v>169.1193893290219</v>
       </c>
       <c r="L46" t="n">
-        <v>6.72561540908016</v>
+        <v>6.810265001326627</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,16 +4390,16 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.7834026399782485</v>
+        <v>0.7114211135852397</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.1756756756756757</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4805415522570294</v>
+        <v>0.4631712074964131</v>
       </c>
       <c r="S46" t="n">
-        <v>0.6584990482591813</v>
+        <v>0.5070736414576302</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="U46" t="n">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2579</v>
+        <v>983</v>
       </c>
       <c r="B47" t="n">
-        <v>2615</v>
+        <v>1009</v>
       </c>
       <c r="C47" t="n">
-        <v>2660</v>
+        <v>1157</v>
       </c>
       <c r="D47" t="n">
-        <v>2.493989849310055</v>
+        <v>2.319834811321792</v>
       </c>
       <c r="E47" t="n">
-        <v>1.780474901330781</v>
+        <v>1.606319863342517</v>
       </c>
       <c r="F47" t="n">
         <v>-0.7135149479792748</v>
       </c>
       <c r="G47" t="n">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="H47" t="n">
-        <v>119.8257484672981</v>
+        <v>35.54525467743872</v>
       </c>
       <c r="I47" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J47" t="n">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="K47" t="n">
-        <v>126.9732893297956</v>
+        <v>180.115563711992</v>
       </c>
       <c r="L47" t="n">
-        <v>7.230521965937726</v>
+        <v>6.72561540908016</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,16 +4476,16 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.7280252708969257</v>
+        <v>0.7834026399782485</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.8</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="R47" t="n">
-        <v>0.3020988120379768</v>
+        <v>0.4805415522570294</v>
       </c>
       <c r="S47" t="n">
-        <v>0.9517354304618831</v>
+        <v>0.6584990482591813</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="U47" t="n">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>2579</v>
       </c>
       <c r="B48" t="n">
-        <v>15</v>
+        <v>2615</v>
       </c>
       <c r="C48" t="n">
-        <v>49</v>
+        <v>2660</v>
       </c>
       <c r="D48" t="n">
-        <v>2.041798136093132</v>
+        <v>2.493989849310055</v>
       </c>
       <c r="E48" t="n">
-        <v>1.53467823755583</v>
+        <v>1.780474901330781</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.5071198985373019</v>
+        <v>-0.7135149479792748</v>
       </c>
       <c r="G48" t="n">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H48" t="n">
-        <v>22.02347249573952</v>
+        <v>119.8257484672981</v>
       </c>
       <c r="I48" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="J48" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="K48" t="n">
-        <v>58.15044333056589</v>
+        <v>126.9732893297956</v>
       </c>
       <c r="L48" t="n">
-        <v>4.010549098509739</v>
+        <v>7.230521965937726</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,24 +4562,24 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.900889490924778</v>
+        <v>0.7280252708969257</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.8</v>
       </c>
       <c r="R48" t="n">
-        <v>0.2523609984068655</v>
+        <v>0.3020988120379768</v>
       </c>
       <c r="S48" t="n">
-        <v>0.9563929615641152</v>
+        <v>0.9517354304618831</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4599,40 +4599,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1065</v>
+        <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>1154</v>
+        <v>15</v>
       </c>
       <c r="C49" t="n">
-        <v>1440</v>
+        <v>49</v>
       </c>
       <c r="D49" t="n">
-        <v>6.036912916561262</v>
+        <v>2.041798136093132</v>
       </c>
       <c r="E49" t="n">
-        <v>5.503812019566688</v>
+        <v>1.53467823755583</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.5331008969945745</v>
+        <v>-0.5071198985373019</v>
       </c>
       <c r="G49" t="n">
-        <v>375</v>
+        <v>48</v>
       </c>
       <c r="H49" t="n">
-        <v>73.31093120732226</v>
+        <v>22.02347249573952</v>
       </c>
       <c r="I49" t="n">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="J49" t="n">
-        <v>286</v>
+        <v>34</v>
       </c>
       <c r="K49" t="n">
-        <v>671.1372973900382</v>
+        <v>58.15044333056589</v>
       </c>
       <c r="L49" t="n">
-        <v>24.73056370149543</v>
+        <v>4.010549098509739</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4648,24 +4648,24 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.7532563396646881</v>
+        <v>0.900889490924778</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.3111888111888112</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="R49" t="n">
-        <v>0.5826280032681724</v>
+        <v>0.2523609984068655</v>
       </c>
       <c r="S49" t="n">
-        <v>0.9339637848523348</v>
+        <v>0.9563929615641152</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U49" t="n">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4685,40 +4685,40 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1470</v>
+        <v>1065</v>
       </c>
       <c r="B50" t="n">
-        <v>1521</v>
+        <v>1154</v>
       </c>
       <c r="C50" t="n">
-        <v>1611</v>
+        <v>1440</v>
       </c>
       <c r="D50" t="n">
-        <v>1.342643232579405</v>
+        <v>6.036912916561262</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8069163229699523</v>
+        <v>5.503812019566688</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.5357269096094525</v>
+        <v>-0.5331008969945745</v>
       </c>
       <c r="G50" t="n">
-        <v>141</v>
+        <v>375</v>
       </c>
       <c r="H50" t="n">
-        <v>53.22577625569829</v>
+        <v>73.31093120732226</v>
       </c>
       <c r="I50" t="n">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="J50" t="n">
-        <v>90</v>
+        <v>286</v>
       </c>
       <c r="K50" t="n">
-        <v>78.22308071122318</v>
+        <v>671.1372973900382</v>
       </c>
       <c r="L50" t="n">
-        <v>9.44134016360986</v>
+        <v>24.73056370149543</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -4734,24 +4734,24 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.814627524639612</v>
+        <v>0.7532563396646881</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.3111888111888112</v>
       </c>
       <c r="R50" t="n">
-        <v>0.274277521276296</v>
+        <v>0.5826280032681724</v>
       </c>
       <c r="S50" t="n">
-        <v>0.7270886751001859</v>
+        <v>0.9339637848523348</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U50" t="n">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -4771,40 +4771,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2720</v>
+        <v>1470</v>
       </c>
       <c r="B51" t="n">
-        <v>2739</v>
+        <v>1521</v>
       </c>
       <c r="C51" t="n">
-        <v>2778</v>
+        <v>1611</v>
       </c>
       <c r="D51" t="n">
-        <v>2.956154658306604</v>
+        <v>1.342643232579405</v>
       </c>
       <c r="E51" t="n">
-        <v>2.414938772092951</v>
+        <v>0.8069163229699523</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.5412158862136522</v>
+        <v>-0.5357269096094525</v>
       </c>
       <c r="G51" t="n">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="H51" t="n">
-        <v>17.26342268945382</v>
+        <v>53.22577625569829</v>
       </c>
       <c r="I51" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="J51" t="n">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="K51" t="n">
-        <v>151.0089392500991</v>
+        <v>78.22308071122318</v>
       </c>
       <c r="L51" t="n">
-        <v>26.00836531097489</v>
+        <v>9.44134016360986</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -4820,24 +4820,24 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.7865134593833241</v>
+        <v>0.814627524639612</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.4871794871794872</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1382884699908689</v>
+        <v>0.274277521276296</v>
       </c>
       <c r="S51" t="n">
-        <v>0.9857623303805113</v>
+        <v>0.7270886751001859</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U51" t="n">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4857,40 +4857,40 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
+        <v>2720</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2739</v>
+      </c>
+      <c r="C52" t="n">
         <v>2778</v>
       </c>
-      <c r="B52" t="n">
-        <v>2807</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2885</v>
-      </c>
       <c r="D52" t="n">
-        <v>3.15197580368057</v>
+        <v>2.956154658306604</v>
       </c>
       <c r="E52" t="n">
-        <v>2.610759917466918</v>
+        <v>2.414938772092951</v>
       </c>
       <c r="F52" t="n">
         <v>-0.5412158862136522</v>
       </c>
       <c r="G52" t="n">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="H52" t="n">
-        <v>28.73267585776148</v>
+        <v>17.26342268945382</v>
       </c>
       <c r="I52" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J52" t="n">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="K52" t="n">
-        <v>229.7911013012554</v>
+        <v>151.0089392500991</v>
       </c>
       <c r="L52" t="n">
-        <v>27.73120747357578</v>
+        <v>26.00836531097489</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -4906,16 +4906,16 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.8944085812300672</v>
+        <v>0.7865134593833241</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.3717948717948718</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="R52" t="n">
-        <v>0.2332799418797141</v>
+        <v>0.1382884699908689</v>
       </c>
       <c r="S52" t="n">
-        <v>0.9875524222706974</v>
+        <v>0.9857623303805113</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="U52" t="n">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -4943,40 +4943,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
+        <v>2778</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2807</v>
+      </c>
+      <c r="C53" t="n">
         <v>2885</v>
       </c>
-      <c r="B53" t="n">
-        <v>2924</v>
-      </c>
-      <c r="C53" t="n">
-        <v>2998</v>
-      </c>
       <c r="D53" t="n">
-        <v>3.378501698282177</v>
+        <v>3.15197580368057</v>
       </c>
       <c r="E53" t="n">
-        <v>2.837285812068524</v>
+        <v>2.610759917466918</v>
       </c>
       <c r="F53" t="n">
         <v>-0.5412158862136522</v>
       </c>
       <c r="G53" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H53" t="n">
-        <v>14.83168622644143</v>
+        <v>28.73267585776148</v>
       </c>
       <c r="I53" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J53" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K53" t="n">
-        <v>332.6467369964646</v>
+        <v>229.7911013012554</v>
       </c>
       <c r="L53" t="n">
-        <v>29.72419123125539</v>
+        <v>27.73120747357578</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -4992,16 +4992,16 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.6225299417361229</v>
+        <v>0.8944085812300672</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.527027027027027</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="R53" t="n">
-        <v>0.4017340819408314</v>
+        <v>0.2332799418797141</v>
       </c>
       <c r="S53" t="n">
-        <v>0.3232612264961796</v>
+        <v>0.9875524222706974</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         </is>
       </c>
       <c r="U53" t="n">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -5029,40 +5029,40 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1926</v>
+        <v>2885</v>
       </c>
       <c r="B54" t="n">
-        <v>1955</v>
+        <v>2924</v>
       </c>
       <c r="C54" t="n">
-        <v>2306</v>
+        <v>2998</v>
       </c>
       <c r="D54" t="n">
-        <v>3.118182506488137</v>
+        <v>3.378501698282177</v>
       </c>
       <c r="E54" t="n">
-        <v>2.53175163339226</v>
+        <v>2.837285812068524</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.5864308730958773</v>
+        <v>-0.5412158862136522</v>
       </c>
       <c r="G54" t="n">
-        <v>380</v>
+        <v>113</v>
       </c>
       <c r="H54" t="n">
-        <v>81.2930687192395</v>
+        <v>14.83168622644143</v>
       </c>
       <c r="I54" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J54" t="n">
-        <v>351</v>
+        <v>74</v>
       </c>
       <c r="K54" t="n">
-        <v>353.9718833961176</v>
+        <v>332.6467369964646</v>
       </c>
       <c r="L54" t="n">
-        <v>14.05771372403557</v>
+        <v>29.72419123125539</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5078,24 +5078,24 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.7605559912173528</v>
+        <v>0.6225299417361229</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.08262108262108261</v>
+        <v>0.527027027027027</v>
       </c>
       <c r="R54" t="n">
-        <v>0.6120994014519707</v>
+        <v>0.4017340819408314</v>
       </c>
       <c r="S54" t="n">
-        <v>0.7081954151076739</v>
+        <v>0.3232612264961796</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U54" t="n">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -5115,40 +5115,40 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>1926</v>
       </c>
       <c r="B55" t="n">
-        <v>18</v>
+        <v>1955</v>
       </c>
       <c r="C55" t="n">
-        <v>112</v>
+        <v>2306</v>
       </c>
       <c r="D55" t="n">
-        <v>4.012550890220088</v>
+        <v>3.118182506488137</v>
       </c>
       <c r="E55" t="n">
-        <v>3.520240843919727</v>
+        <v>2.53175163339226</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.4923100463003609</v>
+        <v>-0.5864308730958773</v>
       </c>
       <c r="G55" t="n">
-        <v>112</v>
+        <v>380</v>
       </c>
       <c r="H55" t="n">
-        <v>30.86944269079492</v>
+        <v>81.2930687192395</v>
       </c>
       <c r="I55" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J55" t="n">
-        <v>94</v>
+        <v>351</v>
       </c>
       <c r="K55" t="n">
-        <v>306.5153063909904</v>
+        <v>353.9718833961176</v>
       </c>
       <c r="L55" t="n">
-        <v>10.20416996910634</v>
+        <v>14.05771372403557</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5164,24 +5164,24 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.8956577932340859</v>
+        <v>0.7605559912173528</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.1914893617021277</v>
+        <v>0.08262108262108261</v>
       </c>
       <c r="R55" t="n">
-        <v>0.3133243605994983</v>
+        <v>0.6120994014519707</v>
       </c>
       <c r="S55" t="n">
-        <v>0.9697217431851984</v>
+        <v>0.7081954151076739</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U55" t="n">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -5201,40 +5201,40 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>18</v>
+      </c>
+      <c r="C56" t="n">
         <v>112</v>
       </c>
-      <c r="B56" t="n">
-        <v>175</v>
-      </c>
-      <c r="C56" t="n">
-        <v>344</v>
-      </c>
       <c r="D56" t="n">
-        <v>3.86153917032763</v>
+        <v>4.012550890220088</v>
       </c>
       <c r="E56" t="n">
-        <v>3.369229124027269</v>
+        <v>3.520240843919727</v>
       </c>
       <c r="F56" t="n">
         <v>-0.4923100463003609</v>
       </c>
       <c r="G56" t="n">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="H56" t="n">
-        <v>85.8575301003203</v>
+        <v>30.86944269079492</v>
       </c>
       <c r="I56" t="n">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="J56" t="n">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="K56" t="n">
-        <v>564.111854961958</v>
+        <v>306.5153063909904</v>
       </c>
       <c r="L56" t="n">
-        <v>9.820137641724394</v>
+        <v>10.20416996910634</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5250,16 +5250,16 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.7394375442015263</v>
+        <v>0.8956577932340859</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.3727810650887574</v>
+        <v>0.1914893617021277</v>
       </c>
       <c r="R56" t="n">
-        <v>0.1063764109418809</v>
+        <v>0.3133243605994983</v>
       </c>
       <c r="S56" t="n">
-        <v>0.922616321492444</v>
+        <v>0.9697217431851984</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="U56" t="n">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -5287,40 +5287,40 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="B57" t="n">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="C57" t="n">
-        <v>92</v>
+        <v>344</v>
       </c>
       <c r="D57" t="n">
-        <v>1.640443127232139</v>
+        <v>3.86153917032763</v>
       </c>
       <c r="E57" t="n">
-        <v>1.224591348077108</v>
+        <v>3.369229124027269</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.4158517791550314</v>
+        <v>-0.4923100463003609</v>
       </c>
       <c r="G57" t="n">
-        <v>68</v>
+        <v>232</v>
       </c>
       <c r="H57" t="n">
-        <v>24.11563894349492</v>
+        <v>85.8575301003203</v>
       </c>
       <c r="I57" t="n">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="J57" t="n">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="K57" t="n">
-        <v>61.70850348763218</v>
+        <v>564.111854961958</v>
       </c>
       <c r="L57" t="n">
-        <v>15.84156670200638</v>
+        <v>9.820137641724394</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5336,24 +5336,24 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.8230655762076245</v>
+        <v>0.7394375442015263</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.7</v>
+        <v>0.3727810650887574</v>
       </c>
       <c r="R57" t="n">
-        <v>0.2233673206611853</v>
+        <v>0.1063764109418809</v>
       </c>
       <c r="S57" t="n">
-        <v>0.980515717148801</v>
+        <v>0.922616321492444</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U57" t="n">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -5373,40 +5373,40 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="B58" t="n">
-        <v>195</v>
+        <v>52</v>
       </c>
       <c r="C58" t="n">
-        <v>428</v>
+        <v>92</v>
       </c>
       <c r="D58" t="n">
-        <v>5.428684670050413</v>
+        <v>1.640443127232139</v>
       </c>
       <c r="E58" t="n">
-        <v>5.012832890895382</v>
+        <v>1.224591348077108</v>
       </c>
       <c r="F58" t="n">
         <v>-0.4158517791550314</v>
       </c>
       <c r="G58" t="n">
-        <v>264</v>
+        <v>68</v>
       </c>
       <c r="H58" t="n">
-        <v>166.3464612864389</v>
+        <v>24.11563894349492</v>
       </c>
       <c r="I58" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J58" t="n">
-        <v>233</v>
+        <v>40</v>
       </c>
       <c r="K58" t="n">
-        <v>644.4016968607357</v>
+        <v>61.70850348763218</v>
       </c>
       <c r="L58" t="n">
-        <v>52.42417056534348</v>
+        <v>15.84156670200638</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5422,16 +5422,16 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.8567577661456096</v>
+        <v>0.8230655762076245</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.1330472103004292</v>
+        <v>0.7</v>
       </c>
       <c r="R58" t="n">
-        <v>0.4745718801976456</v>
+        <v>0.2233673206611853</v>
       </c>
       <c r="S58" t="n">
-        <v>0.9078208722565241</v>
+        <v>0.980515717148801</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         </is>
       </c>
       <c r="U58" t="n">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -5459,40 +5459,40 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1452</v>
+        <v>164</v>
       </c>
       <c r="B59" t="n">
-        <v>1480</v>
+        <v>195</v>
       </c>
       <c r="C59" t="n">
-        <v>1569</v>
+        <v>428</v>
       </c>
       <c r="D59" t="n">
-        <v>2.323332824339198</v>
+        <v>5.428684670050413</v>
       </c>
       <c r="E59" t="n">
-        <v>1.907481045184167</v>
+        <v>5.012832890895382</v>
       </c>
       <c r="F59" t="n">
         <v>-0.4158517791550314</v>
       </c>
       <c r="G59" t="n">
-        <v>117</v>
+        <v>264</v>
       </c>
       <c r="H59" t="n">
-        <v>67.17125313217161</v>
+        <v>166.3464612864389</v>
       </c>
       <c r="I59" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J59" t="n">
-        <v>89</v>
+        <v>233</v>
       </c>
       <c r="K59" t="n">
-        <v>137.6323815697883</v>
+        <v>644.4016968607357</v>
       </c>
       <c r="L59" t="n">
-        <v>22.43615234002683</v>
+        <v>52.42417056534348</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5508,16 +5508,16 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.931161832267738</v>
+        <v>0.8567577661456096</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.3146067415730337</v>
+        <v>0.1330472103004292</v>
       </c>
       <c r="R59" t="n">
-        <v>0.2419490193249008</v>
+        <v>0.4745718801976456</v>
       </c>
       <c r="S59" t="n">
-        <v>0.9783778156610367</v>
+        <v>0.9078208722565241</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="U59" t="n">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -5545,40 +5545,40 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
+        <v>1452</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1480</v>
+      </c>
+      <c r="C60" t="n">
         <v>1569</v>
       </c>
-      <c r="B60" t="n">
-        <v>1585</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1612</v>
-      </c>
       <c r="D60" t="n">
-        <v>0.561438892278613</v>
+        <v>2.323332824339198</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1455871131235816</v>
+        <v>1.907481045184167</v>
       </c>
       <c r="F60" t="n">
         <v>-0.4158517791550314</v>
       </c>
       <c r="G60" t="n">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="H60" t="n">
-        <v>15.78755983607266</v>
+        <v>67.17125313217161</v>
       </c>
       <c r="I60" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J60" t="n">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="K60" t="n">
-        <v>18.83054097631378</v>
+        <v>137.6323815697883</v>
       </c>
       <c r="L60" t="n">
-        <v>5.421749473350454</v>
+        <v>22.43615234002683</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5594,16 +5594,16 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.7724310833101409</v>
+        <v>0.931161832267738</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="R60" t="n">
-        <v>0.125271458086902</v>
+        <v>0.2419490193249008</v>
       </c>
       <c r="S60" t="n">
-        <v>0.9840779767235064</v>
+        <v>0.9783778156610367</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         </is>
       </c>
       <c r="U60" t="n">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -5631,40 +5631,40 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
+        <v>1569</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1585</v>
+      </c>
+      <c r="C61" t="n">
         <v>1612</v>
       </c>
-      <c r="B61" t="n">
-        <v>1633</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1664</v>
-      </c>
       <c r="D61" t="n">
-        <v>0.4038677781546697</v>
+        <v>0.561438892278613</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.01198400100036162</v>
+        <v>0.1455871131235816</v>
       </c>
       <c r="F61" t="n">
         <v>-0.4158517791550314</v>
       </c>
       <c r="G61" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H61" t="n">
-        <v>23.65113959927135</v>
+        <v>15.78755983607266</v>
       </c>
       <c r="I61" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J61" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K61" t="n">
-        <v>16.26676953591388</v>
+        <v>18.83054097631378</v>
       </c>
       <c r="L61" t="n">
-        <v>3.900103722110294</v>
+        <v>5.421749473350454</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -5680,16 +5680,16 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.7615891273909777</v>
+        <v>0.7724310833101409</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="R61" t="n">
-        <v>0.1558921140637415</v>
+        <v>0.125271458086902</v>
       </c>
       <c r="S61" t="n">
-        <v>0.9865636528078436</v>
+        <v>0.9840779767235064</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         </is>
       </c>
       <c r="U61" t="n">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -5717,40 +5717,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>288</v>
+        <v>1612</v>
       </c>
       <c r="B62" t="n">
-        <v>321</v>
+        <v>1633</v>
       </c>
       <c r="C62" t="n">
-        <v>421</v>
+        <v>1664</v>
       </c>
       <c r="D62" t="n">
-        <v>2.549577113846178</v>
+        <v>0.4038677781546697</v>
       </c>
       <c r="E62" t="n">
-        <v>2.055482185970256</v>
+        <v>-0.01198400100036162</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.4940949278759225</v>
+        <v>-0.4158517791550314</v>
       </c>
       <c r="G62" t="n">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="H62" t="n">
-        <v>147.2234850179279</v>
+        <v>23.65113959927135</v>
       </c>
       <c r="I62" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J62" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="K62" t="n">
-        <v>183.8962590188103</v>
+        <v>16.26676953591388</v>
       </c>
       <c r="L62" t="n">
-        <v>4.829833473246451</v>
+        <v>3.900103722110294</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -5766,24 +5766,24 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.8592657491130052</v>
+        <v>0.7615891273909777</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.33</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="R62" t="n">
-        <v>0.3791655006905631</v>
+        <v>0.1558921140637415</v>
       </c>
       <c r="S62" t="n">
-        <v>0.8193323296928812</v>
+        <v>0.9865636528078436</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U62" t="n">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -5803,40 +5803,40 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="B63" t="n">
-        <v>65</v>
+        <v>321</v>
       </c>
       <c r="C63" t="n">
-        <v>132</v>
+        <v>421</v>
       </c>
       <c r="D63" t="n">
-        <v>2.64611571421172</v>
+        <v>2.549577113846178</v>
       </c>
       <c r="E63" t="n">
-        <v>2.031264216446159</v>
+        <v>2.055482185970256</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.6148514977655601</v>
+        <v>-0.4940949278759225</v>
       </c>
       <c r="G63" t="n">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="H63" t="n">
-        <v>21.17343868287662</v>
+        <v>147.2234850179279</v>
       </c>
       <c r="I63" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J63" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="K63" t="n">
-        <v>174.8431438983475</v>
+        <v>183.8962590188103</v>
       </c>
       <c r="L63" t="n">
-        <v>11.42038167451883</v>
+        <v>4.829833473246451</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -5852,24 +5852,24 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.841230539928867</v>
+        <v>0.8592657491130052</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.3283582089552239</v>
+        <v>0.33</v>
       </c>
       <c r="R63" t="n">
-        <v>0.2289255021972023</v>
+        <v>0.3791655006905631</v>
       </c>
       <c r="S63" t="n">
-        <v>0.7214938283534196</v>
+        <v>0.8193323296928812</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U63" t="n">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -5889,40 +5889,40 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
+        <v>43</v>
+      </c>
+      <c r="B64" t="n">
+        <v>65</v>
+      </c>
+      <c r="C64" t="n">
         <v>132</v>
       </c>
-      <c r="B64" t="n">
-        <v>159</v>
-      </c>
-      <c r="C64" t="n">
-        <v>223</v>
-      </c>
       <c r="D64" t="n">
-        <v>2.587604431529556</v>
+        <v>2.64611571421172</v>
       </c>
       <c r="E64" t="n">
-        <v>1.972752933763996</v>
+        <v>2.031264216446159</v>
       </c>
       <c r="F64" t="n">
         <v>-0.6148514977655601</v>
       </c>
       <c r="G64" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H64" t="n">
-        <v>31.32940410050082</v>
+        <v>21.17343868287662</v>
       </c>
       <c r="I64" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J64" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K64" t="n">
-        <v>153.2368211903392</v>
+        <v>174.8431438983475</v>
       </c>
       <c r="L64" t="n">
-        <v>11.16785258937449</v>
+        <v>11.42038167451883</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -5938,16 +5938,16 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.823151146803885</v>
+        <v>0.841230539928867</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.421875</v>
+        <v>0.3283582089552239</v>
       </c>
       <c r="R64" t="n">
-        <v>0.1528997902002487</v>
+        <v>0.2289255021972023</v>
       </c>
       <c r="S64" t="n">
-        <v>0.8713185802296703</v>
+        <v>0.7214938283534196</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         </is>
       </c>
       <c r="U64" t="n">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -5975,40 +5975,40 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>580</v>
+        <v>132</v>
       </c>
       <c r="B65" t="n">
-        <v>608</v>
+        <v>159</v>
       </c>
       <c r="C65" t="n">
-        <v>683</v>
+        <v>223</v>
       </c>
       <c r="D65" t="n">
-        <v>1.532369856164715</v>
+        <v>2.587604431529556</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9175183583991551</v>
+        <v>1.972752933763996</v>
       </c>
       <c r="F65" t="n">
         <v>-0.6148514977655601</v>
       </c>
       <c r="G65" t="n">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H65" t="n">
-        <v>70.88327147706786</v>
+        <v>31.32940410050082</v>
       </c>
       <c r="I65" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J65" t="n">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="K65" t="n">
-        <v>105.928855697027</v>
+        <v>153.2368211903392</v>
       </c>
       <c r="L65" t="n">
-        <v>6.613561353321964</v>
+        <v>11.16785258937449</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6024,16 +6024,16 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.8037083398116557</v>
+        <v>0.823151146803885</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.3733333333333334</v>
+        <v>0.421875</v>
       </c>
       <c r="R65" t="n">
-        <v>0.4006893584550277</v>
+        <v>0.1528997902002487</v>
       </c>
       <c r="S65" t="n">
-        <v>0.5823718593730312</v>
+        <v>0.8713185802296703</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         </is>
       </c>
       <c r="U65" t="n">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -6061,40 +6061,40 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
+        <v>580</v>
+      </c>
+      <c r="B66" t="n">
+        <v>608</v>
+      </c>
+      <c r="C66" t="n">
         <v>683</v>
       </c>
-      <c r="B66" t="n">
-        <v>723</v>
-      </c>
-      <c r="C66" t="n">
-        <v>790</v>
-      </c>
       <c r="D66" t="n">
-        <v>4.459845383704757</v>
+        <v>1.532369856164715</v>
       </c>
       <c r="E66" t="n">
-        <v>3.844993885939197</v>
+        <v>0.9175183583991551</v>
       </c>
       <c r="F66" t="n">
         <v>-0.6148514977655601</v>
       </c>
       <c r="G66" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H66" t="n">
-        <v>139.1540006105337</v>
+        <v>70.88327147706786</v>
       </c>
       <c r="I66" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J66" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K66" t="n">
-        <v>297.8744613339211</v>
+        <v>105.928855697027</v>
       </c>
       <c r="L66" t="n">
-        <v>19.24826500129918</v>
+        <v>6.613561353321964</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6110,16 +6110,16 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.7505607140290571</v>
+        <v>0.8037083398116557</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.5970149253731343</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="R66" t="n">
-        <v>0.3278757444535467</v>
+        <v>0.4006893584550277</v>
       </c>
       <c r="S66" t="n">
-        <v>0.8181608324669936</v>
+        <v>0.5823718593730312</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="U66" t="n">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -6147,40 +6147,40 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
+        <v>683</v>
+      </c>
+      <c r="B67" t="n">
+        <v>723</v>
+      </c>
+      <c r="C67" t="n">
         <v>790</v>
       </c>
-      <c r="B67" t="n">
-        <v>818</v>
-      </c>
-      <c r="C67" t="n">
-        <v>916</v>
-      </c>
       <c r="D67" t="n">
-        <v>3.051527814327967</v>
+        <v>4.459845383704757</v>
       </c>
       <c r="E67" t="n">
-        <v>2.436676316562407</v>
+        <v>3.844993885939197</v>
       </c>
       <c r="F67" t="n">
         <v>-0.6148514977655601</v>
       </c>
       <c r="G67" t="n">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="H67" t="n">
-        <v>24.13760510029738</v>
+        <v>139.1540006105337</v>
       </c>
       <c r="I67" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J67" t="n">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="K67" t="n">
-        <v>203.8393880928012</v>
+        <v>297.8744613339211</v>
       </c>
       <c r="L67" t="n">
-        <v>13.17010142181834</v>
+        <v>19.24826500129918</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6196,16 +6196,16 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.8962319958675009</v>
+        <v>0.7505607140290571</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5970149253731343</v>
       </c>
       <c r="R67" t="n">
-        <v>0.4571483035940817</v>
+        <v>0.3278757444535467</v>
       </c>
       <c r="S67" t="n">
-        <v>0.9742654930781159</v>
+        <v>0.8181608324669936</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         </is>
       </c>
       <c r="U67" t="n">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -6233,40 +6233,40 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>504</v>
+        <v>790</v>
       </c>
       <c r="B68" t="n">
-        <v>569</v>
+        <v>818</v>
       </c>
       <c r="C68" t="n">
-        <v>653</v>
+        <v>916</v>
       </c>
       <c r="D68" t="n">
-        <v>3.127396886741584</v>
+        <v>3.051527814327967</v>
       </c>
       <c r="E68" t="n">
-        <v>2.445063301362401</v>
+        <v>2.436676316562407</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.6823335853791832</v>
+        <v>-0.6148514977655601</v>
       </c>
       <c r="G68" t="n">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="H68" t="n">
-        <v>70.43257815793572</v>
+        <v>24.13760510029738</v>
       </c>
       <c r="I68" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="J68" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K68" t="n">
-        <v>241.6761673443803</v>
+        <v>203.8393880928012</v>
       </c>
       <c r="L68" t="n">
-        <v>11.59536321883391</v>
+        <v>13.17010142181834</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6282,24 +6282,24 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.7266521666644644</v>
+        <v>0.8962319958675009</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.7738095238095238</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="R68" t="n">
-        <v>0.3962959517755716</v>
+        <v>0.4571483035940817</v>
       </c>
       <c r="S68" t="n">
-        <v>0.6833226116578923</v>
+        <v>0.9742654930781159</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U68" t="n">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -6319,40 +6319,40 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>699</v>
+        <v>504</v>
       </c>
       <c r="B69" t="n">
-        <v>725</v>
+        <v>569</v>
       </c>
       <c r="C69" t="n">
-        <v>786</v>
+        <v>653</v>
       </c>
       <c r="D69" t="n">
-        <v>3.067960383174096</v>
+        <v>3.127396886741584</v>
       </c>
       <c r="E69" t="n">
-        <v>2.385626797794913</v>
+        <v>2.445063301362401</v>
       </c>
       <c r="F69" t="n">
         <v>-0.6823335853791832</v>
       </c>
       <c r="G69" t="n">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="H69" t="n">
-        <v>40.61887667366329</v>
+        <v>70.43257815793572</v>
       </c>
       <c r="I69" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="J69" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="K69" t="n">
-        <v>166.328923535535</v>
+        <v>241.6761673443803</v>
       </c>
       <c r="L69" t="n">
-        <v>11.37499213314142</v>
+        <v>11.59536321883391</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6368,16 +6368,16 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.8980625049495052</v>
+        <v>0.7266521666644644</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.4262295081967213</v>
+        <v>0.7738095238095238</v>
       </c>
       <c r="R69" t="n">
-        <v>0.3104104259499275</v>
+        <v>0.3962959517755716</v>
       </c>
       <c r="S69" t="n">
-        <v>0.9803533256755838</v>
+        <v>0.6833226116578923</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         </is>
       </c>
       <c r="U69" t="n">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -6405,40 +6405,40 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1211</v>
+        <v>699</v>
       </c>
       <c r="B70" t="n">
-        <v>1238</v>
+        <v>725</v>
       </c>
       <c r="C70" t="n">
-        <v>1348</v>
+        <v>786</v>
       </c>
       <c r="D70" t="n">
-        <v>1.769949505119921</v>
+        <v>3.067960383174096</v>
       </c>
       <c r="E70" t="n">
-        <v>1.087615919740738</v>
+        <v>2.385626797794913</v>
       </c>
       <c r="F70" t="n">
         <v>-0.6823335853791832</v>
       </c>
       <c r="G70" t="n">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="H70" t="n">
-        <v>55.03240296455897</v>
+        <v>40.61887667366329</v>
       </c>
       <c r="I70" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J70" t="n">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="K70" t="n">
-        <v>137.5182688956687</v>
+        <v>166.328923535535</v>
       </c>
       <c r="L70" t="n">
-        <v>6.562392984999042</v>
+        <v>11.37499213314142</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6454,16 +6454,16 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.9040737084939716</v>
+        <v>0.8980625049495052</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.2454545454545455</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="R70" t="n">
-        <v>0.3042079575536535</v>
+        <v>0.3104104259499275</v>
       </c>
       <c r="S70" t="n">
-        <v>0.6807146444943062</v>
+        <v>0.9803533256755838</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="U70" t="n">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -6491,40 +6491,40 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1822</v>
+        <v>1211</v>
       </c>
       <c r="B71" t="n">
-        <v>1901</v>
+        <v>1238</v>
       </c>
       <c r="C71" t="n">
-        <v>2044</v>
+        <v>1348</v>
       </c>
       <c r="D71" t="n">
-        <v>4.105584195877572</v>
+        <v>1.769949505119921</v>
       </c>
       <c r="E71" t="n">
-        <v>3.423250610498389</v>
+        <v>1.087615919740738</v>
       </c>
       <c r="F71" t="n">
         <v>-0.6823335853791832</v>
       </c>
       <c r="G71" t="n">
-        <v>222</v>
+        <v>137</v>
       </c>
       <c r="H71" t="n">
-        <v>180.83562064906</v>
+        <v>55.03240296455897</v>
       </c>
       <c r="I71" t="n">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="J71" t="n">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="K71" t="n">
-        <v>558.0494521439982</v>
+        <v>137.5182688956687</v>
       </c>
       <c r="L71" t="n">
-        <v>15.22216133760519</v>
+        <v>6.562392984999042</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6540,16 +6540,16 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.5073432425729182</v>
+        <v>0.9040737084939716</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.5524475524475524</v>
+        <v>0.2454545454545455</v>
       </c>
       <c r="R71" t="n">
-        <v>0.08180121422979789</v>
+        <v>0.3042079575536535</v>
       </c>
       <c r="S71" t="n">
-        <v>0.511908484986705</v>
+        <v>0.6807146444943062</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         </is>
       </c>
       <c r="U71" t="n">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -6577,40 +6577,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>722</v>
+        <v>1822</v>
       </c>
       <c r="B72" t="n">
-        <v>749</v>
+        <v>1901</v>
       </c>
       <c r="C72" t="n">
-        <v>797</v>
+        <v>2044</v>
       </c>
       <c r="D72" t="n">
-        <v>3.445689920071005</v>
+        <v>4.105584195877572</v>
       </c>
       <c r="E72" t="n">
-        <v>2.907355299223042</v>
+        <v>3.423250610498389</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.5383346208479636</v>
+        <v>-0.6823335853791832</v>
       </c>
       <c r="G72" t="n">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="H72" t="n">
-        <v>44.18028756621584</v>
+        <v>180.83562064906</v>
       </c>
       <c r="I72" t="n">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="J72" t="n">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="K72" t="n">
-        <v>146.4033138356894</v>
+        <v>558.0494521439982</v>
       </c>
       <c r="L72" t="n">
-        <v>9.066339070829001</v>
+        <v>15.22216133760519</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -6626,24 +6626,24 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.8203864598884338</v>
+        <v>0.5073432425729182</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.5625</v>
+        <v>0.5524475524475524</v>
       </c>
       <c r="R72" t="n">
-        <v>0.2859282049966181</v>
+        <v>0.08180121422979789</v>
       </c>
       <c r="S72" t="n">
-        <v>0.9475172583779506</v>
+        <v>0.511908484986705</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U72" t="n">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -6663,40 +6663,40 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
+        <v>722</v>
+      </c>
+      <c r="B73" t="n">
+        <v>749</v>
+      </c>
+      <c r="C73" t="n">
         <v>797</v>
       </c>
-      <c r="B73" t="n">
-        <v>814</v>
-      </c>
-      <c r="C73" t="n">
-        <v>838</v>
-      </c>
       <c r="D73" t="n">
-        <v>1.712340174885681</v>
+        <v>3.445689920071005</v>
       </c>
       <c r="E73" t="n">
-        <v>1.174005554037718</v>
+        <v>2.907355299223042</v>
       </c>
       <c r="F73" t="n">
         <v>-0.5383346208479636</v>
       </c>
       <c r="G73" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="H73" t="n">
-        <v>17.23853041161101</v>
+        <v>44.18028756621584</v>
       </c>
       <c r="I73" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J73" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="K73" t="n">
-        <v>53.02122520703875</v>
+        <v>146.4033138356894</v>
       </c>
       <c r="L73" t="n">
-        <v>4.505529223533933</v>
+        <v>9.066339070829001</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -6712,16 +6712,16 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.7705431113684744</v>
+        <v>0.8203864598884338</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.5625</v>
       </c>
       <c r="R73" t="n">
-        <v>0.1607131100696043</v>
+        <v>0.2859282049966181</v>
       </c>
       <c r="S73" t="n">
-        <v>0.9963381368724348</v>
+        <v>0.9475172583779506</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         </is>
       </c>
       <c r="U73" t="n">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -6749,40 +6749,40 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>919</v>
+        <v>797</v>
       </c>
       <c r="B74" t="n">
-        <v>946</v>
+        <v>814</v>
       </c>
       <c r="C74" t="n">
-        <v>984</v>
+        <v>838</v>
       </c>
       <c r="D74" t="n">
-        <v>2.406642663600459</v>
+        <v>1.712340174885681</v>
       </c>
       <c r="E74" t="n">
-        <v>1.868308042752495</v>
+        <v>1.174005554037718</v>
       </c>
       <c r="F74" t="n">
         <v>-0.5383346208479636</v>
       </c>
       <c r="G74" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="H74" t="n">
-        <v>45.68628260211301</v>
+        <v>17.23853041161101</v>
       </c>
       <c r="I74" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J74" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="K74" t="n">
-        <v>94.08690365003689</v>
+        <v>53.02122520703875</v>
       </c>
       <c r="L74" t="n">
-        <v>6.332385942051101</v>
+        <v>4.505529223533933</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -6798,16 +6798,16 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.6957890320956172</v>
+        <v>0.7705431113684744</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="R74" t="n">
-        <v>0.1444707418132928</v>
+        <v>0.1607131100696043</v>
       </c>
       <c r="S74" t="n">
-        <v>0.9269531406031684</v>
+        <v>0.9963381368724348</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="U74" t="n">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -6835,40 +6835,40 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>198</v>
+        <v>919</v>
       </c>
       <c r="B75" t="n">
-        <v>221</v>
+        <v>946</v>
       </c>
       <c r="C75" t="n">
-        <v>319</v>
+        <v>984</v>
       </c>
       <c r="D75" t="n">
-        <v>1.908956930074706</v>
+        <v>2.406642663600459</v>
       </c>
       <c r="E75" t="n">
-        <v>1.382840672533331</v>
+        <v>1.868308042752495</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.5261162575413747</v>
+        <v>-0.5383346208479636</v>
       </c>
       <c r="G75" t="n">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="H75" t="n">
-        <v>98.06606041118476</v>
+        <v>45.68628260211301</v>
       </c>
       <c r="I75" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J75" t="n">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="K75" t="n">
-        <v>172.8048461704198</v>
+        <v>94.08690365003689</v>
       </c>
       <c r="L75" t="n">
-        <v>4.720598076009932</v>
+        <v>6.332385942051101</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -6884,24 +6884,24 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.7688886683390628</v>
+        <v>0.6957890320956172</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.2346938775510204</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="R75" t="n">
-        <v>0.4001011334079167</v>
+        <v>0.1444707418132928</v>
       </c>
       <c r="S75" t="n">
-        <v>0.3522098349180702</v>
+        <v>0.9269531406031684</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U75" t="n">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -6921,40 +6921,40 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>966</v>
+        <v>198</v>
       </c>
       <c r="B76" t="n">
-        <v>987</v>
+        <v>221</v>
       </c>
       <c r="C76" t="n">
-        <v>1089</v>
+        <v>319</v>
       </c>
       <c r="D76" t="n">
-        <v>1.755359622650316</v>
+        <v>1.908956930074706</v>
       </c>
       <c r="E76" t="n">
-        <v>1.132150314919926</v>
+        <v>1.382840672533331</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.6232093077303902</v>
+        <v>-0.5261162575413747</v>
       </c>
       <c r="G76" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H76" t="n">
-        <v>34.98778768685986</v>
+        <v>98.06606041118476</v>
       </c>
       <c r="I76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J76" t="n">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K76" t="n">
-        <v>100.2149875381257</v>
+        <v>172.8048461704198</v>
       </c>
       <c r="L76" t="n">
-        <v>5.51803458494972</v>
+        <v>4.720598076009932</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -6970,24 +6970,24 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.7888914239257891</v>
+        <v>0.7688886683390628</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.2346938775510204</v>
       </c>
       <c r="R76" t="n">
-        <v>0.3813978899960931</v>
+        <v>0.4001011334079167</v>
       </c>
       <c r="S76" t="n">
-        <v>0.4328013637281486</v>
+        <v>0.3522098349180702</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U76" t="n">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -7007,40 +7007,40 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1549</v>
+        <v>966</v>
       </c>
       <c r="B77" t="n">
-        <v>1574</v>
+        <v>987</v>
       </c>
       <c r="C77" t="n">
-        <v>1633</v>
+        <v>1089</v>
       </c>
       <c r="D77" t="n">
-        <v>1.744418776190819</v>
+        <v>1.755359622650316</v>
       </c>
       <c r="E77" t="n">
-        <v>1.121209468460429</v>
+        <v>1.132150314919926</v>
       </c>
       <c r="F77" t="n">
         <v>-0.6232093077303902</v>
       </c>
       <c r="G77" t="n">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="H77" t="n">
-        <v>24.13610373416191</v>
+        <v>34.98778768685986</v>
       </c>
       <c r="I77" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J77" t="n">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="K77" t="n">
-        <v>85.79244835438278</v>
+        <v>100.2149875381257</v>
       </c>
       <c r="L77" t="n">
-        <v>5.483641650092887</v>
+        <v>5.51803458494972</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7056,16 +7056,16 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.8466919230432117</v>
+        <v>0.7888914239257891</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.423728813559322</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="R77" t="n">
-        <v>0.3392191973756354</v>
+        <v>0.3813978899960931</v>
       </c>
       <c r="S77" t="n">
-        <v>0.8315049000521029</v>
+        <v>0.4328013637281486</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         </is>
       </c>
       <c r="U77" t="n">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -7093,40 +7093,40 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
+        <v>1549</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1574</v>
+      </c>
+      <c r="C78" t="n">
         <v>1633</v>
       </c>
-      <c r="B78" t="n">
-        <v>1664</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1732</v>
-      </c>
       <c r="D78" t="n">
-        <v>2.326897239556711</v>
+        <v>1.744418776190819</v>
       </c>
       <c r="E78" t="n">
-        <v>1.703687931826321</v>
+        <v>1.121209468460429</v>
       </c>
       <c r="F78" t="n">
         <v>-0.6232093077303902</v>
       </c>
       <c r="G78" t="n">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="H78" t="n">
-        <v>33.51401426404232</v>
+        <v>24.13610373416191</v>
       </c>
       <c r="I78" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J78" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="K78" t="n">
-        <v>109.85877083743</v>
+        <v>85.79244835438278</v>
       </c>
       <c r="L78" t="n">
-        <v>7.314683144022502</v>
+        <v>5.483641650092887</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7142,16 +7142,16 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.7873554599564376</v>
+        <v>0.8466919230432117</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.4558823529411765</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="R78" t="n">
-        <v>0.3822403739623308</v>
+        <v>0.3392191973756354</v>
       </c>
       <c r="S78" t="n">
-        <v>0.5067212168000332</v>
+        <v>0.8315049000521029</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         </is>
       </c>
       <c r="U78" t="n">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -7179,40 +7179,40 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
+        <v>1633</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1664</v>
+      </c>
+      <c r="C79" t="n">
         <v>1732</v>
       </c>
-      <c r="B79" t="n">
-        <v>1766</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1927</v>
-      </c>
       <c r="D79" t="n">
-        <v>3.931787600623911</v>
+        <v>2.326897239556711</v>
       </c>
       <c r="E79" t="n">
-        <v>3.30857829289352</v>
+        <v>1.703687931826321</v>
       </c>
       <c r="F79" t="n">
         <v>-0.6232093077303902</v>
       </c>
       <c r="G79" t="n">
-        <v>195</v>
+        <v>99</v>
       </c>
       <c r="H79" t="n">
-        <v>235.6088232403522</v>
+        <v>33.51401426404232</v>
       </c>
       <c r="I79" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J79" t="n">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="K79" t="n">
-        <v>521.7386961574238</v>
+        <v>109.85877083743</v>
       </c>
       <c r="L79" t="n">
-        <v>12.35971232388385</v>
+        <v>7.314683144022502</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -7228,16 +7228,16 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.8248087683137755</v>
+        <v>0.7873554599564376</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.2111801242236025</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="R79" t="n">
-        <v>0.5942383572061614</v>
+        <v>0.3822403739623308</v>
       </c>
       <c r="S79" t="n">
-        <v>0.7146527308729013</v>
+        <v>0.5067212168000332</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="U79" t="n">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -7265,40 +7265,40 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>659</v>
+        <v>1732</v>
       </c>
       <c r="B80" t="n">
-        <v>687</v>
+        <v>1766</v>
       </c>
       <c r="C80" t="n">
-        <v>786</v>
+        <v>1927</v>
       </c>
       <c r="D80" t="n">
-        <v>3.304341771468177</v>
+        <v>3.931787600623911</v>
       </c>
       <c r="E80" t="n">
-        <v>2.786973946645008</v>
+        <v>3.30857829289352</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.5173678248231689</v>
+        <v>-0.6232093077303902</v>
       </c>
       <c r="G80" t="n">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="H80" t="n">
-        <v>30.56302284648393</v>
+        <v>235.6088232403522</v>
       </c>
       <c r="I80" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J80" t="n">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="K80" t="n">
-        <v>194.0662294781541</v>
+        <v>521.7386961574238</v>
       </c>
       <c r="L80" t="n">
-        <v>13.89498433393662</v>
+        <v>12.35971232388385</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -7314,24 +7314,24 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.8802707157005975</v>
+        <v>0.8248087683137755</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.2828282828282828</v>
+        <v>0.2111801242236025</v>
       </c>
       <c r="R80" t="n">
-        <v>0.4039200169719416</v>
+        <v>0.5942383572061614</v>
       </c>
       <c r="S80" t="n">
-        <v>0.7823569609599137</v>
+        <v>0.7146527308729013</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U80" t="n">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -7351,40 +7351,40 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>125</v>
+        <v>659</v>
       </c>
       <c r="B81" t="n">
-        <v>175</v>
+        <v>687</v>
       </c>
       <c r="C81" t="n">
-        <v>373</v>
+        <v>786</v>
       </c>
       <c r="D81" t="n">
-        <v>3.339908080110322</v>
+        <v>3.304341771468177</v>
       </c>
       <c r="E81" t="n">
-        <v>2.714044642984405</v>
+        <v>2.786973946645008</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.6258634371259172</v>
+        <v>-0.5173678248231689</v>
       </c>
       <c r="G81" t="n">
-        <v>248</v>
+        <v>127</v>
       </c>
       <c r="H81" t="n">
-        <v>44.44142072766903</v>
+        <v>30.56302284648393</v>
       </c>
       <c r="I81" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J81" t="n">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="K81" t="n">
-        <v>433.7199210370753</v>
+        <v>194.0662294781541</v>
       </c>
       <c r="L81" t="n">
-        <v>10.37188549041629</v>
+        <v>13.89498433393662</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7400,24 +7400,24 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.843705561170991</v>
+        <v>0.8802707157005975</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.2525252525252525</v>
+        <v>0.2828282828282828</v>
       </c>
       <c r="R81" t="n">
-        <v>0.4027251447774557</v>
+        <v>0.4039200169719416</v>
       </c>
       <c r="S81" t="n">
-        <v>0.8153793211263336</v>
+        <v>0.7823569609599137</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n36</t>
         </is>
       </c>
       <c r="U81" t="n">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -7437,40 +7437,40 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>486</v>
+        <v>125</v>
       </c>
       <c r="B82" t="n">
-        <v>530</v>
+        <v>175</v>
       </c>
       <c r="C82" t="n">
-        <v>592</v>
+        <v>373</v>
       </c>
       <c r="D82" t="n">
-        <v>1.56127329473615</v>
+        <v>3.339908080110322</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9354098576102327</v>
+        <v>2.714044642984405</v>
       </c>
       <c r="F82" t="n">
         <v>-0.6258634371259172</v>
       </c>
       <c r="G82" t="n">
-        <v>106</v>
+        <v>248</v>
       </c>
       <c r="H82" t="n">
-        <v>29.79937199346796</v>
+        <v>44.44142072766903</v>
       </c>
       <c r="I82" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J82" t="n">
-        <v>62</v>
+        <v>198</v>
       </c>
       <c r="K82" t="n">
-        <v>95.61484609434228</v>
+        <v>433.7199210370753</v>
       </c>
       <c r="L82" t="n">
-        <v>4.848441167792085</v>
+        <v>10.37188549041629</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7486,16 +7486,16 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.6880319652906784</v>
+        <v>0.843705561170991</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.2525252525252525</v>
       </c>
       <c r="R82" t="n">
-        <v>0.1470490920852799</v>
+        <v>0.4027251447774557</v>
       </c>
       <c r="S82" t="n">
-        <v>0.8419610918936806</v>
+        <v>0.8153793211263336</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         </is>
       </c>
       <c r="U82" t="n">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="V82" t="inlineStr">
         <is>
@@ -7523,40 +7523,40 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2128</v>
+        <v>486</v>
       </c>
       <c r="B83" t="n">
-        <v>2169</v>
+        <v>530</v>
       </c>
       <c r="C83" t="n">
-        <v>2336</v>
+        <v>592</v>
       </c>
       <c r="D83" t="n">
-        <v>1.763327285823708</v>
+        <v>1.56127329473615</v>
       </c>
       <c r="E83" t="n">
-        <v>1.137463848697791</v>
+        <v>0.9354098576102327</v>
       </c>
       <c r="F83" t="n">
         <v>-0.6258634371259172</v>
       </c>
       <c r="G83" t="n">
-        <v>208</v>
+        <v>106</v>
       </c>
       <c r="H83" t="n">
-        <v>33.03488110430817</v>
+        <v>29.79937199346796</v>
       </c>
       <c r="I83" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J83" t="n">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="K83" t="n">
-        <v>130.4675940355458</v>
+        <v>95.61484609434228</v>
       </c>
       <c r="L83" t="n">
-        <v>5.475907795069002</v>
+        <v>4.848441167792085</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -7572,16 +7572,16 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.6856489467704163</v>
+        <v>0.6880319652906784</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.2455089820359281</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="R83" t="n">
-        <v>0.4896275948471175</v>
+        <v>0.1470490920852799</v>
       </c>
       <c r="S83" t="n">
-        <v>0.5307349860190482</v>
+        <v>0.8419610918936806</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         </is>
       </c>
       <c r="U83" t="n">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="V83" t="inlineStr">
         <is>
@@ -7609,40 +7609,40 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>962</v>
+        <v>2128</v>
       </c>
       <c r="B84" t="n">
-        <v>986</v>
+        <v>2169</v>
       </c>
       <c r="C84" t="n">
-        <v>1023</v>
+        <v>2336</v>
       </c>
       <c r="D84" t="n">
-        <v>2.63100268202462</v>
+        <v>1.763327285823708</v>
       </c>
       <c r="E84" t="n">
-        <v>1.908868193741892</v>
+        <v>1.137463848697791</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.7221344882827272</v>
+        <v>-0.6258634371259172</v>
       </c>
       <c r="G84" t="n">
-        <v>61</v>
+        <v>208</v>
       </c>
       <c r="H84" t="n">
-        <v>28.79868297269923</v>
+        <v>33.03488110430817</v>
       </c>
       <c r="I84" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="J84" t="n">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="K84" t="n">
-        <v>108.4735534553852</v>
+        <v>130.4675940355458</v>
       </c>
       <c r="L84" t="n">
-        <v>8.786133127857731</v>
+        <v>5.475907795069002</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -7658,24 +7658,24 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.8247112710169483</v>
+        <v>0.6856489467704163</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.6486486486486487</v>
+        <v>0.2455089820359281</v>
       </c>
       <c r="R84" t="n">
-        <v>0.2770036471035498</v>
+        <v>0.4896275948471175</v>
       </c>
       <c r="S84" t="n">
-        <v>0.9935937722451235</v>
+        <v>0.5307349860190482</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n37</t>
         </is>
       </c>
       <c r="U84" t="n">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="V84" t="inlineStr">
         <is>
@@ -7695,40 +7695,40 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
+        <v>962</v>
+      </c>
+      <c r="B85" t="n">
+        <v>986</v>
+      </c>
+      <c r="C85" t="n">
         <v>1023</v>
       </c>
-      <c r="B85" t="n">
-        <v>1053</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1091</v>
-      </c>
       <c r="D85" t="n">
-        <v>2.548700145190469</v>
+        <v>2.63100268202462</v>
       </c>
       <c r="E85" t="n">
-        <v>1.826565656907742</v>
+        <v>1.908868193741892</v>
       </c>
       <c r="F85" t="n">
         <v>-0.7221344882827272</v>
       </c>
       <c r="G85" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H85" t="n">
-        <v>30.16478063393197</v>
+        <v>28.79868297269923</v>
       </c>
       <c r="I85" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J85" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K85" t="n">
-        <v>128.0901647826065</v>
+        <v>108.4735534553852</v>
       </c>
       <c r="L85" t="n">
-        <v>8.511286944565816</v>
+        <v>8.786133127857731</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -7744,16 +7744,16 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.6162449855312543</v>
+        <v>0.8247112710169483</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="R85" t="n">
-        <v>0.02080216683604258</v>
+        <v>0.2770036471035498</v>
       </c>
       <c r="S85" t="n">
-        <v>0.985897975080956</v>
+        <v>0.9935937722451235</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         </is>
       </c>
       <c r="U85" t="n">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="V85" t="inlineStr">
         <is>
@@ -7781,40 +7781,40 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1053</v>
+      </c>
+      <c r="C86" t="n">
         <v>1091</v>
       </c>
-      <c r="B86" t="n">
-        <v>1126</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1205</v>
-      </c>
       <c r="D86" t="n">
-        <v>2.885687030822969</v>
+        <v>2.548700145190469</v>
       </c>
       <c r="E86" t="n">
-        <v>2.163552542540241</v>
+        <v>1.826565656907742</v>
       </c>
       <c r="F86" t="n">
         <v>-0.7221344882827272</v>
       </c>
       <c r="G86" t="n">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="H86" t="n">
-        <v>55.38082161865145</v>
+        <v>30.16478063393197</v>
       </c>
       <c r="I86" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J86" t="n">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="K86" t="n">
-        <v>208.4657110498546</v>
+        <v>128.0901647826065</v>
       </c>
       <c r="L86" t="n">
-        <v>9.636641798720085</v>
+        <v>8.511286944565816</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -7830,16 +7830,16 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.8488687592525532</v>
+        <v>0.6162449855312543</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.4430379746835443</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="R86" t="n">
-        <v>0.1799303116038699</v>
+        <v>0.02080216683604258</v>
       </c>
       <c r="S86" t="n">
-        <v>0.9729181147171541</v>
+        <v>0.985897975080956</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="U86" t="n">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="V86" t="inlineStr">
         <is>
@@ -7867,40 +7867,40 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1318</v>
+        <v>1091</v>
       </c>
       <c r="B87" t="n">
-        <v>1352</v>
+        <v>1126</v>
       </c>
       <c r="C87" t="n">
-        <v>1472</v>
+        <v>1205</v>
       </c>
       <c r="D87" t="n">
-        <v>2.921034330237814</v>
+        <v>2.885687030822969</v>
       </c>
       <c r="E87" t="n">
-        <v>2.198899841955087</v>
+        <v>2.163552542540241</v>
       </c>
       <c r="F87" t="n">
         <v>-0.7221344882827272</v>
       </c>
       <c r="G87" t="n">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="H87" t="n">
-        <v>110.9416233712082</v>
+        <v>55.38082161865145</v>
       </c>
       <c r="I87" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J87" t="n">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="K87" t="n">
-        <v>295.9832451801452</v>
+        <v>208.4657110498546</v>
       </c>
       <c r="L87" t="n">
-        <v>9.754682757207476</v>
+        <v>9.636641798720085</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -7916,16 +7916,16 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.7970877347987748</v>
+        <v>0.8488687592525532</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4430379746835443</v>
       </c>
       <c r="R87" t="n">
-        <v>0.09318734627942137</v>
+        <v>0.1799303116038699</v>
       </c>
       <c r="S87" t="n">
-        <v>0.8786797212402909</v>
+        <v>0.9729181147171541</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         </is>
       </c>
       <c r="U87" t="n">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="V87" t="inlineStr">
         <is>
@@ -7953,40 +7953,40 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
+        <v>1318</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1352</v>
+      </c>
+      <c r="C88" t="n">
         <v>1472</v>
       </c>
-      <c r="B88" t="n">
-        <v>1499</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1550</v>
-      </c>
       <c r="D88" t="n">
-        <v>1.538185317455395</v>
+        <v>2.921034330237814</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8160508291726679</v>
+        <v>2.198899841955087</v>
       </c>
       <c r="F88" t="n">
         <v>-0.7221344882827272</v>
       </c>
       <c r="G88" t="n">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="H88" t="n">
-        <v>28.11423890869673</v>
+        <v>110.9416233712082</v>
       </c>
       <c r="I88" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J88" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="K88" t="n">
-        <v>79.54235769950353</v>
+        <v>295.9832451801452</v>
       </c>
       <c r="L88" t="n">
-        <v>5.136711211589994</v>
+        <v>9.754682757207476</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
@@ -8002,16 +8002,16 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.8000572926067027</v>
+        <v>0.7970877347987748</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="R88" t="n">
-        <v>0.1425937384839027</v>
+        <v>0.09318734627942137</v>
       </c>
       <c r="S88" t="n">
-        <v>0.9602437426538943</v>
+        <v>0.8786797212402909</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         </is>
       </c>
       <c r="U88" t="n">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="V88" t="inlineStr">
         <is>
@@ -8039,40 +8039,40 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
+        <v>1472</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1499</v>
+      </c>
+      <c r="C89" t="n">
         <v>1550</v>
       </c>
-      <c r="B89" t="n">
-        <v>1586</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1631</v>
-      </c>
       <c r="D89" t="n">
-        <v>2.230002899547912</v>
+        <v>1.538185317455395</v>
       </c>
       <c r="E89" t="n">
-        <v>1.507868411265185</v>
+        <v>0.8160508291726679</v>
       </c>
       <c r="F89" t="n">
         <v>-0.7221344882827272</v>
       </c>
       <c r="G89" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H89" t="n">
-        <v>40.4915108920236</v>
+        <v>28.11423890869673</v>
       </c>
       <c r="I89" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J89" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K89" t="n">
-        <v>109.7368557913976</v>
+        <v>79.54235769950353</v>
       </c>
       <c r="L89" t="n">
-        <v>7.447009645713986</v>
+        <v>5.136711211589994</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -8088,16 +8088,16 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.7382594774840255</v>
+        <v>0.8000572926067027</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.8</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="R89" t="n">
-        <v>0.1702911776647899</v>
+        <v>0.1425937384839027</v>
       </c>
       <c r="S89" t="n">
-        <v>0.9916156519885021</v>
+        <v>0.9602437426538943</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         </is>
       </c>
       <c r="U89" t="n">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="V89" t="inlineStr">
         <is>
@@ -8125,40 +8125,40 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
+        <v>1550</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1586</v>
+      </c>
+      <c r="C90" t="n">
         <v>1631</v>
       </c>
-      <c r="B90" t="n">
-        <v>1657</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1731</v>
-      </c>
       <c r="D90" t="n">
-        <v>1.628287406802067</v>
+        <v>2.230002899547912</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9061529185193394</v>
+        <v>1.507868411265185</v>
       </c>
       <c r="F90" t="n">
         <v>-0.7221344882827272</v>
       </c>
       <c r="G90" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H90" t="n">
-        <v>32.23241213867686</v>
+        <v>40.4915108920236</v>
       </c>
       <c r="I90" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J90" t="n">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="K90" t="n">
-        <v>102.1599338535929</v>
+        <v>109.7368557913976</v>
       </c>
       <c r="L90" t="n">
-        <v>5.43760370307495</v>
+        <v>7.447009645713986</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -8174,16 +8174,16 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.88406126458782</v>
+        <v>0.7382594774840255</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.3513513513513514</v>
+        <v>0.8</v>
       </c>
       <c r="R90" t="n">
-        <v>0.1959564623992851</v>
+        <v>0.1702911776647899</v>
       </c>
       <c r="S90" t="n">
-        <v>0.8728929012420081</v>
+        <v>0.9916156519885021</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         </is>
       </c>
       <c r="U90" t="n">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="V90" t="inlineStr">
         <is>
@@ -8211,40 +8211,40 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>956</v>
+        <v>1631</v>
       </c>
       <c r="B91" t="n">
-        <v>986</v>
+        <v>1657</v>
       </c>
       <c r="C91" t="n">
-        <v>1029</v>
+        <v>1731</v>
       </c>
       <c r="D91" t="n">
-        <v>2.71838345498666</v>
+        <v>1.628287406802067</v>
       </c>
       <c r="E91" t="n">
-        <v>2.161125953864592</v>
+        <v>0.9061529185193394</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5572575011220683</v>
+        <v>-0.7221344882827272</v>
       </c>
       <c r="G91" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="H91" t="n">
-        <v>45.68126836607178</v>
+        <v>32.23241213867686</v>
       </c>
       <c r="I91" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J91" t="n">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="K91" t="n">
-        <v>92.4801259966639</v>
+        <v>102.1599338535929</v>
       </c>
       <c r="L91" t="n">
-        <v>6.043346773584473</v>
+        <v>5.43760370307495</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
@@ -8260,24 +8260,24 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.7777156065427628</v>
+        <v>0.88406126458782</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.6976744186046512</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="R91" t="n">
-        <v>0.24890631077311</v>
+        <v>0.1959564623992851</v>
       </c>
       <c r="S91" t="n">
-        <v>0.9431899872139687</v>
+        <v>0.8728929012420081</v>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n38</t>
         </is>
       </c>
       <c r="U91" t="n">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="V91" t="inlineStr">
         <is>
@@ -8297,40 +8297,40 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1503</v>
+        <v>2468</v>
       </c>
       <c r="B92" t="n">
-        <v>1525</v>
+        <v>2530</v>
       </c>
       <c r="C92" t="n">
-        <v>1577</v>
+        <v>2612</v>
       </c>
       <c r="D92" t="n">
-        <v>2.498932211218833</v>
+        <v>2.618372516456508</v>
       </c>
       <c r="E92" t="n">
-        <v>1.941674710096765</v>
+        <v>1.89623802817378</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5572575011220683</v>
+        <v>-0.7221344882827272</v>
       </c>
       <c r="G92" t="n">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="H92" t="n">
-        <v>33.35792893962685</v>
+        <v>130.9377792194596</v>
       </c>
       <c r="I92" t="n">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="J92" t="n">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="K92" t="n">
-        <v>108.8688244295248</v>
+        <v>248.2229048970998</v>
       </c>
       <c r="L92" t="n">
-        <v>5.555475953317909</v>
+        <v>8.743955171572669</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -8346,24 +8346,24 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.8880989646056373</v>
+        <v>0.5830797324122942</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="R92" t="n">
-        <v>0.2142462698295752</v>
+        <v>0.4400615873213412</v>
       </c>
       <c r="S92" t="n">
-        <v>0.9345078052557713</v>
+        <v>0.9710428953006345</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n38</t>
         </is>
       </c>
       <c r="U92" t="n">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="V92" t="inlineStr">
         <is>
@@ -8383,40 +8383,40 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1678</v>
+        <v>956</v>
       </c>
       <c r="B93" t="n">
-        <v>1709</v>
+        <v>986</v>
       </c>
       <c r="C93" t="n">
-        <v>1756</v>
+        <v>1029</v>
       </c>
       <c r="D93" t="n">
-        <v>2.833331891604226</v>
+        <v>2.71838345498666</v>
       </c>
       <c r="E93" t="n">
-        <v>2.276074390482158</v>
+        <v>2.161125953864592</v>
       </c>
       <c r="F93" t="n">
         <v>-0.5572575011220683</v>
       </c>
       <c r="G93" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H93" t="n">
-        <v>146.8878586182157</v>
+        <v>45.68126836607178</v>
       </c>
       <c r="I93" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J93" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K93" t="n">
-        <v>145.6834949285686</v>
+        <v>92.4801259966639</v>
       </c>
       <c r="L93" t="n">
-        <v>6.298893231641014</v>
+        <v>6.043346773584473</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
@@ -8432,16 +8432,16 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.7556654364244588</v>
+        <v>0.7777156065427628</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.6595744680851063</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="R93" t="n">
-        <v>0.2423080802285725</v>
+        <v>0.24890631077311</v>
       </c>
       <c r="S93" t="n">
-        <v>0.9472928178123822</v>
+        <v>0.9431899872139687</v>
       </c>
       <c r="T93" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         </is>
       </c>
       <c r="U93" t="n">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="V93" t="inlineStr">
         <is>
@@ -8469,40 +8469,40 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1213</v>
+        <v>1503</v>
       </c>
       <c r="B94" t="n">
-        <v>1241</v>
+        <v>1525</v>
       </c>
       <c r="C94" t="n">
-        <v>1293</v>
+        <v>1577</v>
       </c>
       <c r="D94" t="n">
-        <v>1.865850866917753</v>
+        <v>2.498932211218833</v>
       </c>
       <c r="E94" t="n">
-        <v>1.113940078768357</v>
+        <v>1.941674710096765</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.7519107881493956</v>
+        <v>-0.5572575011220683</v>
       </c>
       <c r="G94" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H94" t="n">
-        <v>31.35209330953739</v>
+        <v>33.35792893962685</v>
       </c>
       <c r="I94" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J94" t="n">
         <v>52</v>
       </c>
       <c r="K94" t="n">
-        <v>109.077347384639</v>
+        <v>108.8688244295248</v>
       </c>
       <c r="L94" t="n">
-        <v>5.520476792319712</v>
+        <v>5.555475953317909</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
@@ -8518,24 +8518,24 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.8793283993410441</v>
+        <v>0.8880989646056373</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="R94" t="n">
-        <v>0.4075707377310298</v>
+        <v>0.2142462698295752</v>
       </c>
       <c r="S94" t="n">
-        <v>0.9793356755904468</v>
+        <v>0.9345078052557713</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>n40</t>
+          <t>n39</t>
         </is>
       </c>
       <c r="U94" t="n">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="V94" t="inlineStr">
         <is>
@@ -8555,40 +8555,40 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1579</v>
+        <v>1678</v>
       </c>
       <c r="B95" t="n">
-        <v>1657</v>
+        <v>1709</v>
       </c>
       <c r="C95" t="n">
-        <v>1821</v>
+        <v>1756</v>
       </c>
       <c r="D95" t="n">
-        <v>3.074575486546181</v>
+        <v>2.833331891604226</v>
       </c>
       <c r="E95" t="n">
-        <v>2.322664698396785</v>
+        <v>2.276074390482158</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.7519107881493956</v>
+        <v>-0.5572575011220683</v>
       </c>
       <c r="G95" t="n">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="H95" t="n">
-        <v>112.4509106794665</v>
+        <v>146.8878586182157</v>
       </c>
       <c r="I95" t="n">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="J95" t="n">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="K95" t="n">
-        <v>451.4037218809548</v>
+        <v>145.6834949285686</v>
       </c>
       <c r="L95" t="n">
-        <v>9.096719850794729</v>
+        <v>6.298893231641014</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
@@ -8604,24 +8604,24 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.7674313625211601</v>
+        <v>0.7556654364244588</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.475609756097561</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="R95" t="n">
-        <v>0.212508789140189</v>
+        <v>0.2423080802285725</v>
       </c>
       <c r="S95" t="n">
-        <v>0.8611120164270002</v>
+        <v>0.9472928178123822</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>n40</t>
+          <t>n39</t>
         </is>
       </c>
       <c r="U95" t="n">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="V95" t="inlineStr">
         <is>
@@ -8641,40 +8641,40 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2382</v>
+        <v>1213</v>
       </c>
       <c r="B96" t="n">
-        <v>2458</v>
+        <v>1241</v>
       </c>
       <c r="C96" t="n">
-        <v>2583</v>
+        <v>1293</v>
       </c>
       <c r="D96" t="n">
-        <v>2.939980427370542</v>
+        <v>1.865850866917753</v>
       </c>
       <c r="E96" t="n">
-        <v>2.188069639221147</v>
+        <v>1.113940078768357</v>
       </c>
       <c r="F96" t="n">
         <v>-0.7519107881493956</v>
       </c>
       <c r="G96" t="n">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="H96" t="n">
-        <v>131.9448844885974</v>
+        <v>31.35209330953739</v>
       </c>
       <c r="I96" t="n">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="J96" t="n">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="K96" t="n">
-        <v>386.3138448370016</v>
+        <v>109.077347384639</v>
       </c>
       <c r="L96" t="n">
-        <v>8.69849461548027</v>
+        <v>5.520476792319712</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -8690,16 +8690,16 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.5564186592268647</v>
+        <v>0.8793283993410441</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.608</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="R96" t="n">
-        <v>0.1726320753693837</v>
+        <v>0.4075707377310298</v>
       </c>
       <c r="S96" t="n">
-        <v>0.8104419259254223</v>
+        <v>0.9793356755904468</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         </is>
       </c>
       <c r="U96" t="n">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="V96" t="inlineStr">
         <is>
@@ -8727,40 +8727,40 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2583</v>
+        <v>1579</v>
       </c>
       <c r="B97" t="n">
-        <v>2609</v>
+        <v>1657</v>
       </c>
       <c r="C97" t="n">
-        <v>2686</v>
+        <v>1821</v>
       </c>
       <c r="D97" t="n">
-        <v>1.196398122110039</v>
+        <v>3.074575486546181</v>
       </c>
       <c r="E97" t="n">
-        <v>0.444487333960643</v>
+        <v>2.322664698396785</v>
       </c>
       <c r="F97" t="n">
         <v>-0.7519107881493956</v>
       </c>
       <c r="G97" t="n">
-        <v>103</v>
+        <v>242</v>
       </c>
       <c r="H97" t="n">
-        <v>25.16325618755582</v>
+        <v>112.4509106794665</v>
       </c>
       <c r="I97" t="n">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="J97" t="n">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="K97" t="n">
-        <v>67.21109511866004</v>
+        <v>451.4037218809548</v>
       </c>
       <c r="L97" t="n">
-        <v>3.539772757076672</v>
+        <v>9.096719850794729</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
@@ -8776,16 +8776,16 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.7474478111175838</v>
+        <v>0.7674313625211601</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.3376623376623377</v>
+        <v>0.475609756097561</v>
       </c>
       <c r="R97" t="n">
-        <v>0.401482079352333</v>
+        <v>0.212508789140189</v>
       </c>
       <c r="S97" t="n">
-        <v>0.3015076012212972</v>
+        <v>0.8611120164270002</v>
       </c>
       <c r="T97" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         </is>
       </c>
       <c r="U97" t="n">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="V97" t="inlineStr">
         <is>
@@ -8813,40 +8813,40 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2686</v>
+        <v>2382</v>
       </c>
       <c r="B98" t="n">
-        <v>2717</v>
+        <v>2458</v>
       </c>
       <c r="C98" t="n">
-        <v>2881</v>
+        <v>2583</v>
       </c>
       <c r="D98" t="n">
-        <v>2.05398794667023</v>
+        <v>2.939980427370542</v>
       </c>
       <c r="E98" t="n">
-        <v>1.302077158520834</v>
+        <v>2.188069639221147</v>
       </c>
       <c r="F98" t="n">
         <v>-0.7519107881493956</v>
       </c>
       <c r="G98" t="n">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H98" t="n">
-        <v>92.8546037322858</v>
+        <v>131.9448844885974</v>
       </c>
       <c r="I98" t="n">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="J98" t="n">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="K98" t="n">
-        <v>249.680311838864</v>
+        <v>386.3138448370016</v>
       </c>
       <c r="L98" t="n">
-        <v>6.077116339972335</v>
+        <v>8.69849461548027</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -8862,16 +8862,16 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.8916064473963451</v>
+        <v>0.5564186592268647</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.1890243902439024</v>
+        <v>0.608</v>
       </c>
       <c r="R98" t="n">
-        <v>0.2219595019376665</v>
+        <v>0.1726320753693837</v>
       </c>
       <c r="S98" t="n">
-        <v>0.8497258055584281</v>
+        <v>0.8104419259254223</v>
       </c>
       <c r="T98" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         </is>
       </c>
       <c r="U98" t="n">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="V98" t="inlineStr">
         <is>
@@ -8899,40 +8899,40 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1152</v>
+        <v>2583</v>
       </c>
       <c r="B99" t="n">
-        <v>1181</v>
+        <v>2609</v>
       </c>
       <c r="C99" t="n">
-        <v>1219</v>
+        <v>2686</v>
       </c>
       <c r="D99" t="n">
-        <v>2.084670607943583</v>
+        <v>1.196398122110039</v>
       </c>
       <c r="E99" t="n">
-        <v>1.496376194639571</v>
+        <v>0.444487333960643</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.5882944133040123</v>
+        <v>-0.7519107881493956</v>
       </c>
       <c r="G99" t="n">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="H99" t="n">
-        <v>21.44773174597208</v>
+        <v>25.16325618755582</v>
       </c>
       <c r="I99" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J99" t="n">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="K99" t="n">
-        <v>88.29516675426147</v>
+        <v>67.21109511866004</v>
       </c>
       <c r="L99" t="n">
-        <v>5.330131359369864</v>
+        <v>3.539772757076672</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -8948,24 +8948,24 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.7558861387377172</v>
+        <v>0.7474478111175838</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="R99" t="n">
-        <v>0.3466438670284521</v>
+        <v>0.401482079352333</v>
       </c>
       <c r="S99" t="n">
-        <v>0.8150379554638283</v>
+        <v>0.3015076012212972</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>n41</t>
+          <t>n40</t>
         </is>
       </c>
       <c r="U99" t="n">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="V99" t="inlineStr">
         <is>
@@ -8985,40 +8985,40 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2128</v>
+        <v>2686</v>
       </c>
       <c r="B100" t="n">
-        <v>2150</v>
+        <v>2717</v>
       </c>
       <c r="C100" t="n">
-        <v>2183</v>
+        <v>2881</v>
       </c>
       <c r="D100" t="n">
-        <v>2.607609611028268</v>
+        <v>2.05398794667023</v>
       </c>
       <c r="E100" t="n">
-        <v>2.022637176383511</v>
+        <v>1.302077158520834</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.5849724346447572</v>
+        <v>-0.7519107881493956</v>
       </c>
       <c r="G100" t="n">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="H100" t="n">
-        <v>21.85036103341281</v>
+        <v>92.8546037322858</v>
       </c>
       <c r="I100" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J100" t="n">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="K100" t="n">
-        <v>112.2968028528094</v>
+        <v>249.680311838864</v>
       </c>
       <c r="L100" t="n">
-        <v>7.834832101563469</v>
+        <v>6.077116339972335</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
@@ -9034,24 +9034,24 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.7068539529467496</v>
+        <v>0.8916064473963451</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="R100" t="n">
-        <v>0.08041510982069648</v>
+        <v>0.2219595019376665</v>
       </c>
       <c r="S100" t="n">
-        <v>0.9537005589683567</v>
+        <v>0.8497258055584281</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>n42</t>
+          <t>n40</t>
         </is>
       </c>
       <c r="U100" t="n">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="V100" t="inlineStr">
         <is>
@@ -9071,40 +9071,40 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2183</v>
+        <v>1152</v>
       </c>
       <c r="B101" t="n">
-        <v>2202</v>
+        <v>1181</v>
       </c>
       <c r="C101" t="n">
-        <v>2274</v>
+        <v>1219</v>
       </c>
       <c r="D101" t="n">
-        <v>2.298638508191889</v>
+        <v>2.084670607943583</v>
       </c>
       <c r="E101" t="n">
-        <v>1.713666073547132</v>
+        <v>1.496376194639571</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.5849724346447572</v>
+        <v>-0.5882944133040123</v>
       </c>
       <c r="G101" t="n">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="H101" t="n">
-        <v>24.86523895742084</v>
+        <v>21.44773174597208</v>
       </c>
       <c r="I101" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J101" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="K101" t="n">
-        <v>128.9040217466235</v>
+        <v>88.29516675426147</v>
       </c>
       <c r="L101" t="n">
-        <v>6.906496546762629</v>
+        <v>5.330131359369864</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -9120,24 +9120,24 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.9203551920432671</v>
+        <v>0.7558861387377172</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.2638888888888889</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="R101" t="n">
-        <v>0.3051693689349385</v>
+        <v>0.3466438670284521</v>
       </c>
       <c r="S101" t="n">
-        <v>0.9213842472731918</v>
+        <v>0.8150379554638283</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>n42</t>
+          <t>n41</t>
         </is>
       </c>
       <c r="U101" t="n">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="V101" t="inlineStr">
         <is>
@@ -9157,40 +9157,40 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>352</v>
+        <v>2128</v>
       </c>
       <c r="B102" t="n">
-        <v>382</v>
+        <v>2150</v>
       </c>
       <c r="C102" t="n">
-        <v>483</v>
+        <v>2183</v>
       </c>
       <c r="D102" t="n">
-        <v>1.716223842751474</v>
+        <v>2.607609611028268</v>
       </c>
       <c r="E102" t="n">
-        <v>1.125960777216914</v>
+        <v>2.022637176383511</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.59026306553456</v>
+        <v>-0.5849724346447572</v>
       </c>
       <c r="G102" t="n">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="H102" t="n">
-        <v>27.91527864651181</v>
+        <v>21.85036103341281</v>
       </c>
       <c r="I102" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J102" t="n">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="K102" t="n">
-        <v>118.8462550464073</v>
+        <v>112.2968028528094</v>
       </c>
       <c r="L102" t="n">
-        <v>4.926406707798431</v>
+        <v>7.834832101563469</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
@@ -9206,24 +9206,24 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>0.8125771917920515</v>
+        <v>0.7068539529467496</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.297029702970297</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R102" t="n">
-        <v>0.4203976802311045</v>
+        <v>0.08041510982069648</v>
       </c>
       <c r="S102" t="n">
-        <v>0.5740754726420196</v>
+        <v>0.9537005589683567</v>
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>n43</t>
+          <t>n42</t>
         </is>
       </c>
       <c r="U102" t="n">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="V102" t="inlineStr">
         <is>
@@ -9243,40 +9243,40 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1878</v>
+        <v>2183</v>
       </c>
       <c r="B103" t="n">
-        <v>1918</v>
+        <v>2202</v>
       </c>
       <c r="C103" t="n">
-        <v>2015</v>
+        <v>2274</v>
       </c>
       <c r="D103" t="n">
-        <v>2.785045272505384</v>
+        <v>2.298638508191889</v>
       </c>
       <c r="E103" t="n">
-        <v>2.194782206970824</v>
+        <v>1.713666073547132</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.59026306553456</v>
+        <v>-0.5849724346447572</v>
       </c>
       <c r="G103" t="n">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="H103" t="n">
-        <v>63.0040856172227</v>
+        <v>24.86523895742084</v>
       </c>
       <c r="I103" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J103" t="n">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="K103" t="n">
-        <v>210.7098416153102</v>
+        <v>128.9040217466235</v>
       </c>
       <c r="L103" t="n">
-        <v>7.994450007171743</v>
+        <v>6.906496546762629</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
@@ -9292,24 +9292,24 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>0.7724986412189999</v>
+        <v>0.9203551920432671</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.4123711340206185</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="R103" t="n">
-        <v>0.3026829536275411</v>
+        <v>0.3051693689349385</v>
       </c>
       <c r="S103" t="n">
-        <v>0.8388228400865945</v>
+        <v>0.9213842472731918</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>n43</t>
+          <t>n42</t>
         </is>
       </c>
       <c r="U103" t="n">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="V103" t="inlineStr">
         <is>
@@ -9329,40 +9329,40 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2148</v>
+        <v>352</v>
       </c>
       <c r="B104" t="n">
-        <v>2177</v>
+        <v>382</v>
       </c>
       <c r="C104" t="n">
-        <v>2266</v>
+        <v>483</v>
       </c>
       <c r="D104" t="n">
-        <v>3.578837219299378</v>
+        <v>1.716223842751474</v>
       </c>
       <c r="E104" t="n">
-        <v>2.988574153764818</v>
+        <v>1.125960777216914</v>
       </c>
       <c r="F104" t="n">
         <v>-0.59026306553456</v>
       </c>
       <c r="G104" t="n">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="H104" t="n">
-        <v>342.8376755821635</v>
+        <v>27.91527864651181</v>
       </c>
       <c r="I104" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J104" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K104" t="n">
-        <v>295.931931900913</v>
+        <v>118.8462550464073</v>
       </c>
       <c r="L104" t="n">
-        <v>10.27302339245514</v>
+        <v>4.926406707798431</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
@@ -9378,16 +9378,16 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>0.7549138328460046</v>
+        <v>0.8125771917920515</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.3258426966292135</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="R104" t="n">
-        <v>0.08019124016662001</v>
+        <v>0.4203976802311045</v>
       </c>
       <c r="S104" t="n">
-        <v>0.9748208625620712</v>
+        <v>0.5740754726420196</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
@@ -9395,7 +9395,7 @@
         </is>
       </c>
       <c r="U104" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="V104" t="inlineStr">
         <is>
@@ -9415,40 +9415,40 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0</v>
+        <v>1878</v>
       </c>
       <c r="B105" t="n">
-        <v>19</v>
+        <v>1918</v>
       </c>
       <c r="C105" t="n">
-        <v>73</v>
+        <v>2015</v>
       </c>
       <c r="D105" t="n">
-        <v>1.952664626754592</v>
+        <v>2.785045272505384</v>
       </c>
       <c r="E105" t="n">
-        <v>1.383325849511234</v>
+        <v>2.194782206970824</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.5693387772433577</v>
+        <v>-0.59026306553456</v>
       </c>
       <c r="G105" t="n">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="H105" t="n">
-        <v>115.2630125643168</v>
+        <v>63.0040856172227</v>
       </c>
       <c r="I105" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J105" t="n">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K105" t="n">
-        <v>117.9976401938868</v>
+        <v>210.7098416153102</v>
       </c>
       <c r="L105" t="n">
-        <v>5.171730779454485</v>
+        <v>7.994450007171743</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -9464,24 +9464,24 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>0.7562159386367804</v>
+        <v>0.7724986412189999</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.3518518518518519</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="R105" t="n">
-        <v>0.3561842541408183</v>
+        <v>0.3026829536275411</v>
       </c>
       <c r="S105" t="n">
-        <v>0.4321246532245941</v>
+        <v>0.8388228400865945</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
-          <t>n45</t>
+          <t>n43</t>
         </is>
       </c>
       <c r="U105" t="n">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="V105" t="inlineStr">
         <is>
@@ -9501,73 +9501,73 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
+        <v>2148</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2177</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2266</v>
+      </c>
+      <c r="D106" t="n">
+        <v>3.578837219299378</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2.988574153764818</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-0.59026306553456</v>
+      </c>
+      <c r="G106" t="n">
+        <v>118</v>
+      </c>
+      <c r="H106" t="n">
+        <v>342.8376755821635</v>
+      </c>
+      <c r="I106" t="n">
+        <v>29</v>
+      </c>
+      <c r="J106" t="n">
+        <v>89</v>
+      </c>
+      <c r="K106" t="n">
+        <v>295.931931900913</v>
+      </c>
+      <c r="L106" t="n">
+        <v>10.27302339245514</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>0.7549138328460046</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.3258426966292135</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.08019124016662001</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0.9748208625620712</v>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>n43</t>
+        </is>
+      </c>
+      <c r="U106" t="n">
         <v>251</v>
-      </c>
-      <c r="B106" t="n">
-        <v>284</v>
-      </c>
-      <c r="C106" t="n">
-        <v>334</v>
-      </c>
-      <c r="D106" t="n">
-        <v>1.673137654892634</v>
-      </c>
-      <c r="E106" t="n">
-        <v>1.103798877649276</v>
-      </c>
-      <c r="F106" t="n">
-        <v>-0.5693387772433577</v>
-      </c>
-      <c r="G106" t="n">
-        <v>83</v>
-      </c>
-      <c r="H106" t="n">
-        <v>44.05854026402682</v>
-      </c>
-      <c r="I106" t="n">
-        <v>33</v>
-      </c>
-      <c r="J106" t="n">
-        <v>50</v>
-      </c>
-      <c r="K106" t="n">
-        <v>94.1777219939882</v>
-      </c>
-      <c r="L106" t="n">
-        <v>4.43138949183209</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
-        <v>0</v>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P106" t="n">
-        <v>0.7685329987982357</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="R106" t="n">
-        <v>0.4387220784808905</v>
-      </c>
-      <c r="S106" t="n">
-        <v>0.803242664972236</v>
-      </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>n45</t>
-        </is>
-      </c>
-      <c r="U106" t="n">
-        <v>242</v>
       </c>
       <c r="V106" t="inlineStr">
         <is>
@@ -9587,40 +9587,40 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1506</v>
+        <v>0</v>
       </c>
       <c r="B107" t="n">
-        <v>1550</v>
+        <v>19</v>
       </c>
       <c r="C107" t="n">
-        <v>1616</v>
+        <v>73</v>
       </c>
       <c r="D107" t="n">
-        <v>2.49120051231416</v>
+        <v>1.952664626754592</v>
       </c>
       <c r="E107" t="n">
-        <v>1.921861735070802</v>
+        <v>1.383325849511234</v>
       </c>
       <c r="F107" t="n">
         <v>-0.5693387772433577</v>
       </c>
       <c r="G107" t="n">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="H107" t="n">
-        <v>44.25132319240197</v>
+        <v>115.2630125643168</v>
       </c>
       <c r="I107" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J107" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K107" t="n">
-        <v>126.8119463453721</v>
+        <v>117.9976401938868</v>
       </c>
       <c r="L107" t="n">
-        <v>6.598070242477506</v>
+        <v>5.171730779454485</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
@@ -9636,16 +9636,16 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>0.7900389553657662</v>
+        <v>0.7562159386367804</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="R107" t="n">
-        <v>0.1952587369370919</v>
+        <v>0.3561842541408183</v>
       </c>
       <c r="S107" t="n">
-        <v>0.8660624790194962</v>
+        <v>0.4321246532245941</v>
       </c>
       <c r="T107" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         </is>
       </c>
       <c r="U107" t="n">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="V107" t="inlineStr">
         <is>
@@ -9673,40 +9673,40 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2174</v>
+        <v>251</v>
       </c>
       <c r="B108" t="n">
-        <v>2201</v>
+        <v>284</v>
       </c>
       <c r="C108" t="n">
-        <v>2238</v>
+        <v>334</v>
       </c>
       <c r="D108" t="n">
-        <v>2.189959539304865</v>
+        <v>1.673137654892634</v>
       </c>
       <c r="E108" t="n">
-        <v>1.620620762061507</v>
+        <v>1.103798877649276</v>
       </c>
       <c r="F108" t="n">
         <v>-0.5693387772433577</v>
       </c>
       <c r="G108" t="n">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="H108" t="n">
-        <v>55.51368490069672</v>
+        <v>44.05854026402682</v>
       </c>
       <c r="I108" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J108" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K108" t="n">
-        <v>94.5065744575484</v>
+        <v>94.1777219939882</v>
       </c>
       <c r="L108" t="n">
-        <v>5.800218327305396</v>
+        <v>4.43138949183209</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
@@ -9722,16 +9722,16 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>0.6964104909283658</v>
+        <v>0.7685329987982357</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.7297297297297297</v>
+        <v>0.66</v>
       </c>
       <c r="R108" t="n">
-        <v>0.1543211018624595</v>
+        <v>0.4387220784808905</v>
       </c>
       <c r="S108" t="n">
-        <v>0.9507497704766752</v>
+        <v>0.803242664972236</v>
       </c>
       <c r="T108" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="U108" t="n">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="V108" t="inlineStr">
         <is>
@@ -9759,40 +9759,40 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2238</v>
+        <v>1506</v>
       </c>
       <c r="B109" t="n">
-        <v>2260</v>
+        <v>1550</v>
       </c>
       <c r="C109" t="n">
-        <v>2406</v>
+        <v>1616</v>
       </c>
       <c r="D109" t="n">
-        <v>2.110470758151048</v>
+        <v>2.49120051231416</v>
       </c>
       <c r="E109" t="n">
-        <v>1.541131980907691</v>
+        <v>1.921861735070802</v>
       </c>
       <c r="F109" t="n">
         <v>-0.5693387772433577</v>
       </c>
       <c r="G109" t="n">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="H109" t="n">
-        <v>135.6554556680339</v>
+        <v>44.25132319240197</v>
       </c>
       <c r="I109" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J109" t="n">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="K109" t="n">
-        <v>283.0916022664086</v>
+        <v>126.8119463453721</v>
       </c>
       <c r="L109" t="n">
-        <v>5.589688280065399</v>
+        <v>6.598070242477506</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
@@ -9808,16 +9808,16 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>0.7257748585359419</v>
+        <v>0.7900389553657662</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.1506849315068493</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R109" t="n">
-        <v>0.2634228834739984</v>
+        <v>0.1952587369370919</v>
       </c>
       <c r="S109" t="n">
-        <v>0.3353449322373718</v>
+        <v>0.8660624790194962</v>
       </c>
       <c r="T109" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         </is>
       </c>
       <c r="U109" t="n">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="V109" t="inlineStr">
         <is>
@@ -9845,40 +9845,40 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1231</v>
+        <v>2174</v>
       </c>
       <c r="B110" t="n">
-        <v>1285</v>
+        <v>2201</v>
       </c>
       <c r="C110" t="n">
-        <v>1362</v>
+        <v>2238</v>
       </c>
       <c r="D110" t="n">
-        <v>2.72295548238974</v>
+        <v>2.189959539304865</v>
       </c>
       <c r="E110" t="n">
-        <v>2.164091666805991</v>
+        <v>1.620620762061507</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.558863815583749</v>
+        <v>-0.5693387772433577</v>
       </c>
       <c r="G110" t="n">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="H110" t="n">
-        <v>64.50787599711657</v>
+        <v>55.51368490069672</v>
       </c>
       <c r="I110" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="J110" t="n">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="K110" t="n">
-        <v>154.3468435570326</v>
+        <v>94.5065744575484</v>
       </c>
       <c r="L110" t="n">
-        <v>8.555531796511813</v>
+        <v>5.800218327305396</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
@@ -9894,24 +9894,24 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>0.6129150103656343</v>
+        <v>0.6964104909283658</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.7012987012987013</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="R110" t="n">
-        <v>0.4136472205747754</v>
+        <v>0.1543211018624595</v>
       </c>
       <c r="S110" t="n">
-        <v>0.7984624544947165</v>
+        <v>0.9507497704766752</v>
       </c>
       <c r="T110" t="inlineStr">
         <is>
-          <t>n46</t>
+          <t>n45</t>
         </is>
       </c>
       <c r="U110" t="n">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="V110" t="inlineStr">
         <is>
@@ -9931,40 +9931,40 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1662</v>
+        <v>2238</v>
       </c>
       <c r="B111" t="n">
-        <v>1683</v>
+        <v>2260</v>
       </c>
       <c r="C111" t="n">
-        <v>1732</v>
+        <v>2406</v>
       </c>
       <c r="D111" t="n">
-        <v>1.723266094489439</v>
+        <v>2.110470758151048</v>
       </c>
       <c r="E111" t="n">
-        <v>1.16440227890569</v>
+        <v>1.541131980907691</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.558863815583749</v>
+        <v>-0.5693387772433577</v>
       </c>
       <c r="G111" t="n">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="H111" t="n">
-        <v>38.9911177018032</v>
+        <v>135.6554556680339</v>
       </c>
       <c r="I111" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J111" t="n">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="K111" t="n">
-        <v>69.90593840145154</v>
+        <v>283.0916022664086</v>
       </c>
       <c r="L111" t="n">
-        <v>5.414505657770015</v>
+        <v>5.589688280065399</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
@@ -9980,24 +9980,24 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>0.805418681137671</v>
+        <v>0.7257748585359419</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.1506849315068493</v>
       </c>
       <c r="R111" t="n">
-        <v>0.166141667011364</v>
+        <v>0.2634228834739984</v>
       </c>
       <c r="S111" t="n">
-        <v>0.8610089759773383</v>
+        <v>0.3353449322373718</v>
       </c>
       <c r="T111" t="inlineStr">
         <is>
-          <t>n46</t>
+          <t>n45</t>
         </is>
       </c>
       <c r="U111" t="n">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="V111" t="inlineStr">
         <is>
@@ -10017,40 +10017,40 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2275</v>
+        <v>1231</v>
       </c>
       <c r="B112" t="n">
-        <v>2297</v>
+        <v>1285</v>
       </c>
       <c r="C112" t="n">
-        <v>2418</v>
+        <v>1362</v>
       </c>
       <c r="D112" t="n">
-        <v>2.030979449051502</v>
+        <v>2.72295548238974</v>
       </c>
       <c r="E112" t="n">
-        <v>1.539170754578679</v>
+        <v>2.164091666805991</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.4918086944728234</v>
+        <v>-0.558863815583749</v>
       </c>
       <c r="G112" t="n">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H112" t="n">
-        <v>117.5792561247672</v>
+        <v>64.50787599711657</v>
       </c>
       <c r="I112" t="n">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="J112" t="n">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="K112" t="n">
-        <v>234.4671524672701</v>
+        <v>154.3468435570326</v>
       </c>
       <c r="L112" t="n">
-        <v>6.181143242833145</v>
+        <v>8.555531796511813</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
@@ -10066,24 +10066,24 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>0.7175295624335519</v>
+        <v>0.6129150103656343</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="R112" t="n">
-        <v>0.1531037078104557</v>
+        <v>0.4136472205747754</v>
       </c>
       <c r="S112" t="n">
-        <v>0.5144703681242004</v>
+        <v>0.7984624544947165</v>
       </c>
       <c r="T112" t="inlineStr">
         <is>
-          <t>n48</t>
+          <t>n46</t>
         </is>
       </c>
       <c r="U112" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="V112" t="inlineStr">
         <is>
@@ -10103,40 +10103,40 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2367</v>
+        <v>1662</v>
       </c>
       <c r="B113" t="n">
-        <v>2387</v>
+        <v>1683</v>
       </c>
       <c r="C113" t="n">
-        <v>2416</v>
+        <v>1732</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6399688318131427</v>
+        <v>1.723266094489439</v>
       </c>
       <c r="E113" t="n">
-        <v>0.1528749963915115</v>
+        <v>1.16440227890569</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.4870938354216311</v>
+        <v>-0.558863815583749</v>
       </c>
       <c r="G113" t="n">
+        <v>70</v>
+      </c>
+      <c r="H113" t="n">
+        <v>38.9911177018032</v>
+      </c>
+      <c r="I113" t="n">
+        <v>21</v>
+      </c>
+      <c r="J113" t="n">
         <v>49</v>
       </c>
-      <c r="H113" t="n">
-        <v>32.37742969110923</v>
-      </c>
-      <c r="I113" t="n">
-        <v>20</v>
-      </c>
-      <c r="J113" t="n">
-        <v>29</v>
-      </c>
       <c r="K113" t="n">
-        <v>25.21227773615409</v>
+        <v>69.90593840145154</v>
       </c>
       <c r="L113" t="n">
-        <v>4.369693828941776</v>
+        <v>5.414505657770015</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
@@ -10152,24 +10152,24 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>0.6760839333152011</v>
+        <v>0.805418681137671</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="R113" t="n">
-        <v>0.1504356507299069</v>
+        <v>0.166141667011364</v>
       </c>
       <c r="S113" t="n">
-        <v>0.7745937543437995</v>
+        <v>0.8610089759773383</v>
       </c>
       <c r="T113" t="inlineStr">
         <is>
-          <t>n49</t>
+          <t>n46</t>
         </is>
       </c>
       <c r="U113" t="n">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="V113" t="inlineStr">
         <is>
@@ -10189,40 +10189,40 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2416</v>
+        <v>2275</v>
       </c>
       <c r="B114" t="n">
-        <v>2442</v>
+        <v>2297</v>
       </c>
       <c r="C114" t="n">
-        <v>2485</v>
+        <v>2381</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6484822892068156</v>
+        <v>2.030979449051502</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1613884537851846</v>
+        <v>1.539170754578679</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.4870938354216311</v>
+        <v>-0.4918086944728234</v>
       </c>
       <c r="G114" t="n">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="H114" t="n">
-        <v>20.14123336085868</v>
+        <v>117.5792561247672</v>
       </c>
       <c r="I114" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J114" t="n">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="K114" t="n">
-        <v>24.84487700692931</v>
+        <v>181.3159984032808</v>
       </c>
       <c r="L114" t="n">
-        <v>4.427823538369489</v>
+        <v>6.181143242833145</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
@@ -10238,24 +10238,24 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>0.7033217478326674</v>
+        <v>0.8063728936321023</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.6046511627906976</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="R114" t="n">
-        <v>0.3632039307584629</v>
+        <v>0.2166140245609436</v>
       </c>
       <c r="S114" t="n">
-        <v>0.6969557035653536</v>
+        <v>0.5172592717520214</v>
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>n49</t>
+          <t>n48</t>
         </is>
       </c>
       <c r="U114" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="V114" t="inlineStr">
         <is>
@@ -10275,85 +10275,343 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
+        <v>2381</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2396</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2418</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.900141457708105</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.408332763235282</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-0.4918086944728234</v>
+      </c>
+      <c r="G115" t="n">
+        <v>37</v>
+      </c>
+      <c r="H115" t="n">
+        <v>11.1991446089246</v>
+      </c>
+      <c r="I115" t="n">
+        <v>15</v>
+      </c>
+      <c r="J115" t="n">
+        <v>22</v>
+      </c>
+      <c r="K115" t="n">
+        <v>53.1511540639892</v>
+      </c>
+      <c r="L115" t="n">
+        <v>5.782947009741871</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>0.7936207229728784</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0.2254184086649113</v>
+      </c>
+      <c r="S115" t="n">
+        <v>0.9401400358138594</v>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>n48</t>
+        </is>
+      </c>
+      <c r="U115" t="n">
+        <v>260</v>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>2367</v>
+      </c>
+      <c r="B116" t="n">
+        <v>2387</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2416</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.6399688318131427</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.1528749963915115</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0.4870938354216311</v>
+      </c>
+      <c r="G116" t="n">
+        <v>49</v>
+      </c>
+      <c r="H116" t="n">
+        <v>32.37742969110923</v>
+      </c>
+      <c r="I116" t="n">
+        <v>20</v>
+      </c>
+      <c r="J116" t="n">
+        <v>29</v>
+      </c>
+      <c r="K116" t="n">
+        <v>25.21227773615409</v>
+      </c>
+      <c r="L116" t="n">
+        <v>4.369693828941776</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>0.6760839333152011</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0.1504356507299069</v>
+      </c>
+      <c r="S116" t="n">
+        <v>0.7745937543437995</v>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>n49</t>
+        </is>
+      </c>
+      <c r="U116" t="n">
+        <v>261</v>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W116" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>2416</v>
+      </c>
+      <c r="B117" t="n">
+        <v>2442</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2485</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.6484822892068156</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.1613884537851846</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.4870938354216311</v>
+      </c>
+      <c r="G117" t="n">
+        <v>69</v>
+      </c>
+      <c r="H117" t="n">
+        <v>20.14123336085868</v>
+      </c>
+      <c r="I117" t="n">
+        <v>26</v>
+      </c>
+      <c r="J117" t="n">
+        <v>43</v>
+      </c>
+      <c r="K117" t="n">
+        <v>24.84487700692931</v>
+      </c>
+      <c r="L117" t="n">
+        <v>4.427823538369489</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>0.7033217478326674</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0.6046511627906976</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0.3632039307584629</v>
+      </c>
+      <c r="S117" t="n">
+        <v>0.6969557035653536</v>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>n49</t>
+        </is>
+      </c>
+      <c r="U117" t="n">
+        <v>262</v>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
         <v>2829</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B118" t="n">
         <v>2892</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C118" t="n">
         <v>2998</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D118" t="n">
         <v>3.466836723013595</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E118" t="n">
         <v>2.979742887591963</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F118" t="n">
         <v>-0.4870938354216311</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G118" t="n">
         <v>169</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H118" t="n">
         <v>33.89632780369584</v>
       </c>
-      <c r="I115" t="n">
+      <c r="I118" t="n">
         <v>63</v>
       </c>
-      <c r="J115" t="n">
+      <c r="J118" t="n">
         <v>106</v>
       </c>
-      <c r="K115" t="n">
+      <c r="K118" t="n">
         <v>422.9030200133728</v>
       </c>
-      <c r="L115" t="n">
+      <c r="L118" t="n">
         <v>23.67148879982397</v>
       </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
-        <v>0</v>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P115" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
         <v>0.6463877952845211</v>
       </c>
-      <c r="Q115" t="n">
+      <c r="Q118" t="n">
         <v>0.5943396226415094</v>
       </c>
-      <c r="R115" t="n">
+      <c r="R118" t="n">
         <v>0.1911828516987416</v>
       </c>
-      <c r="S115" t="n">
+      <c r="S118" t="n">
         <v>0.9589583956162656</v>
       </c>
-      <c r="T115" t="inlineStr">
+      <c r="T118" t="inlineStr">
         <is>
           <t>n49</t>
         </is>
       </c>
-      <c r="U115" t="n">
-        <v>251</v>
-      </c>
-      <c r="V115" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W115" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X115" t="inlineStr">
+      <c r="U118" t="n">
+        <v>263</v>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W118" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X118" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6openfield2024-12-06200757trace.xlsx</t>
         </is>
